--- a/Code/Results/Cases/Case_0_48/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_0_48/res_line/loading_percent.xlsx
@@ -412,28 +412,28 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>10.18944432108857</v>
+        <v>10.18944432108866</v>
       </c>
       <c r="D2">
         <v>16.83602457830675</v>
       </c>
       <c r="E2">
-        <v>9.95851346353018</v>
+        <v>9.958513463530332</v>
       </c>
       <c r="F2">
-        <v>114.833692967902</v>
+        <v>114.8336929679029</v>
       </c>
       <c r="G2">
         <v>0</v>
       </c>
       <c r="H2">
-        <v>85.48956718562992</v>
+        <v>85.48956718563049</v>
       </c>
       <c r="I2">
-        <v>15.18327613190778</v>
+        <v>15.1832761319079</v>
       </c>
       <c r="K2">
-        <v>11.48618376833894</v>
+        <v>11.48618376833904</v>
       </c>
     </row>
     <row r="3" spans="1:12">
@@ -441,28 +441,28 @@
         <v>1</v>
       </c>
       <c r="C3">
-        <v>8.909412594100571</v>
+        <v>8.909412594100747</v>
       </c>
       <c r="D3">
-        <v>14.70970182171913</v>
+        <v>14.70970182171946</v>
       </c>
       <c r="E3">
-        <v>8.717980791160807</v>
+        <v>8.717980791160889</v>
       </c>
       <c r="F3">
-        <v>100.695362635287</v>
+        <v>100.6953626352886</v>
       </c>
       <c r="G3">
         <v>0</v>
       </c>
       <c r="H3">
-        <v>74.92302897699481</v>
+        <v>74.92302897699605</v>
       </c>
       <c r="I3">
-        <v>13.29605235668334</v>
+        <v>13.29605235668355</v>
       </c>
       <c r="K3">
-        <v>10.07437737838328</v>
+        <v>10.07437737838338</v>
       </c>
     </row>
     <row r="4" spans="1:12">
@@ -470,28 +470,28 @@
         <v>2</v>
       </c>
       <c r="C4">
-        <v>8.240859645889511</v>
+        <v>8.240859645889456</v>
       </c>
       <c r="D4">
-        <v>13.59938631884062</v>
+        <v>13.59938631884068</v>
       </c>
       <c r="E4">
-        <v>8.156719238081598</v>
+        <v>8.156719238081662</v>
       </c>
       <c r="F4">
-        <v>93.29523022282282</v>
+        <v>93.29523022282385</v>
       </c>
       <c r="G4">
         <v>0</v>
       </c>
       <c r="H4">
-        <v>69.38726595346529</v>
+        <v>69.38726595346604</v>
       </c>
       <c r="I4">
-        <v>12.30727623400089</v>
+        <v>12.30727623400101</v>
       </c>
       <c r="K4">
-        <v>9.33404118847149</v>
+        <v>9.334041188471577</v>
       </c>
     </row>
     <row r="5" spans="1:12">
@@ -499,28 +499,28 @@
         <v>3</v>
       </c>
       <c r="C5">
-        <v>7.981517142776562</v>
+        <v>7.98151714277658</v>
       </c>
       <c r="D5">
-        <v>13.16878655789456</v>
+        <v>13.16878655789461</v>
       </c>
       <c r="E5">
-        <v>7.963535431833948</v>
+        <v>7.963535431833982</v>
       </c>
       <c r="F5">
-        <v>90.42622256628796</v>
+        <v>90.42622256628864</v>
       </c>
       <c r="G5">
         <v>0</v>
       </c>
       <c r="H5">
-        <v>67.23971143051513</v>
+        <v>67.23971143051568</v>
       </c>
       <c r="I5">
         <v>11.92328004987636</v>
       </c>
       <c r="K5">
-        <v>9.046441467186458</v>
+        <v>9.046441467186442</v>
       </c>
     </row>
     <row r="6" spans="1:12">
@@ -528,28 +528,28 @@
         <v>4</v>
       </c>
       <c r="C6">
-        <v>7.938995999418625</v>
+        <v>7.938995999418537</v>
       </c>
       <c r="D6">
-        <v>13.0981937872588</v>
+        <v>13.09819378725853</v>
       </c>
       <c r="E6">
-        <v>7.932165635492028</v>
+        <v>7.93216563549199</v>
       </c>
       <c r="F6">
-        <v>89.95602437586166</v>
+        <v>89.95602437586091</v>
       </c>
       <c r="G6">
         <v>0</v>
       </c>
       <c r="H6">
-        <v>66.88766745566193</v>
+        <v>66.88766745566134</v>
       </c>
       <c r="I6">
-        <v>11.86030031650103</v>
+        <v>11.86030031650088</v>
       </c>
       <c r="K6">
-        <v>8.999267931503795</v>
+        <v>8.999267931503715</v>
       </c>
     </row>
     <row r="7" spans="1:12">
@@ -557,28 +557,28 @@
         <v>5</v>
       </c>
       <c r="C7">
-        <v>8.237321135692772</v>
+        <v>8.237321135692754</v>
       </c>
       <c r="D7">
-        <v>13.59351066545423</v>
+        <v>13.59351066545444</v>
       </c>
       <c r="E7">
-        <v>8.154062577628588</v>
+        <v>8.154062577628657</v>
       </c>
       <c r="F7">
-        <v>93.25607358386395</v>
+        <v>93.2560735838648</v>
       </c>
       <c r="G7">
         <v>0</v>
       </c>
       <c r="H7">
-        <v>69.35796146420051</v>
+        <v>69.35796146420124</v>
       </c>
       <c r="I7">
-        <v>12.30203843733092</v>
+        <v>12.30203843733103</v>
       </c>
       <c r="K7">
-        <v>9.330118552644144</v>
+        <v>9.330118552644139</v>
       </c>
     </row>
     <row r="8" spans="1:12">
@@ -586,28 +586,28 @@
         <v>6</v>
       </c>
       <c r="C8">
-        <v>9.706924336291477</v>
+        <v>9.70692433629138</v>
       </c>
       <c r="D8">
-        <v>16.034485388164</v>
+        <v>16.03448538816394</v>
       </c>
       <c r="E8">
-        <v>9.492048480682625</v>
+        <v>9.492048480682563</v>
       </c>
       <c r="F8">
-        <v>109.5135908036975</v>
+        <v>109.5135908036967</v>
       </c>
       <c r="G8">
         <v>0</v>
       </c>
       <c r="H8">
-        <v>81.51462721410324</v>
+        <v>81.51462721410265</v>
       </c>
       <c r="I8">
-        <v>14.47295850578101</v>
+        <v>14.47295850578096</v>
       </c>
       <c r="K8">
-        <v>10.9550338886468</v>
+        <v>10.9550338886467</v>
       </c>
     </row>
     <row r="9" spans="1:12">
@@ -615,28 +615,28 @@
         <v>7</v>
       </c>
       <c r="C9">
-        <v>9.706924336291477</v>
+        <v>9.70692433629138</v>
       </c>
       <c r="D9">
-        <v>16.034485388164</v>
+        <v>16.03448538816394</v>
       </c>
       <c r="E9">
-        <v>9.492048480682625</v>
+        <v>9.492048480682563</v>
       </c>
       <c r="F9">
-        <v>109.5135908036975</v>
+        <v>109.5135908036967</v>
       </c>
       <c r="G9">
         <v>0</v>
       </c>
       <c r="H9">
-        <v>81.51462721410324</v>
+        <v>81.51462721410265</v>
       </c>
       <c r="I9">
-        <v>14.47295850578101</v>
+        <v>14.47295850578096</v>
       </c>
       <c r="K9">
-        <v>10.9550338886468</v>
+        <v>10.9550338886467</v>
       </c>
     </row>
     <row r="10" spans="1:12">
@@ -644,28 +644,28 @@
         <v>8</v>
       </c>
       <c r="C10">
-        <v>9.706924336291477</v>
+        <v>9.70692433629138</v>
       </c>
       <c r="D10">
-        <v>16.034485388164</v>
+        <v>16.03448538816394</v>
       </c>
       <c r="E10">
-        <v>9.492048480682625</v>
+        <v>9.492048480682563</v>
       </c>
       <c r="F10">
-        <v>109.5135908036975</v>
+        <v>109.5135908036967</v>
       </c>
       <c r="G10">
         <v>0</v>
       </c>
       <c r="H10">
-        <v>81.51462721410324</v>
+        <v>81.51462721410265</v>
       </c>
       <c r="I10">
-        <v>14.47295850578101</v>
+        <v>14.47295850578096</v>
       </c>
       <c r="K10">
-        <v>10.9550338886468</v>
+        <v>10.9550338886467</v>
       </c>
     </row>
     <row r="11" spans="1:12">
@@ -673,28 +673,28 @@
         <v>9</v>
       </c>
       <c r="C11">
-        <v>9.706924336291477</v>
+        <v>9.70692433629138</v>
       </c>
       <c r="D11">
-        <v>16.034485388164</v>
+        <v>16.03448538816394</v>
       </c>
       <c r="E11">
-        <v>9.492048480682625</v>
+        <v>9.492048480682563</v>
       </c>
       <c r="F11">
-        <v>109.5135908036975</v>
+        <v>109.5135908036967</v>
       </c>
       <c r="G11">
         <v>0</v>
       </c>
       <c r="H11">
-        <v>81.51462721410324</v>
+        <v>81.51462721410265</v>
       </c>
       <c r="I11">
-        <v>14.47295850578101</v>
+        <v>14.47295850578096</v>
       </c>
       <c r="K11">
-        <v>10.9550338886468</v>
+        <v>10.9550338886467</v>
       </c>
     </row>
     <row r="12" spans="1:12">
@@ -702,28 +702,28 @@
         <v>10</v>
       </c>
       <c r="C12">
-        <v>9.706924336291477</v>
+        <v>9.70692433629138</v>
       </c>
       <c r="D12">
-        <v>16.034485388164</v>
+        <v>16.03448538816394</v>
       </c>
       <c r="E12">
-        <v>9.492048480682625</v>
+        <v>9.492048480682563</v>
       </c>
       <c r="F12">
-        <v>109.5135908036975</v>
+        <v>109.5135908036967</v>
       </c>
       <c r="G12">
         <v>0</v>
       </c>
       <c r="H12">
-        <v>81.51462721410324</v>
+        <v>81.51462721410265</v>
       </c>
       <c r="I12">
-        <v>14.47295850578101</v>
+        <v>14.47295850578096</v>
       </c>
       <c r="K12">
-        <v>10.9550338886468</v>
+        <v>10.9550338886467</v>
       </c>
     </row>
     <row r="13" spans="1:12">
@@ -731,28 +731,28 @@
         <v>11</v>
       </c>
       <c r="C13">
-        <v>9.706924336291477</v>
+        <v>9.70692433629138</v>
       </c>
       <c r="D13">
-        <v>16.034485388164</v>
+        <v>16.03448538816394</v>
       </c>
       <c r="E13">
-        <v>9.492048480682625</v>
+        <v>9.492048480682563</v>
       </c>
       <c r="F13">
-        <v>109.5135908036975</v>
+        <v>109.5135908036967</v>
       </c>
       <c r="G13">
         <v>0</v>
       </c>
       <c r="H13">
-        <v>81.51462721410324</v>
+        <v>81.51462721410265</v>
       </c>
       <c r="I13">
-        <v>14.47295850578101</v>
+        <v>14.47295850578096</v>
       </c>
       <c r="K13">
-        <v>10.9550338886468</v>
+        <v>10.9550338886467</v>
       </c>
     </row>
     <row r="14" spans="1:12">
@@ -760,28 +760,28 @@
         <v>12</v>
       </c>
       <c r="C14">
-        <v>9.706924336291477</v>
+        <v>9.70692433629138</v>
       </c>
       <c r="D14">
-        <v>16.034485388164</v>
+        <v>16.03448538816394</v>
       </c>
       <c r="E14">
-        <v>9.492048480682625</v>
+        <v>9.492048480682563</v>
       </c>
       <c r="F14">
-        <v>109.5135908036975</v>
+        <v>109.5135908036967</v>
       </c>
       <c r="G14">
         <v>0</v>
       </c>
       <c r="H14">
-        <v>81.51462721410324</v>
+        <v>81.51462721410265</v>
       </c>
       <c r="I14">
-        <v>14.47295850578101</v>
+        <v>14.47295850578096</v>
       </c>
       <c r="K14">
-        <v>10.9550338886468</v>
+        <v>10.9550338886467</v>
       </c>
     </row>
     <row r="15" spans="1:12">
@@ -789,28 +789,28 @@
         <v>13</v>
       </c>
       <c r="C15">
-        <v>9.706924336291477</v>
+        <v>9.70692433629138</v>
       </c>
       <c r="D15">
-        <v>16.034485388164</v>
+        <v>16.03448538816394</v>
       </c>
       <c r="E15">
-        <v>9.492048480682625</v>
+        <v>9.492048480682563</v>
       </c>
       <c r="F15">
-        <v>109.5135908036975</v>
+        <v>109.5135908036967</v>
       </c>
       <c r="G15">
         <v>0</v>
       </c>
       <c r="H15">
-        <v>81.51462721410324</v>
+        <v>81.51462721410265</v>
       </c>
       <c r="I15">
-        <v>14.47295850578101</v>
+        <v>14.47295850578096</v>
       </c>
       <c r="K15">
-        <v>10.9550338886468</v>
+        <v>10.9550338886467</v>
       </c>
     </row>
     <row r="16" spans="1:12">
@@ -818,28 +818,28 @@
         <v>14</v>
       </c>
       <c r="C16">
-        <v>9.706924336291477</v>
+        <v>9.70692433629138</v>
       </c>
       <c r="D16">
-        <v>16.034485388164</v>
+        <v>16.03448538816394</v>
       </c>
       <c r="E16">
-        <v>9.492048480682625</v>
+        <v>9.492048480682563</v>
       </c>
       <c r="F16">
-        <v>109.5135908036975</v>
+        <v>109.5135908036967</v>
       </c>
       <c r="G16">
         <v>0</v>
       </c>
       <c r="H16">
-        <v>81.51462721410324</v>
+        <v>81.51462721410265</v>
       </c>
       <c r="I16">
-        <v>14.47295850578101</v>
+        <v>14.47295850578096</v>
       </c>
       <c r="K16">
-        <v>10.9550338886468</v>
+        <v>10.9550338886467</v>
       </c>
     </row>
     <row r="17" spans="1:11">
@@ -847,28 +847,28 @@
         <v>15</v>
       </c>
       <c r="C17">
-        <v>9.706924336291477</v>
+        <v>9.70692433629138</v>
       </c>
       <c r="D17">
-        <v>16.034485388164</v>
+        <v>16.03448538816394</v>
       </c>
       <c r="E17">
-        <v>9.492048480682625</v>
+        <v>9.492048480682563</v>
       </c>
       <c r="F17">
-        <v>109.5135908036975</v>
+        <v>109.5135908036967</v>
       </c>
       <c r="G17">
         <v>0</v>
       </c>
       <c r="H17">
-        <v>81.51462721410324</v>
+        <v>81.51462721410265</v>
       </c>
       <c r="I17">
-        <v>14.47295850578101</v>
+        <v>14.47295850578096</v>
       </c>
       <c r="K17">
-        <v>10.9550338886468</v>
+        <v>10.9550338886467</v>
       </c>
     </row>
     <row r="18" spans="1:11">
@@ -876,28 +876,28 @@
         <v>16</v>
       </c>
       <c r="C18">
-        <v>9.706924336291477</v>
+        <v>9.70692433629138</v>
       </c>
       <c r="D18">
-        <v>16.034485388164</v>
+        <v>16.03448538816394</v>
       </c>
       <c r="E18">
-        <v>9.492048480682625</v>
+        <v>9.492048480682563</v>
       </c>
       <c r="F18">
-        <v>109.5135908036975</v>
+        <v>109.5135908036967</v>
       </c>
       <c r="G18">
         <v>0</v>
       </c>
       <c r="H18">
-        <v>81.51462721410324</v>
+        <v>81.51462721410265</v>
       </c>
       <c r="I18">
-        <v>14.47295850578101</v>
+        <v>14.47295850578096</v>
       </c>
       <c r="K18">
-        <v>10.9550338886468</v>
+        <v>10.9550338886467</v>
       </c>
     </row>
     <row r="19" spans="1:11">
@@ -905,28 +905,28 @@
         <v>17</v>
       </c>
       <c r="C19">
-        <v>9.706924336291477</v>
+        <v>9.70692433629138</v>
       </c>
       <c r="D19">
-        <v>16.034485388164</v>
+        <v>16.03448538816394</v>
       </c>
       <c r="E19">
-        <v>9.492048480682625</v>
+        <v>9.492048480682563</v>
       </c>
       <c r="F19">
-        <v>109.5135908036975</v>
+        <v>109.5135908036967</v>
       </c>
       <c r="G19">
         <v>0</v>
       </c>
       <c r="H19">
-        <v>81.51462721410324</v>
+        <v>81.51462721410265</v>
       </c>
       <c r="I19">
-        <v>14.47295850578101</v>
+        <v>14.47295850578096</v>
       </c>
       <c r="K19">
-        <v>10.9550338886468</v>
+        <v>10.9550338886467</v>
       </c>
     </row>
     <row r="20" spans="1:11">
@@ -934,28 +934,28 @@
         <v>18</v>
       </c>
       <c r="C20">
-        <v>9.706924336291477</v>
+        <v>9.70692433629138</v>
       </c>
       <c r="D20">
-        <v>16.034485388164</v>
+        <v>16.03448538816394</v>
       </c>
       <c r="E20">
-        <v>9.492048480682625</v>
+        <v>9.492048480682563</v>
       </c>
       <c r="F20">
-        <v>109.5135908036975</v>
+        <v>109.5135908036967</v>
       </c>
       <c r="G20">
         <v>0</v>
       </c>
       <c r="H20">
-        <v>81.51462721410324</v>
+        <v>81.51462721410265</v>
       </c>
       <c r="I20">
-        <v>14.47295850578101</v>
+        <v>14.47295850578096</v>
       </c>
       <c r="K20">
-        <v>10.9550338886468</v>
+        <v>10.9550338886467</v>
       </c>
     </row>
     <row r="21" spans="1:11">
@@ -963,28 +963,28 @@
         <v>19</v>
       </c>
       <c r="C21">
-        <v>9.706924336291477</v>
+        <v>9.70692433629138</v>
       </c>
       <c r="D21">
-        <v>16.034485388164</v>
+        <v>16.03448538816394</v>
       </c>
       <c r="E21">
-        <v>9.492048480682625</v>
+        <v>9.492048480682563</v>
       </c>
       <c r="F21">
-        <v>109.5135908036975</v>
+        <v>109.5135908036967</v>
       </c>
       <c r="G21">
         <v>0</v>
       </c>
       <c r="H21">
-        <v>81.51462721410324</v>
+        <v>81.51462721410265</v>
       </c>
       <c r="I21">
-        <v>14.47295850578101</v>
+        <v>14.47295850578096</v>
       </c>
       <c r="K21">
-        <v>10.9550338886468</v>
+        <v>10.9550338886467</v>
       </c>
     </row>
     <row r="22" spans="1:11">
@@ -992,28 +992,28 @@
         <v>20</v>
       </c>
       <c r="C22">
-        <v>9.706924336291477</v>
+        <v>9.70692433629138</v>
       </c>
       <c r="D22">
-        <v>16.034485388164</v>
+        <v>16.03448538816394</v>
       </c>
       <c r="E22">
-        <v>9.492048480682625</v>
+        <v>9.492048480682563</v>
       </c>
       <c r="F22">
-        <v>109.5135908036975</v>
+        <v>109.5135908036967</v>
       </c>
       <c r="G22">
         <v>0</v>
       </c>
       <c r="H22">
-        <v>81.51462721410324</v>
+        <v>81.51462721410265</v>
       </c>
       <c r="I22">
-        <v>14.47295850578101</v>
+        <v>14.47295850578096</v>
       </c>
       <c r="K22">
-        <v>10.9550338886468</v>
+        <v>10.9550338886467</v>
       </c>
     </row>
     <row r="23" spans="1:11">
@@ -1021,28 +1021,28 @@
         <v>21</v>
       </c>
       <c r="C23">
-        <v>9.706924336291477</v>
+        <v>9.70692433629138</v>
       </c>
       <c r="D23">
-        <v>16.034485388164</v>
+        <v>16.03448538816394</v>
       </c>
       <c r="E23">
-        <v>9.492048480682625</v>
+        <v>9.492048480682563</v>
       </c>
       <c r="F23">
-        <v>109.5135908036975</v>
+        <v>109.5135908036967</v>
       </c>
       <c r="G23">
         <v>0</v>
       </c>
       <c r="H23">
-        <v>81.51462721410324</v>
+        <v>81.51462721410265</v>
       </c>
       <c r="I23">
-        <v>14.47295850578101</v>
+        <v>14.47295850578096</v>
       </c>
       <c r="K23">
-        <v>10.9550338886468</v>
+        <v>10.9550338886467</v>
       </c>
     </row>
     <row r="24" spans="1:11">
@@ -1050,28 +1050,28 @@
         <v>22</v>
       </c>
       <c r="C24">
-        <v>9.706924336291477</v>
+        <v>9.70692433629138</v>
       </c>
       <c r="D24">
-        <v>16.034485388164</v>
+        <v>16.03448538816394</v>
       </c>
       <c r="E24">
-        <v>9.492048480682625</v>
+        <v>9.492048480682563</v>
       </c>
       <c r="F24">
-        <v>109.5135908036975</v>
+        <v>109.5135908036967</v>
       </c>
       <c r="G24">
         <v>0</v>
       </c>
       <c r="H24">
-        <v>81.51462721410324</v>
+        <v>81.51462721410265</v>
       </c>
       <c r="I24">
-        <v>14.47295850578101</v>
+        <v>14.47295850578096</v>
       </c>
       <c r="K24">
-        <v>10.9550338886468</v>
+        <v>10.9550338886467</v>
       </c>
     </row>
     <row r="25" spans="1:11">
@@ -1079,28 +1079,28 @@
         <v>23</v>
       </c>
       <c r="C25">
-        <v>9.706924336291477</v>
+        <v>9.70692433629138</v>
       </c>
       <c r="D25">
-        <v>16.034485388164</v>
+        <v>16.03448538816394</v>
       </c>
       <c r="E25">
-        <v>9.492048480682625</v>
+        <v>9.492048480682563</v>
       </c>
       <c r="F25">
-        <v>109.5135908036975</v>
+        <v>109.5135908036967</v>
       </c>
       <c r="G25">
         <v>0</v>
       </c>
       <c r="H25">
-        <v>81.51462721410324</v>
+        <v>81.51462721410265</v>
       </c>
       <c r="I25">
-        <v>14.47295850578101</v>
+        <v>14.47295850578096</v>
       </c>
       <c r="K25">
-        <v>10.9550338886468</v>
+        <v>10.9550338886467</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_0_48/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_0_48/res_line/loading_percent.xlsx
@@ -412,28 +412,28 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>10.18944432108866</v>
+        <v>10.18944432108857</v>
       </c>
       <c r="D2">
         <v>16.83602457830675</v>
       </c>
       <c r="E2">
-        <v>9.958513463530332</v>
+        <v>9.95851346353018</v>
       </c>
       <c r="F2">
-        <v>114.8336929679029</v>
+        <v>114.833692967902</v>
       </c>
       <c r="G2">
         <v>0</v>
       </c>
       <c r="H2">
-        <v>85.48956718563049</v>
+        <v>85.48956718562992</v>
       </c>
       <c r="I2">
-        <v>15.1832761319079</v>
+        <v>15.18327613190778</v>
       </c>
       <c r="K2">
-        <v>11.48618376833904</v>
+        <v>11.48618376833894</v>
       </c>
     </row>
     <row r="3" spans="1:12">
@@ -441,28 +441,28 @@
         <v>1</v>
       </c>
       <c r="C3">
-        <v>8.909412594100747</v>
+        <v>8.909412594100571</v>
       </c>
       <c r="D3">
-        <v>14.70970182171946</v>
+        <v>14.70970182171913</v>
       </c>
       <c r="E3">
-        <v>8.717980791160889</v>
+        <v>8.717980791160807</v>
       </c>
       <c r="F3">
-        <v>100.6953626352886</v>
+        <v>100.695362635287</v>
       </c>
       <c r="G3">
         <v>0</v>
       </c>
       <c r="H3">
-        <v>74.92302897699605</v>
+        <v>74.92302897699481</v>
       </c>
       <c r="I3">
-        <v>13.29605235668355</v>
+        <v>13.29605235668334</v>
       </c>
       <c r="K3">
-        <v>10.07437737838338</v>
+        <v>10.07437737838328</v>
       </c>
     </row>
     <row r="4" spans="1:12">
@@ -470,28 +470,28 @@
         <v>2</v>
       </c>
       <c r="C4">
-        <v>8.240859645889456</v>
+        <v>8.240859645889511</v>
       </c>
       <c r="D4">
-        <v>13.59938631884068</v>
+        <v>13.59938631884062</v>
       </c>
       <c r="E4">
-        <v>8.156719238081662</v>
+        <v>8.156719238081598</v>
       </c>
       <c r="F4">
-        <v>93.29523022282385</v>
+        <v>93.29523022282282</v>
       </c>
       <c r="G4">
         <v>0</v>
       </c>
       <c r="H4">
-        <v>69.38726595346604</v>
+        <v>69.38726595346529</v>
       </c>
       <c r="I4">
-        <v>12.30727623400101</v>
+        <v>12.30727623400089</v>
       </c>
       <c r="K4">
-        <v>9.334041188471577</v>
+        <v>9.33404118847149</v>
       </c>
     </row>
     <row r="5" spans="1:12">
@@ -499,28 +499,28 @@
         <v>3</v>
       </c>
       <c r="C5">
-        <v>7.98151714277658</v>
+        <v>7.981517142776562</v>
       </c>
       <c r="D5">
-        <v>13.16878655789461</v>
+        <v>13.16878655789456</v>
       </c>
       <c r="E5">
-        <v>7.963535431833982</v>
+        <v>7.963535431833948</v>
       </c>
       <c r="F5">
-        <v>90.42622256628864</v>
+        <v>90.42622256628796</v>
       </c>
       <c r="G5">
         <v>0</v>
       </c>
       <c r="H5">
-        <v>67.23971143051568</v>
+        <v>67.23971143051513</v>
       </c>
       <c r="I5">
         <v>11.92328004987636</v>
       </c>
       <c r="K5">
-        <v>9.046441467186442</v>
+        <v>9.046441467186458</v>
       </c>
     </row>
     <row r="6" spans="1:12">
@@ -528,28 +528,28 @@
         <v>4</v>
       </c>
       <c r="C6">
-        <v>7.938995999418537</v>
+        <v>7.938995999418625</v>
       </c>
       <c r="D6">
-        <v>13.09819378725853</v>
+        <v>13.0981937872588</v>
       </c>
       <c r="E6">
-        <v>7.93216563549199</v>
+        <v>7.932165635492028</v>
       </c>
       <c r="F6">
-        <v>89.95602437586091</v>
+        <v>89.95602437586166</v>
       </c>
       <c r="G6">
         <v>0</v>
       </c>
       <c r="H6">
-        <v>66.88766745566134</v>
+        <v>66.88766745566193</v>
       </c>
       <c r="I6">
-        <v>11.86030031650088</v>
+        <v>11.86030031650103</v>
       </c>
       <c r="K6">
-        <v>8.999267931503715</v>
+        <v>8.999267931503795</v>
       </c>
     </row>
     <row r="7" spans="1:12">
@@ -557,28 +557,28 @@
         <v>5</v>
       </c>
       <c r="C7">
-        <v>8.237321135692754</v>
+        <v>8.237321135692772</v>
       </c>
       <c r="D7">
-        <v>13.59351066545444</v>
+        <v>13.59351066545423</v>
       </c>
       <c r="E7">
-        <v>8.154062577628657</v>
+        <v>8.154062577628588</v>
       </c>
       <c r="F7">
-        <v>93.2560735838648</v>
+        <v>93.25607358386395</v>
       </c>
       <c r="G7">
         <v>0</v>
       </c>
       <c r="H7">
-        <v>69.35796146420124</v>
+        <v>69.35796146420051</v>
       </c>
       <c r="I7">
-        <v>12.30203843733103</v>
+        <v>12.30203843733092</v>
       </c>
       <c r="K7">
-        <v>9.330118552644139</v>
+        <v>9.330118552644144</v>
       </c>
     </row>
     <row r="8" spans="1:12">
@@ -586,28 +586,28 @@
         <v>6</v>
       </c>
       <c r="C8">
-        <v>9.70692433629138</v>
+        <v>9.706924336291477</v>
       </c>
       <c r="D8">
-        <v>16.03448538816394</v>
+        <v>16.034485388164</v>
       </c>
       <c r="E8">
-        <v>9.492048480682563</v>
+        <v>9.492048480682625</v>
       </c>
       <c r="F8">
-        <v>109.5135908036967</v>
+        <v>109.5135908036975</v>
       </c>
       <c r="G8">
         <v>0</v>
       </c>
       <c r="H8">
-        <v>81.51462721410265</v>
+        <v>81.51462721410324</v>
       </c>
       <c r="I8">
-        <v>14.47295850578096</v>
+        <v>14.47295850578101</v>
       </c>
       <c r="K8">
-        <v>10.9550338886467</v>
+        <v>10.9550338886468</v>
       </c>
     </row>
     <row r="9" spans="1:12">
@@ -615,28 +615,28 @@
         <v>7</v>
       </c>
       <c r="C9">
-        <v>9.70692433629138</v>
+        <v>9.706924336291477</v>
       </c>
       <c r="D9">
-        <v>16.03448538816394</v>
+        <v>16.034485388164</v>
       </c>
       <c r="E9">
-        <v>9.492048480682563</v>
+        <v>9.492048480682625</v>
       </c>
       <c r="F9">
-        <v>109.5135908036967</v>
+        <v>109.5135908036975</v>
       </c>
       <c r="G9">
         <v>0</v>
       </c>
       <c r="H9">
-        <v>81.51462721410265</v>
+        <v>81.51462721410324</v>
       </c>
       <c r="I9">
-        <v>14.47295850578096</v>
+        <v>14.47295850578101</v>
       </c>
       <c r="K9">
-        <v>10.9550338886467</v>
+        <v>10.9550338886468</v>
       </c>
     </row>
     <row r="10" spans="1:12">
@@ -644,28 +644,28 @@
         <v>8</v>
       </c>
       <c r="C10">
-        <v>9.70692433629138</v>
+        <v>9.706924336291477</v>
       </c>
       <c r="D10">
-        <v>16.03448538816394</v>
+        <v>16.034485388164</v>
       </c>
       <c r="E10">
-        <v>9.492048480682563</v>
+        <v>9.492048480682625</v>
       </c>
       <c r="F10">
-        <v>109.5135908036967</v>
+        <v>109.5135908036975</v>
       </c>
       <c r="G10">
         <v>0</v>
       </c>
       <c r="H10">
-        <v>81.51462721410265</v>
+        <v>81.51462721410324</v>
       </c>
       <c r="I10">
-        <v>14.47295850578096</v>
+        <v>14.47295850578101</v>
       </c>
       <c r="K10">
-        <v>10.9550338886467</v>
+        <v>10.9550338886468</v>
       </c>
     </row>
     <row r="11" spans="1:12">
@@ -673,28 +673,28 @@
         <v>9</v>
       </c>
       <c r="C11">
-        <v>9.70692433629138</v>
+        <v>9.706924336291477</v>
       </c>
       <c r="D11">
-        <v>16.03448538816394</v>
+        <v>16.034485388164</v>
       </c>
       <c r="E11">
-        <v>9.492048480682563</v>
+        <v>9.492048480682625</v>
       </c>
       <c r="F11">
-        <v>109.5135908036967</v>
+        <v>109.5135908036975</v>
       </c>
       <c r="G11">
         <v>0</v>
       </c>
       <c r="H11">
-        <v>81.51462721410265</v>
+        <v>81.51462721410324</v>
       </c>
       <c r="I11">
-        <v>14.47295850578096</v>
+        <v>14.47295850578101</v>
       </c>
       <c r="K11">
-        <v>10.9550338886467</v>
+        <v>10.9550338886468</v>
       </c>
     </row>
     <row r="12" spans="1:12">
@@ -702,28 +702,28 @@
         <v>10</v>
       </c>
       <c r="C12">
-        <v>9.70692433629138</v>
+        <v>9.706924336291477</v>
       </c>
       <c r="D12">
-        <v>16.03448538816394</v>
+        <v>16.034485388164</v>
       </c>
       <c r="E12">
-        <v>9.492048480682563</v>
+        <v>9.492048480682625</v>
       </c>
       <c r="F12">
-        <v>109.5135908036967</v>
+        <v>109.5135908036975</v>
       </c>
       <c r="G12">
         <v>0</v>
       </c>
       <c r="H12">
-        <v>81.51462721410265</v>
+        <v>81.51462721410324</v>
       </c>
       <c r="I12">
-        <v>14.47295850578096</v>
+        <v>14.47295850578101</v>
       </c>
       <c r="K12">
-        <v>10.9550338886467</v>
+        <v>10.9550338886468</v>
       </c>
     </row>
     <row r="13" spans="1:12">
@@ -731,28 +731,28 @@
         <v>11</v>
       </c>
       <c r="C13">
-        <v>9.70692433629138</v>
+        <v>9.706924336291477</v>
       </c>
       <c r="D13">
-        <v>16.03448538816394</v>
+        <v>16.034485388164</v>
       </c>
       <c r="E13">
-        <v>9.492048480682563</v>
+        <v>9.492048480682625</v>
       </c>
       <c r="F13">
-        <v>109.5135908036967</v>
+        <v>109.5135908036975</v>
       </c>
       <c r="G13">
         <v>0</v>
       </c>
       <c r="H13">
-        <v>81.51462721410265</v>
+        <v>81.51462721410324</v>
       </c>
       <c r="I13">
-        <v>14.47295850578096</v>
+        <v>14.47295850578101</v>
       </c>
       <c r="K13">
-        <v>10.9550338886467</v>
+        <v>10.9550338886468</v>
       </c>
     </row>
     <row r="14" spans="1:12">
@@ -760,28 +760,28 @@
         <v>12</v>
       </c>
       <c r="C14">
-        <v>9.70692433629138</v>
+        <v>9.706924336291477</v>
       </c>
       <c r="D14">
-        <v>16.03448538816394</v>
+        <v>16.034485388164</v>
       </c>
       <c r="E14">
-        <v>9.492048480682563</v>
+        <v>9.492048480682625</v>
       </c>
       <c r="F14">
-        <v>109.5135908036967</v>
+        <v>109.5135908036975</v>
       </c>
       <c r="G14">
         <v>0</v>
       </c>
       <c r="H14">
-        <v>81.51462721410265</v>
+        <v>81.51462721410324</v>
       </c>
       <c r="I14">
-        <v>14.47295850578096</v>
+        <v>14.47295850578101</v>
       </c>
       <c r="K14">
-        <v>10.9550338886467</v>
+        <v>10.9550338886468</v>
       </c>
     </row>
     <row r="15" spans="1:12">
@@ -789,28 +789,28 @@
         <v>13</v>
       </c>
       <c r="C15">
-        <v>9.70692433629138</v>
+        <v>9.706924336291477</v>
       </c>
       <c r="D15">
-        <v>16.03448538816394</v>
+        <v>16.034485388164</v>
       </c>
       <c r="E15">
-        <v>9.492048480682563</v>
+        <v>9.492048480682625</v>
       </c>
       <c r="F15">
-        <v>109.5135908036967</v>
+        <v>109.5135908036975</v>
       </c>
       <c r="G15">
         <v>0</v>
       </c>
       <c r="H15">
-        <v>81.51462721410265</v>
+        <v>81.51462721410324</v>
       </c>
       <c r="I15">
-        <v>14.47295850578096</v>
+        <v>14.47295850578101</v>
       </c>
       <c r="K15">
-        <v>10.9550338886467</v>
+        <v>10.9550338886468</v>
       </c>
     </row>
     <row r="16" spans="1:12">
@@ -818,28 +818,28 @@
         <v>14</v>
       </c>
       <c r="C16">
-        <v>9.70692433629138</v>
+        <v>9.706924336291477</v>
       </c>
       <c r="D16">
-        <v>16.03448538816394</v>
+        <v>16.034485388164</v>
       </c>
       <c r="E16">
-        <v>9.492048480682563</v>
+        <v>9.492048480682625</v>
       </c>
       <c r="F16">
-        <v>109.5135908036967</v>
+        <v>109.5135908036975</v>
       </c>
       <c r="G16">
         <v>0</v>
       </c>
       <c r="H16">
-        <v>81.51462721410265</v>
+        <v>81.51462721410324</v>
       </c>
       <c r="I16">
-        <v>14.47295850578096</v>
+        <v>14.47295850578101</v>
       </c>
       <c r="K16">
-        <v>10.9550338886467</v>
+        <v>10.9550338886468</v>
       </c>
     </row>
     <row r="17" spans="1:11">
@@ -847,28 +847,28 @@
         <v>15</v>
       </c>
       <c r="C17">
-        <v>9.70692433629138</v>
+        <v>9.706924336291477</v>
       </c>
       <c r="D17">
-        <v>16.03448538816394</v>
+        <v>16.034485388164</v>
       </c>
       <c r="E17">
-        <v>9.492048480682563</v>
+        <v>9.492048480682625</v>
       </c>
       <c r="F17">
-        <v>109.5135908036967</v>
+        <v>109.5135908036975</v>
       </c>
       <c r="G17">
         <v>0</v>
       </c>
       <c r="H17">
-        <v>81.51462721410265</v>
+        <v>81.51462721410324</v>
       </c>
       <c r="I17">
-        <v>14.47295850578096</v>
+        <v>14.47295850578101</v>
       </c>
       <c r="K17">
-        <v>10.9550338886467</v>
+        <v>10.9550338886468</v>
       </c>
     </row>
     <row r="18" spans="1:11">
@@ -876,28 +876,28 @@
         <v>16</v>
       </c>
       <c r="C18">
-        <v>9.70692433629138</v>
+        <v>9.706924336291477</v>
       </c>
       <c r="D18">
-        <v>16.03448538816394</v>
+        <v>16.034485388164</v>
       </c>
       <c r="E18">
-        <v>9.492048480682563</v>
+        <v>9.492048480682625</v>
       </c>
       <c r="F18">
-        <v>109.5135908036967</v>
+        <v>109.5135908036975</v>
       </c>
       <c r="G18">
         <v>0</v>
       </c>
       <c r="H18">
-        <v>81.51462721410265</v>
+        <v>81.51462721410324</v>
       </c>
       <c r="I18">
-        <v>14.47295850578096</v>
+        <v>14.47295850578101</v>
       </c>
       <c r="K18">
-        <v>10.9550338886467</v>
+        <v>10.9550338886468</v>
       </c>
     </row>
     <row r="19" spans="1:11">
@@ -905,28 +905,28 @@
         <v>17</v>
       </c>
       <c r="C19">
-        <v>9.70692433629138</v>
+        <v>9.706924336291477</v>
       </c>
       <c r="D19">
-        <v>16.03448538816394</v>
+        <v>16.034485388164</v>
       </c>
       <c r="E19">
-        <v>9.492048480682563</v>
+        <v>9.492048480682625</v>
       </c>
       <c r="F19">
-        <v>109.5135908036967</v>
+        <v>109.5135908036975</v>
       </c>
       <c r="G19">
         <v>0</v>
       </c>
       <c r="H19">
-        <v>81.51462721410265</v>
+        <v>81.51462721410324</v>
       </c>
       <c r="I19">
-        <v>14.47295850578096</v>
+        <v>14.47295850578101</v>
       </c>
       <c r="K19">
-        <v>10.9550338886467</v>
+        <v>10.9550338886468</v>
       </c>
     </row>
     <row r="20" spans="1:11">
@@ -934,28 +934,28 @@
         <v>18</v>
       </c>
       <c r="C20">
-        <v>9.70692433629138</v>
+        <v>9.706924336291477</v>
       </c>
       <c r="D20">
-        <v>16.03448538816394</v>
+        <v>16.034485388164</v>
       </c>
       <c r="E20">
-        <v>9.492048480682563</v>
+        <v>9.492048480682625</v>
       </c>
       <c r="F20">
-        <v>109.5135908036967</v>
+        <v>109.5135908036975</v>
       </c>
       <c r="G20">
         <v>0</v>
       </c>
       <c r="H20">
-        <v>81.51462721410265</v>
+        <v>81.51462721410324</v>
       </c>
       <c r="I20">
-        <v>14.47295850578096</v>
+        <v>14.47295850578101</v>
       </c>
       <c r="K20">
-        <v>10.9550338886467</v>
+        <v>10.9550338886468</v>
       </c>
     </row>
     <row r="21" spans="1:11">
@@ -963,28 +963,28 @@
         <v>19</v>
       </c>
       <c r="C21">
-        <v>9.70692433629138</v>
+        <v>9.706924336291477</v>
       </c>
       <c r="D21">
-        <v>16.03448538816394</v>
+        <v>16.034485388164</v>
       </c>
       <c r="E21">
-        <v>9.492048480682563</v>
+        <v>9.492048480682625</v>
       </c>
       <c r="F21">
-        <v>109.5135908036967</v>
+        <v>109.5135908036975</v>
       </c>
       <c r="G21">
         <v>0</v>
       </c>
       <c r="H21">
-        <v>81.51462721410265</v>
+        <v>81.51462721410324</v>
       </c>
       <c r="I21">
-        <v>14.47295850578096</v>
+        <v>14.47295850578101</v>
       </c>
       <c r="K21">
-        <v>10.9550338886467</v>
+        <v>10.9550338886468</v>
       </c>
     </row>
     <row r="22" spans="1:11">
@@ -992,28 +992,28 @@
         <v>20</v>
       </c>
       <c r="C22">
-        <v>9.70692433629138</v>
+        <v>9.706924336291477</v>
       </c>
       <c r="D22">
-        <v>16.03448538816394</v>
+        <v>16.034485388164</v>
       </c>
       <c r="E22">
-        <v>9.492048480682563</v>
+        <v>9.492048480682625</v>
       </c>
       <c r="F22">
-        <v>109.5135908036967</v>
+        <v>109.5135908036975</v>
       </c>
       <c r="G22">
         <v>0</v>
       </c>
       <c r="H22">
-        <v>81.51462721410265</v>
+        <v>81.51462721410324</v>
       </c>
       <c r="I22">
-        <v>14.47295850578096</v>
+        <v>14.47295850578101</v>
       </c>
       <c r="K22">
-        <v>10.9550338886467</v>
+        <v>10.9550338886468</v>
       </c>
     </row>
     <row r="23" spans="1:11">
@@ -1021,28 +1021,28 @@
         <v>21</v>
       </c>
       <c r="C23">
-        <v>9.70692433629138</v>
+        <v>9.706924336291477</v>
       </c>
       <c r="D23">
-        <v>16.03448538816394</v>
+        <v>16.034485388164</v>
       </c>
       <c r="E23">
-        <v>9.492048480682563</v>
+        <v>9.492048480682625</v>
       </c>
       <c r="F23">
-        <v>109.5135908036967</v>
+        <v>109.5135908036975</v>
       </c>
       <c r="G23">
         <v>0</v>
       </c>
       <c r="H23">
-        <v>81.51462721410265</v>
+        <v>81.51462721410324</v>
       </c>
       <c r="I23">
-        <v>14.47295850578096</v>
+        <v>14.47295850578101</v>
       </c>
       <c r="K23">
-        <v>10.9550338886467</v>
+        <v>10.9550338886468</v>
       </c>
     </row>
     <row r="24" spans="1:11">
@@ -1050,28 +1050,28 @@
         <v>22</v>
       </c>
       <c r="C24">
-        <v>9.70692433629138</v>
+        <v>9.706924336291477</v>
       </c>
       <c r="D24">
-        <v>16.03448538816394</v>
+        <v>16.034485388164</v>
       </c>
       <c r="E24">
-        <v>9.492048480682563</v>
+        <v>9.492048480682625</v>
       </c>
       <c r="F24">
-        <v>109.5135908036967</v>
+        <v>109.5135908036975</v>
       </c>
       <c r="G24">
         <v>0</v>
       </c>
       <c r="H24">
-        <v>81.51462721410265</v>
+        <v>81.51462721410324</v>
       </c>
       <c r="I24">
-        <v>14.47295850578096</v>
+        <v>14.47295850578101</v>
       </c>
       <c r="K24">
-        <v>10.9550338886467</v>
+        <v>10.9550338886468</v>
       </c>
     </row>
     <row r="25" spans="1:11">
@@ -1079,28 +1079,28 @@
         <v>23</v>
       </c>
       <c r="C25">
-        <v>9.70692433629138</v>
+        <v>9.706924336291477</v>
       </c>
       <c r="D25">
-        <v>16.03448538816394</v>
+        <v>16.034485388164</v>
       </c>
       <c r="E25">
-        <v>9.492048480682563</v>
+        <v>9.492048480682625</v>
       </c>
       <c r="F25">
-        <v>109.5135908036967</v>
+        <v>109.5135908036975</v>
       </c>
       <c r="G25">
         <v>0</v>
       </c>
       <c r="H25">
-        <v>81.51462721410265</v>
+        <v>81.51462721410324</v>
       </c>
       <c r="I25">
-        <v>14.47295850578096</v>
+        <v>14.47295850578101</v>
       </c>
       <c r="K25">
-        <v>10.9550338886467</v>
+        <v>10.9550338886468</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_0_48/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_0_48/res_line/loading_percent.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L25"/>
+  <dimension ref="A1:M25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:12">
+    <row r="1" spans="1:13">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -406,701 +406,776 @@
       <c r="L1" s="1">
         <v>10</v>
       </c>
-    </row>
-    <row r="2" spans="1:12">
+      <c r="M1" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="C2">
-        <v>10.18944432108857</v>
+        <v>10.0316238633248</v>
       </c>
       <c r="D2">
-        <v>16.83602457830675</v>
+        <v>16.60176657100208</v>
       </c>
       <c r="E2">
-        <v>9.95851346353018</v>
+        <v>9.879563232388614</v>
       </c>
       <c r="F2">
-        <v>114.833692967902</v>
+        <v>113.5828742995273</v>
       </c>
       <c r="G2">
-        <v>0</v>
+        <v>1.662744910338849</v>
       </c>
       <c r="H2">
-        <v>85.48956718562992</v>
+        <v>0</v>
       </c>
       <c r="I2">
-        <v>15.18327613190778</v>
-      </c>
-      <c r="K2">
-        <v>11.48618376833894</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12">
+        <v>84.54035216867439</v>
+      </c>
+      <c r="J2">
+        <v>15.01757976049853</v>
+      </c>
+      <c r="L2">
+        <v>11.37295366602165</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="C3">
-        <v>8.909412594100571</v>
+        <v>8.788512551144056</v>
       </c>
       <c r="D3">
-        <v>14.70970182171913</v>
+        <v>14.53756491451035</v>
       </c>
       <c r="E3">
-        <v>8.717980791160807</v>
+        <v>8.670976870970936</v>
       </c>
       <c r="F3">
-        <v>100.695362635287</v>
+        <v>99.86307847757305</v>
       </c>
       <c r="G3">
-        <v>0</v>
+        <v>1.757290336766091</v>
       </c>
       <c r="H3">
-        <v>74.92302897699481</v>
+        <v>0</v>
       </c>
       <c r="I3">
-        <v>13.29605235668334</v>
-      </c>
-      <c r="K3">
-        <v>10.07437737838328</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12">
+        <v>74.28281283680488</v>
+      </c>
+      <c r="J3">
+        <v>13.180766495963</v>
+      </c>
+      <c r="L3">
+        <v>9.998411243759264</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="C4">
-        <v>8.240859645889511</v>
+        <v>8.132511475187092</v>
       </c>
       <c r="D4">
-        <v>13.59938631884062</v>
+        <v>13.44870039050933</v>
       </c>
       <c r="E4">
-        <v>8.156719238081598</v>
+        <v>8.104061235154859</v>
       </c>
       <c r="F4">
-        <v>93.29523022282282</v>
+        <v>92.61411921178328</v>
       </c>
       <c r="G4">
-        <v>0</v>
+        <v>1.804168313277775</v>
       </c>
       <c r="H4">
-        <v>69.38726595346529</v>
+        <v>0</v>
       </c>
       <c r="I4">
-        <v>12.30727623400089</v>
-      </c>
-      <c r="K4">
-        <v>9.33404118847149</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12">
+        <v>68.85761771080219</v>
+      </c>
+      <c r="J4">
+        <v>12.2083308887331</v>
+      </c>
+      <c r="L4">
+        <v>9.270090027163889</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="C5">
-        <v>7.981517142776562</v>
+        <v>7.877371591455246</v>
       </c>
       <c r="D5">
-        <v>13.16878655789456</v>
+        <v>13.02535393399327</v>
       </c>
       <c r="E5">
-        <v>7.963535431833948</v>
+        <v>7.912765605654054</v>
       </c>
       <c r="F5">
-        <v>90.42622256628796</v>
+        <v>89.79756732379812</v>
       </c>
       <c r="G5">
-        <v>0</v>
+        <v>1.821842734080207</v>
       </c>
       <c r="H5">
-        <v>67.23971143051513</v>
+        <v>0</v>
       </c>
       <c r="I5">
-        <v>11.92328004987636</v>
-      </c>
-      <c r="K5">
-        <v>9.046441467186458</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12">
+        <v>66.74823334343233</v>
+      </c>
+      <c r="J5">
+        <v>11.82964816514324</v>
+      </c>
+      <c r="L5">
+        <v>8.986384118619657</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="C6">
-        <v>7.938995999418625</v>
+        <v>7.835511633607252</v>
       </c>
       <c r="D6">
-        <v>13.0981937872588</v>
+        <v>12.95590640831823</v>
       </c>
       <c r="E6">
-        <v>7.932165635492028</v>
+        <v>7.881674041726453</v>
       </c>
       <c r="F6">
-        <v>89.95602437586166</v>
+        <v>89.33572620239055</v>
       </c>
       <c r="G6">
-        <v>0</v>
+        <v>1.824712827233004</v>
       </c>
       <c r="H6">
-        <v>66.88766745566193</v>
+        <v>0</v>
       </c>
       <c r="I6">
-        <v>11.86030031650103</v>
-      </c>
-      <c r="K6">
-        <v>8.999267931503795</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12">
+        <v>66.40226002405051</v>
+      </c>
+      <c r="J6">
+        <v>11.76749567807334</v>
+      </c>
+      <c r="L6">
+        <v>8.93981606954805</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="C7">
-        <v>8.237321135692772</v>
+        <v>8.129032415442181</v>
       </c>
       <c r="D7">
-        <v>13.59351066545423</v>
+        <v>13.44292704909178</v>
       </c>
       <c r="E7">
-        <v>8.154062577628588</v>
+        <v>8.101432661021073</v>
       </c>
       <c r="F7">
-        <v>93.25607358386395</v>
+        <v>92.57569710479167</v>
       </c>
       <c r="G7">
-        <v>0</v>
+        <v>1.804411414078765</v>
       </c>
       <c r="H7">
-        <v>69.35796146420051</v>
+        <v>0</v>
       </c>
       <c r="I7">
-        <v>12.30203843733092</v>
-      </c>
-      <c r="K7">
-        <v>9.330118552644144</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12">
+        <v>68.82884847383451</v>
+      </c>
+      <c r="J7">
+        <v>12.20316888847103</v>
+      </c>
+      <c r="L7">
+        <v>9.266222990184172</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="C8">
-        <v>9.706924336291477</v>
+        <v>9.565932493038741</v>
       </c>
       <c r="D8">
-        <v>16.034485388164</v>
+        <v>15.8284258233051</v>
       </c>
       <c r="E8">
-        <v>9.492048480682625</v>
+        <v>9.427927122604819</v>
       </c>
       <c r="F8">
-        <v>109.5135908036975</v>
+        <v>108.4503450397344</v>
       </c>
       <c r="G8">
-        <v>0</v>
+        <v>1.699042297589875</v>
       </c>
       <c r="H8">
-        <v>81.51462721410324</v>
+        <v>0</v>
       </c>
       <c r="I8">
-        <v>14.47295850578101</v>
-      </c>
-      <c r="K8">
-        <v>10.9550338886468</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12">
+        <v>80.70427594851094</v>
+      </c>
+      <c r="J8">
+        <v>14.33053331097921</v>
+      </c>
+      <c r="L8">
+        <v>10.85902973892291</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="C9">
-        <v>9.706924336291477</v>
+        <v>9.565932493038741</v>
       </c>
       <c r="D9">
-        <v>16.034485388164</v>
+        <v>15.8284258233051</v>
       </c>
       <c r="E9">
-        <v>9.492048480682625</v>
+        <v>9.427927122604819</v>
       </c>
       <c r="F9">
-        <v>109.5135908036975</v>
+        <v>108.4503450397344</v>
       </c>
       <c r="G9">
-        <v>0</v>
+        <v>1.699042297589875</v>
       </c>
       <c r="H9">
-        <v>81.51462721410324</v>
+        <v>0</v>
       </c>
       <c r="I9">
-        <v>14.47295850578101</v>
-      </c>
-      <c r="K9">
-        <v>10.9550338886468</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12">
+        <v>80.70427594851094</v>
+      </c>
+      <c r="J9">
+        <v>14.33053331097921</v>
+      </c>
+      <c r="L9">
+        <v>10.85902973892291</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="C10">
-        <v>9.706924336291477</v>
+        <v>9.565932493038741</v>
       </c>
       <c r="D10">
-        <v>16.034485388164</v>
+        <v>15.8284258233051</v>
       </c>
       <c r="E10">
-        <v>9.492048480682625</v>
+        <v>9.427927122604819</v>
       </c>
       <c r="F10">
-        <v>109.5135908036975</v>
+        <v>108.4503450397344</v>
       </c>
       <c r="G10">
-        <v>0</v>
+        <v>1.699042297589875</v>
       </c>
       <c r="H10">
-        <v>81.51462721410324</v>
+        <v>0</v>
       </c>
       <c r="I10">
-        <v>14.47295850578101</v>
-      </c>
-      <c r="K10">
-        <v>10.9550338886468</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12">
+        <v>80.70427594851094</v>
+      </c>
+      <c r="J10">
+        <v>14.33053331097921</v>
+      </c>
+      <c r="L10">
+        <v>10.85902973892291</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="C11">
-        <v>9.706924336291477</v>
+        <v>9.565932493038741</v>
       </c>
       <c r="D11">
-        <v>16.034485388164</v>
+        <v>15.8284258233051</v>
       </c>
       <c r="E11">
-        <v>9.492048480682625</v>
+        <v>9.427927122604819</v>
       </c>
       <c r="F11">
-        <v>109.5135908036975</v>
+        <v>108.4503450397344</v>
       </c>
       <c r="G11">
-        <v>0</v>
+        <v>1.699042297589875</v>
       </c>
       <c r="H11">
-        <v>81.51462721410324</v>
+        <v>0</v>
       </c>
       <c r="I11">
-        <v>14.47295850578101</v>
-      </c>
-      <c r="K11">
-        <v>10.9550338886468</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12">
+        <v>80.70427594851094</v>
+      </c>
+      <c r="J11">
+        <v>14.33053331097921</v>
+      </c>
+      <c r="L11">
+        <v>10.85902973892291</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="C12">
-        <v>9.706924336291477</v>
+        <v>9.565932493038741</v>
       </c>
       <c r="D12">
-        <v>16.034485388164</v>
+        <v>15.8284258233051</v>
       </c>
       <c r="E12">
-        <v>9.492048480682625</v>
+        <v>9.427927122604819</v>
       </c>
       <c r="F12">
-        <v>109.5135908036975</v>
+        <v>108.4503450397344</v>
       </c>
       <c r="G12">
-        <v>0</v>
+        <v>1.699042297589875</v>
       </c>
       <c r="H12">
-        <v>81.51462721410324</v>
+        <v>0</v>
       </c>
       <c r="I12">
-        <v>14.47295850578101</v>
-      </c>
-      <c r="K12">
-        <v>10.9550338886468</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12">
+        <v>80.70427594851094</v>
+      </c>
+      <c r="J12">
+        <v>14.33053331097921</v>
+      </c>
+      <c r="L12">
+        <v>10.85902973892291</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="C13">
-        <v>9.706924336291477</v>
+        <v>9.565932493038741</v>
       </c>
       <c r="D13">
-        <v>16.034485388164</v>
+        <v>15.8284258233051</v>
       </c>
       <c r="E13">
-        <v>9.492048480682625</v>
+        <v>9.427927122604819</v>
       </c>
       <c r="F13">
-        <v>109.5135908036975</v>
+        <v>108.4503450397344</v>
       </c>
       <c r="G13">
-        <v>0</v>
+        <v>1.699042297589875</v>
       </c>
       <c r="H13">
-        <v>81.51462721410324</v>
+        <v>0</v>
       </c>
       <c r="I13">
-        <v>14.47295850578101</v>
-      </c>
-      <c r="K13">
-        <v>10.9550338886468</v>
-      </c>
-    </row>
-    <row r="14" spans="1:12">
+        <v>80.70427594851094</v>
+      </c>
+      <c r="J13">
+        <v>14.33053331097921</v>
+      </c>
+      <c r="L13">
+        <v>10.85902973892291</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="C14">
-        <v>9.706924336291477</v>
+        <v>9.565932493038741</v>
       </c>
       <c r="D14">
-        <v>16.034485388164</v>
+        <v>15.8284258233051</v>
       </c>
       <c r="E14">
-        <v>9.492048480682625</v>
+        <v>9.427927122604819</v>
       </c>
       <c r="F14">
-        <v>109.5135908036975</v>
+        <v>108.4503450397344</v>
       </c>
       <c r="G14">
-        <v>0</v>
+        <v>1.699042297589875</v>
       </c>
       <c r="H14">
-        <v>81.51462721410324</v>
+        <v>0</v>
       </c>
       <c r="I14">
-        <v>14.47295850578101</v>
-      </c>
-      <c r="K14">
-        <v>10.9550338886468</v>
-      </c>
-    </row>
-    <row r="15" spans="1:12">
+        <v>80.70427594851094</v>
+      </c>
+      <c r="J14">
+        <v>14.33053331097921</v>
+      </c>
+      <c r="L14">
+        <v>10.85902973892291</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="C15">
-        <v>9.706924336291477</v>
+        <v>9.565932493038741</v>
       </c>
       <c r="D15">
-        <v>16.034485388164</v>
+        <v>15.8284258233051</v>
       </c>
       <c r="E15">
-        <v>9.492048480682625</v>
+        <v>9.427927122604819</v>
       </c>
       <c r="F15">
-        <v>109.5135908036975</v>
+        <v>108.4503450397344</v>
       </c>
       <c r="G15">
-        <v>0</v>
+        <v>1.699042297589875</v>
       </c>
       <c r="H15">
-        <v>81.51462721410324</v>
+        <v>0</v>
       </c>
       <c r="I15">
-        <v>14.47295850578101</v>
-      </c>
-      <c r="K15">
-        <v>10.9550338886468</v>
-      </c>
-    </row>
-    <row r="16" spans="1:12">
+        <v>80.70427594851094</v>
+      </c>
+      <c r="J15">
+        <v>14.33053331097921</v>
+      </c>
+      <c r="L15">
+        <v>10.85902973892291</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="C16">
-        <v>9.706924336291477</v>
+        <v>9.565932493038741</v>
       </c>
       <c r="D16">
-        <v>16.034485388164</v>
+        <v>15.8284258233051</v>
       </c>
       <c r="E16">
-        <v>9.492048480682625</v>
+        <v>9.427927122604819</v>
       </c>
       <c r="F16">
-        <v>109.5135908036975</v>
+        <v>108.4503450397344</v>
       </c>
       <c r="G16">
-        <v>0</v>
+        <v>1.699042297589875</v>
       </c>
       <c r="H16">
-        <v>81.51462721410324</v>
+        <v>0</v>
       </c>
       <c r="I16">
-        <v>14.47295850578101</v>
-      </c>
-      <c r="K16">
-        <v>10.9550338886468</v>
-      </c>
-    </row>
-    <row r="17" spans="1:11">
+        <v>80.70427594851094</v>
+      </c>
+      <c r="J16">
+        <v>14.33053331097921</v>
+      </c>
+      <c r="L16">
+        <v>10.85902973892291</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="C17">
-        <v>9.706924336291477</v>
+        <v>9.565932493038741</v>
       </c>
       <c r="D17">
-        <v>16.034485388164</v>
+        <v>15.8284258233051</v>
       </c>
       <c r="E17">
-        <v>9.492048480682625</v>
+        <v>9.427927122604819</v>
       </c>
       <c r="F17">
-        <v>109.5135908036975</v>
+        <v>108.4503450397344</v>
       </c>
       <c r="G17">
-        <v>0</v>
+        <v>1.699042297589875</v>
       </c>
       <c r="H17">
-        <v>81.51462721410324</v>
+        <v>0</v>
       </c>
       <c r="I17">
-        <v>14.47295850578101</v>
-      </c>
-      <c r="K17">
-        <v>10.9550338886468</v>
-      </c>
-    </row>
-    <row r="18" spans="1:11">
+        <v>80.70427594851094</v>
+      </c>
+      <c r="J17">
+        <v>14.33053331097921</v>
+      </c>
+      <c r="L17">
+        <v>10.85902973892291</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="C18">
-        <v>9.706924336291477</v>
+        <v>9.565932493038741</v>
       </c>
       <c r="D18">
-        <v>16.034485388164</v>
+        <v>15.8284258233051</v>
       </c>
       <c r="E18">
-        <v>9.492048480682625</v>
+        <v>9.427927122604819</v>
       </c>
       <c r="F18">
-        <v>109.5135908036975</v>
+        <v>108.4503450397344</v>
       </c>
       <c r="G18">
-        <v>0</v>
+        <v>1.699042297589875</v>
       </c>
       <c r="H18">
-        <v>81.51462721410324</v>
+        <v>0</v>
       </c>
       <c r="I18">
-        <v>14.47295850578101</v>
-      </c>
-      <c r="K18">
-        <v>10.9550338886468</v>
-      </c>
-    </row>
-    <row r="19" spans="1:11">
+        <v>80.70427594851094</v>
+      </c>
+      <c r="J18">
+        <v>14.33053331097921</v>
+      </c>
+      <c r="L18">
+        <v>10.85902973892291</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="C19">
-        <v>9.706924336291477</v>
+        <v>9.565932493038741</v>
       </c>
       <c r="D19">
-        <v>16.034485388164</v>
+        <v>15.8284258233051</v>
       </c>
       <c r="E19">
-        <v>9.492048480682625</v>
+        <v>9.427927122604819</v>
       </c>
       <c r="F19">
-        <v>109.5135908036975</v>
+        <v>108.4503450397344</v>
       </c>
       <c r="G19">
-        <v>0</v>
+        <v>1.699042297589875</v>
       </c>
       <c r="H19">
-        <v>81.51462721410324</v>
+        <v>0</v>
       </c>
       <c r="I19">
-        <v>14.47295850578101</v>
-      </c>
-      <c r="K19">
-        <v>10.9550338886468</v>
-      </c>
-    </row>
-    <row r="20" spans="1:11">
+        <v>80.70427594851094</v>
+      </c>
+      <c r="J19">
+        <v>14.33053331097921</v>
+      </c>
+      <c r="L19">
+        <v>10.85902973892291</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="C20">
-        <v>9.706924336291477</v>
+        <v>9.565932493038741</v>
       </c>
       <c r="D20">
-        <v>16.034485388164</v>
+        <v>15.8284258233051</v>
       </c>
       <c r="E20">
-        <v>9.492048480682625</v>
+        <v>9.427927122604819</v>
       </c>
       <c r="F20">
-        <v>109.5135908036975</v>
+        <v>108.4503450397344</v>
       </c>
       <c r="G20">
-        <v>0</v>
+        <v>1.699042297589875</v>
       </c>
       <c r="H20">
-        <v>81.51462721410324</v>
+        <v>0</v>
       </c>
       <c r="I20">
-        <v>14.47295850578101</v>
-      </c>
-      <c r="K20">
-        <v>10.9550338886468</v>
-      </c>
-    </row>
-    <row r="21" spans="1:11">
+        <v>80.70427594851094</v>
+      </c>
+      <c r="J20">
+        <v>14.33053331097921</v>
+      </c>
+      <c r="L20">
+        <v>10.85902973892291</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="C21">
-        <v>9.706924336291477</v>
+        <v>9.565932493038741</v>
       </c>
       <c r="D21">
-        <v>16.034485388164</v>
+        <v>15.8284258233051</v>
       </c>
       <c r="E21">
-        <v>9.492048480682625</v>
+        <v>9.427927122604819</v>
       </c>
       <c r="F21">
-        <v>109.5135908036975</v>
+        <v>108.4503450397344</v>
       </c>
       <c r="G21">
-        <v>0</v>
+        <v>1.699042297589875</v>
       </c>
       <c r="H21">
-        <v>81.51462721410324</v>
+        <v>0</v>
       </c>
       <c r="I21">
-        <v>14.47295850578101</v>
-      </c>
-      <c r="K21">
-        <v>10.9550338886468</v>
-      </c>
-    </row>
-    <row r="22" spans="1:11">
+        <v>80.70427594851094</v>
+      </c>
+      <c r="J21">
+        <v>14.33053331097921</v>
+      </c>
+      <c r="L21">
+        <v>10.85902973892291</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="C22">
-        <v>9.706924336291477</v>
+        <v>9.565932493038741</v>
       </c>
       <c r="D22">
-        <v>16.034485388164</v>
+        <v>15.8284258233051</v>
       </c>
       <c r="E22">
-        <v>9.492048480682625</v>
+        <v>9.427927122604819</v>
       </c>
       <c r="F22">
-        <v>109.5135908036975</v>
+        <v>108.4503450397344</v>
       </c>
       <c r="G22">
-        <v>0</v>
+        <v>1.699042297589875</v>
       </c>
       <c r="H22">
-        <v>81.51462721410324</v>
+        <v>0</v>
       </c>
       <c r="I22">
-        <v>14.47295850578101</v>
-      </c>
-      <c r="K22">
-        <v>10.9550338886468</v>
-      </c>
-    </row>
-    <row r="23" spans="1:11">
+        <v>80.70427594851094</v>
+      </c>
+      <c r="J22">
+        <v>14.33053331097921</v>
+      </c>
+      <c r="L22">
+        <v>10.85902973892291</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="C23">
-        <v>9.706924336291477</v>
+        <v>9.565932493038741</v>
       </c>
       <c r="D23">
-        <v>16.034485388164</v>
+        <v>15.8284258233051</v>
       </c>
       <c r="E23">
-        <v>9.492048480682625</v>
+        <v>9.427927122604819</v>
       </c>
       <c r="F23">
-        <v>109.5135908036975</v>
+        <v>108.4503450397344</v>
       </c>
       <c r="G23">
-        <v>0</v>
+        <v>1.699042297589875</v>
       </c>
       <c r="H23">
-        <v>81.51462721410324</v>
+        <v>0</v>
       </c>
       <c r="I23">
-        <v>14.47295850578101</v>
-      </c>
-      <c r="K23">
-        <v>10.9550338886468</v>
-      </c>
-    </row>
-    <row r="24" spans="1:11">
+        <v>80.70427594851094</v>
+      </c>
+      <c r="J23">
+        <v>14.33053331097921</v>
+      </c>
+      <c r="L23">
+        <v>10.85902973892291</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="C24">
-        <v>9.706924336291477</v>
+        <v>9.565932493038741</v>
       </c>
       <c r="D24">
-        <v>16.034485388164</v>
+        <v>15.8284258233051</v>
       </c>
       <c r="E24">
-        <v>9.492048480682625</v>
+        <v>9.427927122604819</v>
       </c>
       <c r="F24">
-        <v>109.5135908036975</v>
+        <v>108.4503450397344</v>
       </c>
       <c r="G24">
-        <v>0</v>
+        <v>1.699042297589875</v>
       </c>
       <c r="H24">
-        <v>81.51462721410324</v>
+        <v>0</v>
       </c>
       <c r="I24">
-        <v>14.47295850578101</v>
-      </c>
-      <c r="K24">
-        <v>10.9550338886468</v>
-      </c>
-    </row>
-    <row r="25" spans="1:11">
+        <v>80.70427594851094</v>
+      </c>
+      <c r="J24">
+        <v>14.33053331097921</v>
+      </c>
+      <c r="L24">
+        <v>10.85902973892291</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="C25">
-        <v>9.706924336291477</v>
+        <v>9.565932493038741</v>
       </c>
       <c r="D25">
-        <v>16.034485388164</v>
+        <v>15.8284258233051</v>
       </c>
       <c r="E25">
-        <v>9.492048480682625</v>
+        <v>9.427927122604819</v>
       </c>
       <c r="F25">
-        <v>109.5135908036975</v>
+        <v>108.4503450397344</v>
       </c>
       <c r="G25">
-        <v>0</v>
+        <v>1.699042297589875</v>
       </c>
       <c r="H25">
-        <v>81.51462721410324</v>
+        <v>0</v>
       </c>
       <c r="I25">
-        <v>14.47295850578101</v>
-      </c>
-      <c r="K25">
-        <v>10.9550338886468</v>
+        <v>80.70427594851094</v>
+      </c>
+      <c r="J25">
+        <v>14.33053331097921</v>
+      </c>
+      <c r="L25">
+        <v>10.85902973892291</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_0_48/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_0_48/res_line/loading_percent.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M25"/>
+  <dimension ref="A1:O25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1" spans="1:15">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -409,773 +409,1139 @@
       <c r="M1" s="1">
         <v>11</v>
       </c>
-    </row>
-    <row r="2" spans="1:13">
+      <c r="N1" s="1">
+        <v>12</v>
+      </c>
+      <c r="O1" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15">
       <c r="A2" s="1">
         <v>0</v>
       </c>
+      <c r="B2">
+        <v>0</v>
+      </c>
       <c r="C2">
-        <v>10.0316238633248</v>
+        <v>13.23044660204968</v>
       </c>
       <c r="D2">
-        <v>16.60176657100208</v>
+        <v>15.74763956714055</v>
       </c>
       <c r="E2">
-        <v>9.879563232388614</v>
+        <v>12.12879451507907</v>
       </c>
       <c r="F2">
-        <v>113.5828742995273</v>
+        <v>94.24914384256384</v>
       </c>
       <c r="G2">
-        <v>1.662744910338849</v>
+        <v>1.819464337254795</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
       <c r="I2">
-        <v>84.54035216867439</v>
+        <v>0</v>
       </c>
       <c r="J2">
-        <v>15.01757976049853</v>
+        <v>0</v>
+      </c>
+      <c r="K2">
+        <v>85.60495198511026</v>
       </c>
       <c r="L2">
-        <v>11.37295366602165</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13">
+        <v>5.947988500025506</v>
+      </c>
+      <c r="M2">
+        <v>0</v>
+      </c>
+      <c r="N2">
+        <v>9.871440332462109</v>
+      </c>
+      <c r="O2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15">
       <c r="A3" s="1">
         <v>1</v>
       </c>
+      <c r="B3">
+        <v>0</v>
+      </c>
       <c r="C3">
-        <v>8.788512551144056</v>
+        <v>12.14092635365203</v>
       </c>
       <c r="D3">
-        <v>14.53756491451035</v>
+        <v>14.1630087579171</v>
       </c>
       <c r="E3">
-        <v>8.670976870970936</v>
+        <v>11.24422797673984</v>
       </c>
       <c r="F3">
-        <v>99.86307847757305</v>
+        <v>84.24088526794336</v>
       </c>
       <c r="G3">
-        <v>1.757290336766091</v>
+        <v>1.895622575670062</v>
       </c>
       <c r="H3">
         <v>0</v>
       </c>
       <c r="I3">
-        <v>74.28281283680488</v>
+        <v>0</v>
       </c>
       <c r="J3">
-        <v>13.180766495963</v>
+        <v>0</v>
+      </c>
+      <c r="K3">
+        <v>77.0112666242063</v>
       </c>
       <c r="L3">
-        <v>9.998411243759264</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13">
+        <v>5.765844033382152</v>
+      </c>
+      <c r="M3">
+        <v>0</v>
+      </c>
+      <c r="N3">
+        <v>10.4831942111087</v>
+      </c>
+      <c r="O3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15">
       <c r="A4" s="1">
         <v>2</v>
       </c>
+      <c r="B4">
+        <v>0</v>
+      </c>
       <c r="C4">
-        <v>8.132511475187092</v>
+        <v>11.55672461274178</v>
       </c>
       <c r="D4">
-        <v>13.44870039050933</v>
+        <v>13.36651616362044</v>
       </c>
       <c r="E4">
-        <v>8.104061235154859</v>
+        <v>10.78032355067463</v>
       </c>
       <c r="F4">
-        <v>92.61411921178328</v>
+        <v>78.7497129392068</v>
       </c>
       <c r="G4">
-        <v>1.804168313277775</v>
+        <v>1.936408177736423</v>
       </c>
       <c r="H4">
         <v>0</v>
       </c>
       <c r="I4">
-        <v>68.85761771080219</v>
+        <v>0</v>
       </c>
       <c r="J4">
-        <v>12.2083308887331</v>
+        <v>0</v>
+      </c>
+      <c r="K4">
+        <v>72.09628382082199</v>
       </c>
       <c r="L4">
-        <v>9.270090027163889</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13">
+        <v>5.683901616239337</v>
+      </c>
+      <c r="M4">
+        <v>0</v>
+      </c>
+      <c r="N4">
+        <v>10.81336487354488</v>
+      </c>
+      <c r="O4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15">
       <c r="A5" s="1">
         <v>3</v>
       </c>
+      <c r="B5">
+        <v>0</v>
+      </c>
       <c r="C5">
-        <v>7.877371591455246</v>
+        <v>11.33219702795895</v>
       </c>
       <c r="D5">
-        <v>13.02535393399327</v>
+        <v>13.06507264883998</v>
       </c>
       <c r="E5">
-        <v>7.912765605654054</v>
+        <v>10.60431834757629</v>
       </c>
       <c r="F5">
-        <v>89.79756732379812</v>
+        <v>76.60866488428157</v>
       </c>
       <c r="G5">
-        <v>1.821842734080207</v>
+        <v>1.952153847226898</v>
       </c>
       <c r="H5">
         <v>0</v>
       </c>
       <c r="I5">
-        <v>66.74823334343233</v>
+        <v>0</v>
       </c>
       <c r="J5">
-        <v>11.82964816514324</v>
+        <v>0</v>
+      </c>
+      <c r="K5">
+        <v>70.13536827676717</v>
       </c>
       <c r="L5">
-        <v>8.986384118619657</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13">
+        <v>5.655682402784498</v>
+      </c>
+      <c r="M5">
+        <v>0</v>
+      </c>
+      <c r="N5">
+        <v>10.94131679852261</v>
+      </c>
+      <c r="O5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15">
       <c r="A6" s="1">
         <v>4</v>
       </c>
+      <c r="B6">
+        <v>0</v>
+      </c>
       <c r="C6">
-        <v>7.835511633607252</v>
+        <v>11.29558911547885</v>
       </c>
       <c r="D6">
-        <v>12.95590640831823</v>
+        <v>13.01618500219014</v>
       </c>
       <c r="E6">
-        <v>7.881674041726453</v>
+        <v>10.57575294977931</v>
       </c>
       <c r="F6">
-        <v>89.33572620239055</v>
+        <v>76.25773369136299</v>
       </c>
       <c r="G6">
-        <v>1.824712827233004</v>
+        <v>1.95472733290596</v>
       </c>
       <c r="H6">
         <v>0</v>
       </c>
       <c r="I6">
-        <v>66.40226002405051</v>
+        <v>0</v>
       </c>
       <c r="J6">
-        <v>11.76749567807334</v>
+        <v>0</v>
+      </c>
+      <c r="K6">
+        <v>69.81138562116278</v>
       </c>
       <c r="L6">
-        <v>8.93981606954805</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13">
+        <v>5.651264472698381</v>
+      </c>
+      <c r="M6">
+        <v>0</v>
+      </c>
+      <c r="N6">
+        <v>10.96225492309049</v>
+      </c>
+      <c r="O6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15">
       <c r="A7" s="1">
         <v>5</v>
       </c>
+      <c r="B7">
+        <v>0</v>
+      </c>
       <c r="C7">
-        <v>8.129032415442181</v>
+        <v>11.55364859449227</v>
       </c>
       <c r="D7">
-        <v>13.44292704909178</v>
+        <v>13.36236816387337</v>
       </c>
       <c r="E7">
-        <v>8.101432661021073</v>
+        <v>10.77790319040294</v>
       </c>
       <c r="F7">
-        <v>92.57569710479167</v>
+        <v>78.72050659680367</v>
       </c>
       <c r="G7">
-        <v>1.804411414078765</v>
+        <v>1.936623508771494</v>
       </c>
       <c r="H7">
         <v>0</v>
       </c>
       <c r="I7">
-        <v>68.82884847383451</v>
+        <v>0</v>
       </c>
       <c r="J7">
-        <v>12.20316888847103</v>
+        <v>0</v>
+      </c>
+      <c r="K7">
+        <v>72.069711810456</v>
       </c>
       <c r="L7">
-        <v>9.266222990184172</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13">
+        <v>5.683502224303876</v>
+      </c>
+      <c r="M7">
+        <v>0</v>
+      </c>
+      <c r="N7">
+        <v>10.81511286910591</v>
+      </c>
+      <c r="O7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15">
       <c r="A8" s="1">
         <v>6</v>
       </c>
+      <c r="B8">
+        <v>0</v>
+      </c>
       <c r="C8">
-        <v>9.565932493038741</v>
+        <v>12.83041648316236</v>
       </c>
       <c r="D8">
-        <v>15.8284258233051</v>
+        <v>15.12379947740416</v>
       </c>
       <c r="E8">
-        <v>9.427927122604819</v>
+        <v>11.80138052089136</v>
       </c>
       <c r="F8">
-        <v>108.4503450397344</v>
+        <v>90.60365331849471</v>
       </c>
       <c r="G8">
-        <v>1.699042297589875</v>
+        <v>1.847505518983778</v>
       </c>
       <c r="H8">
         <v>0</v>
       </c>
       <c r="I8">
-        <v>80.70427594851094</v>
+        <v>0</v>
       </c>
       <c r="J8">
-        <v>14.33053331097921</v>
+        <v>0</v>
+      </c>
+      <c r="K8">
+        <v>82.52442464790573</v>
       </c>
       <c r="L8">
-        <v>10.85902973892291</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13">
+        <v>5.87697582330228</v>
+      </c>
+      <c r="M8">
+        <v>0</v>
+      </c>
+      <c r="N8">
+        <v>10.09598749315173</v>
+      </c>
+      <c r="O8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15">
       <c r="A9" s="1">
         <v>7</v>
       </c>
+      <c r="B9">
+        <v>0</v>
+      </c>
       <c r="C9">
-        <v>9.565932493038741</v>
+        <v>12.83041648316236</v>
       </c>
       <c r="D9">
-        <v>15.8284258233051</v>
+        <v>15.12379947740416</v>
       </c>
       <c r="E9">
-        <v>9.427927122604819</v>
+        <v>11.80138052089136</v>
       </c>
       <c r="F9">
-        <v>108.4503450397344</v>
+        <v>90.60365331849471</v>
       </c>
       <c r="G9">
-        <v>1.699042297589875</v>
+        <v>1.847505518983778</v>
       </c>
       <c r="H9">
         <v>0</v>
       </c>
       <c r="I9">
-        <v>80.70427594851094</v>
+        <v>0</v>
       </c>
       <c r="J9">
-        <v>14.33053331097921</v>
+        <v>0</v>
+      </c>
+      <c r="K9">
+        <v>82.52442464790573</v>
       </c>
       <c r="L9">
-        <v>10.85902973892291</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13">
+        <v>5.87697582330228</v>
+      </c>
+      <c r="M9">
+        <v>0</v>
+      </c>
+      <c r="N9">
+        <v>10.09598749315173</v>
+      </c>
+      <c r="O9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15">
       <c r="A10" s="1">
         <v>8</v>
       </c>
+      <c r="B10">
+        <v>0</v>
+      </c>
       <c r="C10">
-        <v>9.565932493038741</v>
+        <v>12.83041648316236</v>
       </c>
       <c r="D10">
-        <v>15.8284258233051</v>
+        <v>15.12379947740416</v>
       </c>
       <c r="E10">
-        <v>9.427927122604819</v>
+        <v>11.80138052089136</v>
       </c>
       <c r="F10">
-        <v>108.4503450397344</v>
+        <v>90.60365331849471</v>
       </c>
       <c r="G10">
-        <v>1.699042297589875</v>
+        <v>1.847505518983778</v>
       </c>
       <c r="H10">
         <v>0</v>
       </c>
       <c r="I10">
-        <v>80.70427594851094</v>
+        <v>0</v>
       </c>
       <c r="J10">
-        <v>14.33053331097921</v>
+        <v>0</v>
+      </c>
+      <c r="K10">
+        <v>82.52442464790573</v>
       </c>
       <c r="L10">
-        <v>10.85902973892291</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13">
+        <v>5.87697582330228</v>
+      </c>
+      <c r="M10">
+        <v>0</v>
+      </c>
+      <c r="N10">
+        <v>10.09598749315173</v>
+      </c>
+      <c r="O10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15">
       <c r="A11" s="1">
         <v>9</v>
       </c>
+      <c r="B11">
+        <v>0</v>
+      </c>
       <c r="C11">
-        <v>9.565932493038741</v>
+        <v>12.83041648316236</v>
       </c>
       <c r="D11">
-        <v>15.8284258233051</v>
+        <v>15.12379947740416</v>
       </c>
       <c r="E11">
-        <v>9.427927122604819</v>
+        <v>11.80138052089136</v>
       </c>
       <c r="F11">
-        <v>108.4503450397344</v>
+        <v>90.60365331849471</v>
       </c>
       <c r="G11">
-        <v>1.699042297589875</v>
+        <v>1.847505518983778</v>
       </c>
       <c r="H11">
         <v>0</v>
       </c>
       <c r="I11">
-        <v>80.70427594851094</v>
+        <v>0</v>
       </c>
       <c r="J11">
-        <v>14.33053331097921</v>
+        <v>0</v>
+      </c>
+      <c r="K11">
+        <v>82.52442464790573</v>
       </c>
       <c r="L11">
-        <v>10.85902973892291</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13">
+        <v>5.87697582330228</v>
+      </c>
+      <c r="M11">
+        <v>0</v>
+      </c>
+      <c r="N11">
+        <v>10.09598749315173</v>
+      </c>
+      <c r="O11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15">
       <c r="A12" s="1">
         <v>10</v>
       </c>
+      <c r="B12">
+        <v>0</v>
+      </c>
       <c r="C12">
-        <v>9.565932493038741</v>
+        <v>12.83041648316236</v>
       </c>
       <c r="D12">
-        <v>15.8284258233051</v>
+        <v>15.12379947740416</v>
       </c>
       <c r="E12">
-        <v>9.427927122604819</v>
+        <v>11.80138052089136</v>
       </c>
       <c r="F12">
-        <v>108.4503450397344</v>
+        <v>90.60365331849471</v>
       </c>
       <c r="G12">
-        <v>1.699042297589875</v>
+        <v>1.847505518983778</v>
       </c>
       <c r="H12">
         <v>0</v>
       </c>
       <c r="I12">
-        <v>80.70427594851094</v>
+        <v>0</v>
       </c>
       <c r="J12">
-        <v>14.33053331097921</v>
+        <v>0</v>
+      </c>
+      <c r="K12">
+        <v>82.52442464790573</v>
       </c>
       <c r="L12">
-        <v>10.85902973892291</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13">
+        <v>5.87697582330228</v>
+      </c>
+      <c r="M12">
+        <v>0</v>
+      </c>
+      <c r="N12">
+        <v>10.09598749315173</v>
+      </c>
+      <c r="O12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15">
       <c r="A13" s="1">
         <v>11</v>
       </c>
+      <c r="B13">
+        <v>0</v>
+      </c>
       <c r="C13">
-        <v>9.565932493038741</v>
+        <v>12.83041648316236</v>
       </c>
       <c r="D13">
-        <v>15.8284258233051</v>
+        <v>15.12379947740416</v>
       </c>
       <c r="E13">
-        <v>9.427927122604819</v>
+        <v>11.80138052089136</v>
       </c>
       <c r="F13">
-        <v>108.4503450397344</v>
+        <v>90.60365331849471</v>
       </c>
       <c r="G13">
-        <v>1.699042297589875</v>
+        <v>1.847505518983778</v>
       </c>
       <c r="H13">
         <v>0</v>
       </c>
       <c r="I13">
-        <v>80.70427594851094</v>
+        <v>0</v>
       </c>
       <c r="J13">
-        <v>14.33053331097921</v>
+        <v>0</v>
+      </c>
+      <c r="K13">
+        <v>82.52442464790573</v>
       </c>
       <c r="L13">
-        <v>10.85902973892291</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13">
+        <v>5.87697582330228</v>
+      </c>
+      <c r="M13">
+        <v>0</v>
+      </c>
+      <c r="N13">
+        <v>10.09598749315173</v>
+      </c>
+      <c r="O13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15">
       <c r="A14" s="1">
         <v>12</v>
       </c>
+      <c r="B14">
+        <v>0</v>
+      </c>
       <c r="C14">
-        <v>9.565932493038741</v>
+        <v>12.83041648316236</v>
       </c>
       <c r="D14">
-        <v>15.8284258233051</v>
+        <v>15.12379947740416</v>
       </c>
       <c r="E14">
-        <v>9.427927122604819</v>
+        <v>11.80138052089136</v>
       </c>
       <c r="F14">
-        <v>108.4503450397344</v>
+        <v>90.60365331849471</v>
       </c>
       <c r="G14">
-        <v>1.699042297589875</v>
+        <v>1.847505518983778</v>
       </c>
       <c r="H14">
         <v>0</v>
       </c>
       <c r="I14">
-        <v>80.70427594851094</v>
+        <v>0</v>
       </c>
       <c r="J14">
-        <v>14.33053331097921</v>
+        <v>0</v>
+      </c>
+      <c r="K14">
+        <v>82.52442464790573</v>
       </c>
       <c r="L14">
-        <v>10.85902973892291</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13">
+        <v>5.87697582330228</v>
+      </c>
+      <c r="M14">
+        <v>0</v>
+      </c>
+      <c r="N14">
+        <v>10.09598749315173</v>
+      </c>
+      <c r="O14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15">
       <c r="A15" s="1">
         <v>13</v>
       </c>
+      <c r="B15">
+        <v>0</v>
+      </c>
       <c r="C15">
-        <v>9.565932493038741</v>
+        <v>12.83041648316236</v>
       </c>
       <c r="D15">
-        <v>15.8284258233051</v>
+        <v>15.12379947740416</v>
       </c>
       <c r="E15">
-        <v>9.427927122604819</v>
+        <v>11.80138052089136</v>
       </c>
       <c r="F15">
-        <v>108.4503450397344</v>
+        <v>90.60365331849471</v>
       </c>
       <c r="G15">
-        <v>1.699042297589875</v>
+        <v>1.847505518983778</v>
       </c>
       <c r="H15">
         <v>0</v>
       </c>
       <c r="I15">
-        <v>80.70427594851094</v>
+        <v>0</v>
       </c>
       <c r="J15">
-        <v>14.33053331097921</v>
+        <v>0</v>
+      </c>
+      <c r="K15">
+        <v>82.52442464790573</v>
       </c>
       <c r="L15">
-        <v>10.85902973892291</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13">
+        <v>5.87697582330228</v>
+      </c>
+      <c r="M15">
+        <v>0</v>
+      </c>
+      <c r="N15">
+        <v>10.09598749315173</v>
+      </c>
+      <c r="O15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15">
       <c r="A16" s="1">
         <v>14</v>
       </c>
+      <c r="B16">
+        <v>0</v>
+      </c>
       <c r="C16">
-        <v>9.565932493038741</v>
+        <v>12.83041648316236</v>
       </c>
       <c r="D16">
-        <v>15.8284258233051</v>
+        <v>15.12379947740416</v>
       </c>
       <c r="E16">
-        <v>9.427927122604819</v>
+        <v>11.80138052089136</v>
       </c>
       <c r="F16">
-        <v>108.4503450397344</v>
+        <v>90.60365331849471</v>
       </c>
       <c r="G16">
-        <v>1.699042297589875</v>
+        <v>1.847505518983778</v>
       </c>
       <c r="H16">
         <v>0</v>
       </c>
       <c r="I16">
-        <v>80.70427594851094</v>
+        <v>0</v>
       </c>
       <c r="J16">
-        <v>14.33053331097921</v>
+        <v>0</v>
+      </c>
+      <c r="K16">
+        <v>82.52442464790573</v>
       </c>
       <c r="L16">
-        <v>10.85902973892291</v>
-      </c>
-    </row>
-    <row r="17" spans="1:12">
+        <v>5.87697582330228</v>
+      </c>
+      <c r="M16">
+        <v>0</v>
+      </c>
+      <c r="N16">
+        <v>10.09598749315173</v>
+      </c>
+      <c r="O16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15">
       <c r="A17" s="1">
         <v>15</v>
       </c>
+      <c r="B17">
+        <v>0</v>
+      </c>
       <c r="C17">
-        <v>9.565932493038741</v>
+        <v>12.83041648316236</v>
       </c>
       <c r="D17">
-        <v>15.8284258233051</v>
+        <v>15.12379947740416</v>
       </c>
       <c r="E17">
-        <v>9.427927122604819</v>
+        <v>11.80138052089136</v>
       </c>
       <c r="F17">
-        <v>108.4503450397344</v>
+        <v>90.60365331849471</v>
       </c>
       <c r="G17">
-        <v>1.699042297589875</v>
+        <v>1.847505518983778</v>
       </c>
       <c r="H17">
         <v>0</v>
       </c>
       <c r="I17">
-        <v>80.70427594851094</v>
+        <v>0</v>
       </c>
       <c r="J17">
-        <v>14.33053331097921</v>
+        <v>0</v>
+      </c>
+      <c r="K17">
+        <v>82.52442464790573</v>
       </c>
       <c r="L17">
-        <v>10.85902973892291</v>
-      </c>
-    </row>
-    <row r="18" spans="1:12">
+        <v>5.87697582330228</v>
+      </c>
+      <c r="M17">
+        <v>0</v>
+      </c>
+      <c r="N17">
+        <v>10.09598749315173</v>
+      </c>
+      <c r="O17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15">
       <c r="A18" s="1">
         <v>16</v>
       </c>
+      <c r="B18">
+        <v>0</v>
+      </c>
       <c r="C18">
-        <v>9.565932493038741</v>
+        <v>12.83041648316236</v>
       </c>
       <c r="D18">
-        <v>15.8284258233051</v>
+        <v>15.12379947740416</v>
       </c>
       <c r="E18">
-        <v>9.427927122604819</v>
+        <v>11.80138052089136</v>
       </c>
       <c r="F18">
-        <v>108.4503450397344</v>
+        <v>90.60365331849471</v>
       </c>
       <c r="G18">
-        <v>1.699042297589875</v>
+        <v>1.847505518983778</v>
       </c>
       <c r="H18">
         <v>0</v>
       </c>
       <c r="I18">
-        <v>80.70427594851094</v>
+        <v>0</v>
       </c>
       <c r="J18">
-        <v>14.33053331097921</v>
+        <v>0</v>
+      </c>
+      <c r="K18">
+        <v>82.52442464790573</v>
       </c>
       <c r="L18">
-        <v>10.85902973892291</v>
-      </c>
-    </row>
-    <row r="19" spans="1:12">
+        <v>5.87697582330228</v>
+      </c>
+      <c r="M18">
+        <v>0</v>
+      </c>
+      <c r="N18">
+        <v>10.09598749315173</v>
+      </c>
+      <c r="O18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15">
       <c r="A19" s="1">
         <v>17</v>
       </c>
+      <c r="B19">
+        <v>0</v>
+      </c>
       <c r="C19">
-        <v>9.565932493038741</v>
+        <v>12.83041648316236</v>
       </c>
       <c r="D19">
-        <v>15.8284258233051</v>
+        <v>15.12379947740416</v>
       </c>
       <c r="E19">
-        <v>9.427927122604819</v>
+        <v>11.80138052089136</v>
       </c>
       <c r="F19">
-        <v>108.4503450397344</v>
+        <v>90.60365331849471</v>
       </c>
       <c r="G19">
-        <v>1.699042297589875</v>
+        <v>1.847505518983778</v>
       </c>
       <c r="H19">
         <v>0</v>
       </c>
       <c r="I19">
-        <v>80.70427594851094</v>
+        <v>0</v>
       </c>
       <c r="J19">
-        <v>14.33053331097921</v>
+        <v>0</v>
+      </c>
+      <c r="K19">
+        <v>82.52442464790573</v>
       </c>
       <c r="L19">
-        <v>10.85902973892291</v>
-      </c>
-    </row>
-    <row r="20" spans="1:12">
+        <v>5.87697582330228</v>
+      </c>
+      <c r="M19">
+        <v>0</v>
+      </c>
+      <c r="N19">
+        <v>10.09598749315173</v>
+      </c>
+      <c r="O19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15">
       <c r="A20" s="1">
         <v>18</v>
       </c>
+      <c r="B20">
+        <v>0</v>
+      </c>
       <c r="C20">
-        <v>9.565932493038741</v>
+        <v>12.83041648316236</v>
       </c>
       <c r="D20">
-        <v>15.8284258233051</v>
+        <v>15.12379947740416</v>
       </c>
       <c r="E20">
-        <v>9.427927122604819</v>
+        <v>11.80138052089136</v>
       </c>
       <c r="F20">
-        <v>108.4503450397344</v>
+        <v>90.60365331849471</v>
       </c>
       <c r="G20">
-        <v>1.699042297589875</v>
+        <v>1.847505518983778</v>
       </c>
       <c r="H20">
         <v>0</v>
       </c>
       <c r="I20">
-        <v>80.70427594851094</v>
+        <v>0</v>
       </c>
       <c r="J20">
-        <v>14.33053331097921</v>
+        <v>0</v>
+      </c>
+      <c r="K20">
+        <v>82.52442464790573</v>
       </c>
       <c r="L20">
-        <v>10.85902973892291</v>
-      </c>
-    </row>
-    <row r="21" spans="1:12">
+        <v>5.87697582330228</v>
+      </c>
+      <c r="M20">
+        <v>0</v>
+      </c>
+      <c r="N20">
+        <v>10.09598749315173</v>
+      </c>
+      <c r="O20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15">
       <c r="A21" s="1">
         <v>19</v>
       </c>
+      <c r="B21">
+        <v>0</v>
+      </c>
       <c r="C21">
-        <v>9.565932493038741</v>
+        <v>12.83041648316236</v>
       </c>
       <c r="D21">
-        <v>15.8284258233051</v>
+        <v>15.12379947740416</v>
       </c>
       <c r="E21">
-        <v>9.427927122604819</v>
+        <v>11.80138052089136</v>
       </c>
       <c r="F21">
-        <v>108.4503450397344</v>
+        <v>90.60365331849471</v>
       </c>
       <c r="G21">
-        <v>1.699042297589875</v>
+        <v>1.847505518983778</v>
       </c>
       <c r="H21">
         <v>0</v>
       </c>
       <c r="I21">
-        <v>80.70427594851094</v>
+        <v>0</v>
       </c>
       <c r="J21">
-        <v>14.33053331097921</v>
+        <v>0</v>
+      </c>
+      <c r="K21">
+        <v>82.52442464790573</v>
       </c>
       <c r="L21">
-        <v>10.85902973892291</v>
-      </c>
-    </row>
-    <row r="22" spans="1:12">
+        <v>5.87697582330228</v>
+      </c>
+      <c r="M21">
+        <v>0</v>
+      </c>
+      <c r="N21">
+        <v>10.09598749315173</v>
+      </c>
+      <c r="O21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15">
       <c r="A22" s="1">
         <v>20</v>
       </c>
+      <c r="B22">
+        <v>0</v>
+      </c>
       <c r="C22">
-        <v>9.565932493038741</v>
+        <v>12.83041648316236</v>
       </c>
       <c r="D22">
-        <v>15.8284258233051</v>
+        <v>15.12379947740416</v>
       </c>
       <c r="E22">
-        <v>9.427927122604819</v>
+        <v>11.80138052089136</v>
       </c>
       <c r="F22">
-        <v>108.4503450397344</v>
+        <v>90.60365331849471</v>
       </c>
       <c r="G22">
-        <v>1.699042297589875</v>
+        <v>1.847505518983778</v>
       </c>
       <c r="H22">
         <v>0</v>
       </c>
       <c r="I22">
-        <v>80.70427594851094</v>
+        <v>0</v>
       </c>
       <c r="J22">
-        <v>14.33053331097921</v>
+        <v>0</v>
+      </c>
+      <c r="K22">
+        <v>82.52442464790573</v>
       </c>
       <c r="L22">
-        <v>10.85902973892291</v>
-      </c>
-    </row>
-    <row r="23" spans="1:12">
+        <v>5.87697582330228</v>
+      </c>
+      <c r="M22">
+        <v>0</v>
+      </c>
+      <c r="N22">
+        <v>10.09598749315173</v>
+      </c>
+      <c r="O22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15">
       <c r="A23" s="1">
         <v>21</v>
       </c>
+      <c r="B23">
+        <v>0</v>
+      </c>
       <c r="C23">
-        <v>9.565932493038741</v>
+        <v>12.83041648316236</v>
       </c>
       <c r="D23">
-        <v>15.8284258233051</v>
+        <v>15.12379947740416</v>
       </c>
       <c r="E23">
-        <v>9.427927122604819</v>
+        <v>11.80138052089136</v>
       </c>
       <c r="F23">
-        <v>108.4503450397344</v>
+        <v>90.60365331849471</v>
       </c>
       <c r="G23">
-        <v>1.699042297589875</v>
+        <v>1.847505518983778</v>
       </c>
       <c r="H23">
         <v>0</v>
       </c>
       <c r="I23">
-        <v>80.70427594851094</v>
+        <v>0</v>
       </c>
       <c r="J23">
-        <v>14.33053331097921</v>
+        <v>0</v>
+      </c>
+      <c r="K23">
+        <v>82.52442464790573</v>
       </c>
       <c r="L23">
-        <v>10.85902973892291</v>
-      </c>
-    </row>
-    <row r="24" spans="1:12">
+        <v>5.87697582330228</v>
+      </c>
+      <c r="M23">
+        <v>0</v>
+      </c>
+      <c r="N23">
+        <v>10.09598749315173</v>
+      </c>
+      <c r="O23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15">
       <c r="A24" s="1">
         <v>22</v>
       </c>
+      <c r="B24">
+        <v>0</v>
+      </c>
       <c r="C24">
-        <v>9.565932493038741</v>
+        <v>12.83041648316236</v>
       </c>
       <c r="D24">
-        <v>15.8284258233051</v>
+        <v>15.12379947740416</v>
       </c>
       <c r="E24">
-        <v>9.427927122604819</v>
+        <v>11.80138052089136</v>
       </c>
       <c r="F24">
-        <v>108.4503450397344</v>
+        <v>90.60365331849471</v>
       </c>
       <c r="G24">
-        <v>1.699042297589875</v>
+        <v>1.847505518983778</v>
       </c>
       <c r="H24">
         <v>0</v>
       </c>
       <c r="I24">
-        <v>80.70427594851094</v>
+        <v>0</v>
       </c>
       <c r="J24">
-        <v>14.33053331097921</v>
+        <v>0</v>
+      </c>
+      <c r="K24">
+        <v>82.52442464790573</v>
       </c>
       <c r="L24">
-        <v>10.85902973892291</v>
-      </c>
-    </row>
-    <row r="25" spans="1:12">
+        <v>5.87697582330228</v>
+      </c>
+      <c r="M24">
+        <v>0</v>
+      </c>
+      <c r="N24">
+        <v>10.09598749315173</v>
+      </c>
+      <c r="O24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15">
       <c r="A25" s="1">
         <v>23</v>
       </c>
+      <c r="B25">
+        <v>0</v>
+      </c>
       <c r="C25">
-        <v>9.565932493038741</v>
+        <v>12.83041648316236</v>
       </c>
       <c r="D25">
-        <v>15.8284258233051</v>
+        <v>15.12379947740416</v>
       </c>
       <c r="E25">
-        <v>9.427927122604819</v>
+        <v>11.80138052089136</v>
       </c>
       <c r="F25">
-        <v>108.4503450397344</v>
+        <v>90.60365331849471</v>
       </c>
       <c r="G25">
-        <v>1.699042297589875</v>
+        <v>1.847505518983778</v>
       </c>
       <c r="H25">
         <v>0</v>
       </c>
       <c r="I25">
-        <v>80.70427594851094</v>
+        <v>0</v>
       </c>
       <c r="J25">
-        <v>14.33053331097921</v>
+        <v>0</v>
+      </c>
+      <c r="K25">
+        <v>82.52442464790573</v>
       </c>
       <c r="L25">
-        <v>10.85902973892291</v>
+        <v>5.87697582330228</v>
+      </c>
+      <c r="M25">
+        <v>0</v>
+      </c>
+      <c r="N25">
+        <v>10.09598749315173</v>
+      </c>
+      <c r="O25">
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_0_48/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_0_48/res_line/loading_percent.xlsx
@@ -420,26 +420,23 @@
       <c r="A2" s="1">
         <v>0</v>
       </c>
-      <c r="B2">
-        <v>0</v>
-      </c>
       <c r="C2">
-        <v>13.23044660204968</v>
+        <v>12.7222210840583</v>
       </c>
       <c r="D2">
-        <v>15.74763956714055</v>
+        <v>8.762240179790453</v>
       </c>
       <c r="E2">
-        <v>12.12879451507907</v>
+        <v>11.74778410646728</v>
       </c>
       <c r="F2">
-        <v>94.24914384256384</v>
+        <v>64.47577641397346</v>
       </c>
       <c r="G2">
-        <v>1.819464337254795</v>
+        <v>105.6003354377625</v>
       </c>
       <c r="H2">
-        <v>0</v>
+        <v>26.35683803399978</v>
       </c>
       <c r="I2">
         <v>0</v>
@@ -447,17 +444,8 @@
       <c r="J2">
         <v>0</v>
       </c>
-      <c r="K2">
-        <v>85.60495198511026</v>
-      </c>
       <c r="L2">
-        <v>5.947988500025506</v>
-      </c>
-      <c r="M2">
-        <v>0</v>
-      </c>
-      <c r="N2">
-        <v>9.871440332462109</v>
+        <v>5.950764977806487</v>
       </c>
       <c r="O2">
         <v>0</v>
@@ -467,26 +455,23 @@
       <c r="A3" s="1">
         <v>1</v>
       </c>
-      <c r="B3">
-        <v>0</v>
-      </c>
       <c r="C3">
-        <v>12.14092635365203</v>
+        <v>11.93633767809055</v>
       </c>
       <c r="D3">
-        <v>14.1630087579171</v>
+        <v>8.171722242817648</v>
       </c>
       <c r="E3">
-        <v>11.24422797673984</v>
+        <v>11.104571323516</v>
       </c>
       <c r="F3">
-        <v>84.24088526794336</v>
+        <v>59.37462419303091</v>
       </c>
       <c r="G3">
-        <v>1.895622575670062</v>
+        <v>97.22845483906167</v>
       </c>
       <c r="H3">
-        <v>0</v>
+        <v>24.2851717272203</v>
       </c>
       <c r="I3">
         <v>0</v>
@@ -494,17 +479,8 @@
       <c r="J3">
         <v>0</v>
       </c>
-      <c r="K3">
-        <v>77.0112666242063</v>
-      </c>
       <c r="L3">
-        <v>5.765844033382152</v>
-      </c>
-      <c r="M3">
-        <v>0</v>
-      </c>
-      <c r="N3">
-        <v>10.4831942111087</v>
+        <v>5.795965607072183</v>
       </c>
       <c r="O3">
         <v>0</v>
@@ -514,26 +490,23 @@
       <c r="A4" s="1">
         <v>2</v>
       </c>
-      <c r="B4">
-        <v>0</v>
-      </c>
       <c r="C4">
-        <v>11.55672461274178</v>
+        <v>11.46201835250374</v>
       </c>
       <c r="D4">
-        <v>13.36651616362044</v>
+        <v>7.814809218707162</v>
       </c>
       <c r="E4">
-        <v>10.78032355067463</v>
+        <v>10.72147426572521</v>
       </c>
       <c r="F4">
-        <v>78.7497129392068</v>
+        <v>56.2042113655634</v>
       </c>
       <c r="G4">
-        <v>1.936408177736423</v>
+        <v>92.02693656219331</v>
       </c>
       <c r="H4">
-        <v>0</v>
+        <v>22.99958896977554</v>
       </c>
       <c r="I4">
         <v>0</v>
@@ -541,17 +514,8 @@
       <c r="J4">
         <v>0</v>
       </c>
-      <c r="K4">
-        <v>72.09628382082199</v>
-      </c>
       <c r="L4">
-        <v>5.683901616239337</v>
-      </c>
-      <c r="M4">
-        <v>0</v>
-      </c>
-      <c r="N4">
-        <v>10.81336487354488</v>
+        <v>5.709915646719364</v>
       </c>
       <c r="O4">
         <v>0</v>
@@ -561,26 +525,23 @@
       <c r="A5" s="1">
         <v>3</v>
       </c>
-      <c r="B5">
-        <v>0</v>
-      </c>
       <c r="C5">
-        <v>11.33219702795895</v>
+        <v>11.2703229406963</v>
       </c>
       <c r="D5">
-        <v>13.06507264883998</v>
+        <v>7.670369036297836</v>
       </c>
       <c r="E5">
-        <v>10.60431834757629</v>
+        <v>10.56789044068379</v>
       </c>
       <c r="F5">
-        <v>76.60866488428157</v>
+        <v>54.89922318135718</v>
       </c>
       <c r="G5">
-        <v>1.952153847226898</v>
+        <v>89.88626376907519</v>
       </c>
       <c r="H5">
-        <v>0</v>
+        <v>22.51274245087382</v>
       </c>
       <c r="I5">
         <v>0</v>
@@ -588,17 +549,8 @@
       <c r="J5">
         <v>0</v>
       </c>
-      <c r="K5">
-        <v>70.13536827676717</v>
-      </c>
       <c r="L5">
-        <v>5.655682402784498</v>
-      </c>
-      <c r="M5">
-        <v>0</v>
-      </c>
-      <c r="N5">
-        <v>10.94131679852261</v>
+        <v>5.676860700250531</v>
       </c>
       <c r="O5">
         <v>0</v>
@@ -608,26 +560,23 @@
       <c r="A6" s="1">
         <v>4</v>
       </c>
-      <c r="B6">
-        <v>0</v>
-      </c>
       <c r="C6">
-        <v>11.29558911547885</v>
+        <v>11.23857804876103</v>
       </c>
       <c r="D6">
-        <v>13.01618500219014</v>
+        <v>7.646436212017379</v>
       </c>
       <c r="E6">
-        <v>10.57575294977931</v>
+        <v>10.54253080481931</v>
       </c>
       <c r="F6">
-        <v>76.25773369136299</v>
+        <v>54.68166415721461</v>
       </c>
       <c r="G6">
-        <v>1.95472733290596</v>
+        <v>89.53125297740816</v>
       </c>
       <c r="H6">
-        <v>0</v>
+        <v>22.43724780873297</v>
       </c>
       <c r="I6">
         <v>0</v>
@@ -635,17 +584,8 @@
       <c r="J6">
         <v>0</v>
       </c>
-      <c r="K6">
-        <v>69.81138562116278</v>
-      </c>
       <c r="L6">
-        <v>5.651264472698381</v>
-      </c>
-      <c r="M6">
-        <v>0</v>
-      </c>
-      <c r="N6">
-        <v>10.96225492309049</v>
+        <v>5.671487024505748</v>
       </c>
       <c r="O6">
         <v>0</v>
@@ -655,26 +595,23 @@
       <c r="A7" s="1">
         <v>5</v>
       </c>
-      <c r="B7">
-        <v>0</v>
-      </c>
       <c r="C7">
-        <v>11.55364859449227</v>
+        <v>11.45942711565536</v>
       </c>
       <c r="D7">
-        <v>13.36236816387337</v>
+        <v>7.812857620408076</v>
       </c>
       <c r="E7">
-        <v>10.77790319040294</v>
+        <v>10.71939320412628</v>
       </c>
       <c r="F7">
-        <v>78.72050659680367</v>
+        <v>56.1866683107533</v>
       </c>
       <c r="G7">
-        <v>1.936623508771494</v>
+        <v>91.99815802223409</v>
       </c>
       <c r="H7">
-        <v>0</v>
+        <v>22.99248002840917</v>
       </c>
       <c r="I7">
         <v>0</v>
@@ -682,17 +619,8 @@
       <c r="J7">
         <v>0</v>
       </c>
-      <c r="K7">
-        <v>72.069711810456</v>
-      </c>
       <c r="L7">
-        <v>5.683502224303876</v>
-      </c>
-      <c r="M7">
-        <v>0</v>
-      </c>
-      <c r="N7">
-        <v>10.81511286910591</v>
+        <v>5.709462008056956</v>
       </c>
       <c r="O7">
         <v>0</v>
@@ -702,26 +630,23 @@
       <c r="A8" s="1">
         <v>6</v>
       </c>
-      <c r="B8">
-        <v>0</v>
-      </c>
       <c r="C8">
-        <v>12.83041648316236</v>
+        <v>12.44919296371279</v>
       </c>
       <c r="D8">
-        <v>15.12379947740416</v>
+        <v>8.557145527181298</v>
       </c>
       <c r="E8">
-        <v>11.80138052089136</v>
+        <v>11.52322303684951</v>
       </c>
       <c r="F8">
-        <v>90.60365331849471</v>
+        <v>62.72245897863195</v>
       </c>
       <c r="G8">
-        <v>1.847505518983778</v>
+        <v>102.7224398615894</v>
       </c>
       <c r="H8">
-        <v>0</v>
+        <v>25.64437482072963</v>
       </c>
       <c r="I8">
         <v>0</v>
@@ -729,17 +654,8 @@
       <c r="J8">
         <v>0</v>
       </c>
-      <c r="K8">
-        <v>82.52442464790573</v>
-      </c>
       <c r="L8">
-        <v>5.87697582330228</v>
-      </c>
-      <c r="M8">
-        <v>0</v>
-      </c>
-      <c r="N8">
-        <v>10.09598749315173</v>
+        <v>5.895353007277645</v>
       </c>
       <c r="O8">
         <v>0</v>
@@ -749,26 +665,23 @@
       <c r="A9" s="1">
         <v>7</v>
       </c>
-      <c r="B9">
-        <v>0</v>
-      </c>
       <c r="C9">
-        <v>12.83041648316236</v>
+        <v>14.49090302633392</v>
       </c>
       <c r="D9">
-        <v>15.12379947740416</v>
+        <v>10.32675562547808</v>
       </c>
       <c r="E9">
-        <v>11.80138052089136</v>
+        <v>13.22596859749889</v>
       </c>
       <c r="F9">
-        <v>90.60365331849471</v>
+        <v>75.46241305028771</v>
       </c>
       <c r="G9">
-        <v>1.847505518983778</v>
+        <v>123.6445611263151</v>
       </c>
       <c r="H9">
-        <v>0</v>
+        <v>30.82980666829991</v>
       </c>
       <c r="I9">
         <v>0</v>
@@ -776,17 +689,8 @@
       <c r="J9">
         <v>0</v>
       </c>
-      <c r="K9">
-        <v>82.52442464790573</v>
-      </c>
       <c r="L9">
-        <v>5.87697582330228</v>
-      </c>
-      <c r="M9">
-        <v>0</v>
-      </c>
-      <c r="N9">
-        <v>10.09598749315173</v>
+        <v>6.346807489612099</v>
       </c>
       <c r="O9">
         <v>0</v>
@@ -796,26 +700,23 @@
       <c r="A10" s="1">
         <v>8</v>
       </c>
-      <c r="B10">
-        <v>0</v>
-      </c>
       <c r="C10">
-        <v>12.83041648316236</v>
+        <v>16.13964481539011</v>
       </c>
       <c r="D10">
-        <v>15.12379947740416</v>
+        <v>11.75191728736082</v>
       </c>
       <c r="E10">
-        <v>11.80138052089136</v>
+        <v>14.63306712329343</v>
       </c>
       <c r="F10">
-        <v>90.60365331849471</v>
+        <v>85.28916543592968</v>
       </c>
       <c r="G10">
-        <v>1.847505518983778</v>
+        <v>139.8028755746822</v>
       </c>
       <c r="H10">
-        <v>0</v>
+        <v>34.84161738958295</v>
       </c>
       <c r="I10">
         <v>0</v>
@@ -823,17 +724,8 @@
       <c r="J10">
         <v>0</v>
       </c>
-      <c r="K10">
-        <v>82.52442464790573</v>
-      </c>
       <c r="L10">
-        <v>5.87697582330228</v>
-      </c>
-      <c r="M10">
-        <v>0</v>
-      </c>
-      <c r="N10">
-        <v>10.09598749315173</v>
+        <v>6.765323881085354</v>
       </c>
       <c r="O10">
         <v>0</v>
@@ -843,26 +735,23 @@
       <c r="A11" s="1">
         <v>9</v>
       </c>
-      <c r="B11">
-        <v>0</v>
-      </c>
       <c r="C11">
-        <v>12.83041648316236</v>
+        <v>16.96648556884399</v>
       </c>
       <c r="D11">
-        <v>15.12379947740416</v>
+        <v>12.45558581705484</v>
       </c>
       <c r="E11">
-        <v>11.80138052089136</v>
+        <v>15.41884713900196</v>
       </c>
       <c r="F11">
-        <v>90.60365331849471</v>
+        <v>90.08719210568637</v>
       </c>
       <c r="G11">
-        <v>1.847505518983778</v>
+        <v>147.7005371043363</v>
       </c>
       <c r="H11">
-        <v>0</v>
+        <v>36.80403649220451</v>
       </c>
       <c r="I11">
         <v>0</v>
@@ -870,17 +759,8 @@
       <c r="J11">
         <v>0</v>
       </c>
-      <c r="K11">
-        <v>82.52442464790573</v>
-      </c>
       <c r="L11">
-        <v>5.87697582330228</v>
-      </c>
-      <c r="M11">
-        <v>0</v>
-      </c>
-      <c r="N11">
-        <v>10.09598749315173</v>
+        <v>7.09954072312798</v>
       </c>
       <c r="O11">
         <v>0</v>
@@ -890,26 +770,23 @@
       <c r="A12" s="1">
         <v>10</v>
       </c>
-      <c r="B12">
-        <v>0</v>
-      </c>
       <c r="C12">
-        <v>12.83041648316236</v>
+        <v>17.31781982084669</v>
       </c>
       <c r="D12">
-        <v>15.12379947740416</v>
+        <v>12.73621080238632</v>
       </c>
       <c r="E12">
-        <v>11.80138052089136</v>
+        <v>15.75006048756276</v>
       </c>
       <c r="F12">
-        <v>90.60365331849471</v>
+        <v>91.98855656812744</v>
       </c>
       <c r="G12">
-        <v>1.847505518983778</v>
+        <v>150.8319534514794</v>
       </c>
       <c r="H12">
-        <v>0</v>
+        <v>37.58237156926076</v>
       </c>
       <c r="I12">
         <v>0</v>
@@ -917,17 +794,8 @@
       <c r="J12">
         <v>0</v>
       </c>
-      <c r="K12">
-        <v>82.52442464790573</v>
-      </c>
       <c r="L12">
-        <v>5.87697582330228</v>
-      </c>
-      <c r="M12">
-        <v>0</v>
-      </c>
-      <c r="N12">
-        <v>10.09598749315173</v>
+        <v>7.246669801122533</v>
       </c>
       <c r="O12">
         <v>0</v>
@@ -937,26 +805,23 @@
       <c r="A13" s="1">
         <v>11</v>
       </c>
-      <c r="B13">
-        <v>0</v>
-      </c>
       <c r="C13">
-        <v>12.83041648316236</v>
+        <v>17.24123182094339</v>
       </c>
       <c r="D13">
-        <v>15.12379947740416</v>
+        <v>12.67499057222895</v>
       </c>
       <c r="E13">
-        <v>11.80138052089136</v>
+        <v>15.67788012839326</v>
       </c>
       <c r="F13">
-        <v>90.60365331849471</v>
+        <v>91.57439118740555</v>
       </c>
       <c r="G13">
-        <v>1.847505518983778</v>
+        <v>150.1497629152516</v>
       </c>
       <c r="H13">
-        <v>0</v>
+        <v>37.41279766474159</v>
       </c>
       <c r="I13">
         <v>0</v>
@@ -964,17 +829,8 @@
       <c r="J13">
         <v>0</v>
       </c>
-      <c r="K13">
-        <v>82.52442464790573</v>
-      </c>
       <c r="L13">
-        <v>5.87697582330228</v>
-      </c>
-      <c r="M13">
-        <v>0</v>
-      </c>
-      <c r="N13">
-        <v>10.09598749315173</v>
+        <v>7.214610783085446</v>
       </c>
       <c r="O13">
         <v>0</v>
@@ -984,26 +840,23 @@
       <c r="A14" s="1">
         <v>12</v>
       </c>
-      <c r="B14">
-        <v>0</v>
-      </c>
       <c r="C14">
-        <v>12.83041648316236</v>
+        <v>16.99499294771643</v>
       </c>
       <c r="D14">
-        <v>15.12379947740416</v>
+        <v>12.47833641173318</v>
       </c>
       <c r="E14">
-        <v>11.80138052089136</v>
+        <v>15.44573164475645</v>
       </c>
       <c r="F14">
-        <v>90.60365331849471</v>
+        <v>90.24160922391452</v>
       </c>
       <c r="G14">
-        <v>1.847505518983778</v>
+        <v>147.954813132814</v>
       </c>
       <c r="H14">
-        <v>0</v>
+        <v>36.86723377553393</v>
       </c>
       <c r="I14">
         <v>0</v>
@@ -1011,17 +864,8 @@
       <c r="J14">
         <v>0</v>
       </c>
-      <c r="K14">
-        <v>82.52442464790573</v>
-      </c>
       <c r="L14">
-        <v>5.87697582330228</v>
-      </c>
-      <c r="M14">
-        <v>0</v>
-      </c>
-      <c r="N14">
-        <v>10.09598749315173</v>
+        <v>7.111485180552307</v>
       </c>
       <c r="O14">
         <v>0</v>
@@ -1031,26 +875,23 @@
       <c r="A15" s="1">
         <v>13</v>
       </c>
-      <c r="B15">
-        <v>0</v>
-      </c>
       <c r="C15">
-        <v>12.83041648316236</v>
+        <v>16.85053986441879</v>
       </c>
       <c r="D15">
-        <v>15.12379947740416</v>
+        <v>12.35998742453014</v>
       </c>
       <c r="E15">
-        <v>11.80138052089136</v>
+        <v>15.30581709638714</v>
       </c>
       <c r="F15">
-        <v>90.60365331849471</v>
+        <v>89.43781991031238</v>
       </c>
       <c r="G15">
-        <v>1.847505518983778</v>
+        <v>146.6312993605273</v>
       </c>
       <c r="H15">
-        <v>0</v>
+        <v>36.53829964256003</v>
       </c>
       <c r="I15">
         <v>0</v>
@@ -1058,17 +899,8 @@
       <c r="J15">
         <v>0</v>
       </c>
-      <c r="K15">
-        <v>82.52442464790573</v>
-      </c>
       <c r="L15">
-        <v>5.87697582330228</v>
-      </c>
-      <c r="M15">
-        <v>0</v>
-      </c>
-      <c r="N15">
-        <v>10.09598749315173</v>
+        <v>7.049318550892574</v>
       </c>
       <c r="O15">
         <v>0</v>
@@ -1078,26 +910,23 @@
       <c r="A16" s="1">
         <v>14</v>
       </c>
-      <c r="B16">
-        <v>0</v>
-      </c>
       <c r="C16">
-        <v>12.83041648316236</v>
+        <v>16.08781331737259</v>
       </c>
       <c r="D16">
-        <v>15.12379947740416</v>
+        <v>11.70748119735365</v>
       </c>
       <c r="E16">
-        <v>11.80138052089136</v>
+        <v>14.58847532772286</v>
       </c>
       <c r="F16">
-        <v>90.60365331849471</v>
+        <v>84.98483036516434</v>
       </c>
       <c r="G16">
-        <v>1.847505518983778</v>
+        <v>139.3021299907052</v>
       </c>
       <c r="H16">
-        <v>0</v>
+        <v>34.71722276332191</v>
       </c>
       <c r="I16">
         <v>0</v>
@@ -1105,17 +934,8 @@
       <c r="J16">
         <v>0</v>
       </c>
-      <c r="K16">
-        <v>82.52442464790573</v>
-      </c>
       <c r="L16">
-        <v>5.87697582330228</v>
-      </c>
-      <c r="M16">
-        <v>0</v>
-      </c>
-      <c r="N16">
-        <v>10.09598749315173</v>
+        <v>6.751533676768949</v>
       </c>
       <c r="O16">
         <v>0</v>
@@ -1125,26 +945,23 @@
       <c r="A17" s="1">
         <v>15</v>
       </c>
-      <c r="B17">
-        <v>0</v>
-      </c>
       <c r="C17">
-        <v>12.83041648316236</v>
+        <v>15.64210478513951</v>
       </c>
       <c r="D17">
-        <v>15.12379947740416</v>
+        <v>11.32459882957649</v>
       </c>
       <c r="E17">
-        <v>11.80138052089136</v>
+        <v>14.2059293289629</v>
       </c>
       <c r="F17">
-        <v>90.60365331849471</v>
+        <v>82.35652158760386</v>
       </c>
       <c r="G17">
-        <v>1.847505518983778</v>
+        <v>134.9784831788237</v>
       </c>
       <c r="H17">
-        <v>0</v>
+        <v>33.64331576742107</v>
       </c>
       <c r="I17">
         <v>0</v>
@@ -1152,17 +969,8 @@
       <c r="J17">
         <v>0</v>
       </c>
-      <c r="K17">
-        <v>82.52442464790573</v>
-      </c>
       <c r="L17">
-        <v>5.87697582330228</v>
-      </c>
-      <c r="M17">
-        <v>0</v>
-      </c>
-      <c r="N17">
-        <v>10.09598749315173</v>
+        <v>6.634575787333798</v>
       </c>
       <c r="O17">
         <v>0</v>
@@ -1172,26 +980,23 @@
       <c r="A18" s="1">
         <v>16</v>
       </c>
-      <c r="B18">
-        <v>0</v>
-      </c>
       <c r="C18">
-        <v>12.83041648316236</v>
+        <v>15.39203306069019</v>
       </c>
       <c r="D18">
-        <v>15.12379947740416</v>
+        <v>11.10907053439187</v>
       </c>
       <c r="E18">
-        <v>11.80138052089136</v>
+        <v>13.99203043155164</v>
       </c>
       <c r="F18">
-        <v>90.60365331849471</v>
+        <v>80.87254476492342</v>
       </c>
       <c r="G18">
-        <v>1.847505518983778</v>
+        <v>132.5379880899501</v>
       </c>
       <c r="H18">
-        <v>0</v>
+        <v>33.03728589689698</v>
       </c>
       <c r="I18">
         <v>0</v>
@@ -1199,17 +1004,8 @@
       <c r="J18">
         <v>0</v>
       </c>
-      <c r="K18">
-        <v>82.52442464790573</v>
-      </c>
       <c r="L18">
-        <v>5.87697582330228</v>
-      </c>
-      <c r="M18">
-        <v>0</v>
-      </c>
-      <c r="N18">
-        <v>10.09598749315173</v>
+        <v>6.570264903240878</v>
       </c>
       <c r="O18">
         <v>0</v>
@@ -1219,26 +1015,23 @@
       <c r="A19" s="1">
         <v>17</v>
       </c>
-      <c r="B19">
-        <v>0</v>
-      </c>
       <c r="C19">
-        <v>12.83041648316236</v>
+        <v>15.30830336292534</v>
       </c>
       <c r="D19">
-        <v>15.12379947740416</v>
+        <v>11.03677521299695</v>
       </c>
       <c r="E19">
-        <v>11.80138052089136</v>
+        <v>13.92053434283513</v>
       </c>
       <c r="F19">
-        <v>90.60365331849471</v>
+        <v>80.37409218817936</v>
       </c>
       <c r="G19">
-        <v>1.847505518983778</v>
+        <v>131.7183581951484</v>
       </c>
       <c r="H19">
-        <v>0</v>
+        <v>32.83377726200164</v>
       </c>
       <c r="I19">
         <v>0</v>
@@ -1246,17 +1039,8 @@
       <c r="J19">
         <v>0</v>
       </c>
-      <c r="K19">
-        <v>82.52442464790573</v>
-      </c>
       <c r="L19">
-        <v>5.87697582330228</v>
-      </c>
-      <c r="M19">
-        <v>0</v>
-      </c>
-      <c r="N19">
-        <v>10.09598749315173</v>
+        <v>6.548948563201845</v>
       </c>
       <c r="O19">
         <v>0</v>
@@ -1266,26 +1050,23 @@
       <c r="A20" s="1">
         <v>18</v>
       </c>
-      <c r="B20">
-        <v>0</v>
-      </c>
       <c r="C20">
-        <v>12.83041648316236</v>
+        <v>15.68886528146674</v>
       </c>
       <c r="D20">
-        <v>15.12379947740416</v>
+        <v>11.36483926908357</v>
       </c>
       <c r="E20">
-        <v>11.80138052089136</v>
+        <v>14.24598553643663</v>
       </c>
       <c r="F20">
-        <v>90.60365331849471</v>
+        <v>82.63324314220095</v>
       </c>
       <c r="G20">
-        <v>1.847505518983778</v>
+        <v>135.4336235439581</v>
       </c>
       <c r="H20">
-        <v>0</v>
+        <v>33.75634885360368</v>
       </c>
       <c r="I20">
         <v>0</v>
@@ -1293,17 +1074,8 @@
       <c r="J20">
         <v>0</v>
       </c>
-      <c r="K20">
-        <v>82.52442464790573</v>
-      </c>
       <c r="L20">
-        <v>5.87697582330228</v>
-      </c>
-      <c r="M20">
-        <v>0</v>
-      </c>
-      <c r="N20">
-        <v>10.09598749315173</v>
+        <v>6.646707168263122</v>
       </c>
       <c r="O20">
         <v>0</v>
@@ -1313,26 +1085,23 @@
       <c r="A21" s="1">
         <v>19</v>
       </c>
-      <c r="B21">
-        <v>0</v>
-      </c>
       <c r="C21">
-        <v>12.83041648316236</v>
+        <v>17.066779252741</v>
       </c>
       <c r="D21">
-        <v>15.12379947740416</v>
+        <v>12.53564070667357</v>
       </c>
       <c r="E21">
-        <v>11.80138052089136</v>
+        <v>15.51342337209728</v>
       </c>
       <c r="F21">
-        <v>90.60365331849471</v>
+        <v>90.63034670873428</v>
       </c>
       <c r="G21">
-        <v>1.847505518983778</v>
+        <v>148.5949701092434</v>
       </c>
       <c r="H21">
-        <v>0</v>
+        <v>37.02634096763585</v>
       </c>
       <c r="I21">
         <v>0</v>
@@ -1340,17 +1109,8 @@
       <c r="J21">
         <v>0</v>
       </c>
-      <c r="K21">
-        <v>82.52442464790573</v>
-      </c>
       <c r="L21">
-        <v>5.87697582330228</v>
-      </c>
-      <c r="M21">
-        <v>0</v>
-      </c>
-      <c r="N21">
-        <v>10.09598749315173</v>
+        <v>7.141558118888831</v>
       </c>
       <c r="O21">
         <v>0</v>
@@ -1360,26 +1120,23 @@
       <c r="A22" s="1">
         <v>20</v>
       </c>
-      <c r="B22">
-        <v>0</v>
-      </c>
       <c r="C22">
-        <v>12.83041648316236</v>
+        <v>18.13451433483585</v>
       </c>
       <c r="D22">
-        <v>15.12379947740416</v>
+        <v>13.39095141314688</v>
       </c>
       <c r="E22">
-        <v>11.80138052089136</v>
+        <v>16.51914288164891</v>
       </c>
       <c r="F22">
-        <v>90.60365331849471</v>
+        <v>96.39448158470594</v>
       </c>
       <c r="G22">
-        <v>1.847505518983778</v>
+        <v>158.0924080398445</v>
       </c>
       <c r="H22">
-        <v>0</v>
+        <v>39.38747059913963</v>
       </c>
       <c r="I22">
         <v>0</v>
@@ -1387,17 +1144,8 @@
       <c r="J22">
         <v>0</v>
       </c>
-      <c r="K22">
-        <v>82.52442464790573</v>
-      </c>
       <c r="L22">
-        <v>5.87697582330228</v>
-      </c>
-      <c r="M22">
-        <v>0</v>
-      </c>
-      <c r="N22">
-        <v>10.09598749315173</v>
+        <v>7.588145303134707</v>
       </c>
       <c r="O22">
         <v>0</v>
@@ -1407,26 +1155,23 @@
       <c r="A23" s="1">
         <v>21</v>
       </c>
-      <c r="B23">
-        <v>0</v>
-      </c>
       <c r="C23">
-        <v>12.83041648316236</v>
+        <v>17.55074974125556</v>
       </c>
       <c r="D23">
-        <v>15.12379947740416</v>
+        <v>12.92257617132391</v>
       </c>
       <c r="E23">
-        <v>11.80138052089136</v>
+        <v>15.96951844163419</v>
       </c>
       <c r="F23">
-        <v>90.60365331849471</v>
+        <v>93.24711202565797</v>
       </c>
       <c r="G23">
-        <v>1.847505518983778</v>
+        <v>152.9052897227085</v>
       </c>
       <c r="H23">
-        <v>0</v>
+        <v>38.0977818596042</v>
       </c>
       <c r="I23">
         <v>0</v>
@@ -1434,17 +1179,8 @@
       <c r="J23">
         <v>0</v>
       </c>
-      <c r="K23">
-        <v>82.52442464790573</v>
-      </c>
       <c r="L23">
-        <v>5.87697582330228</v>
-      </c>
-      <c r="M23">
-        <v>0</v>
-      </c>
-      <c r="N23">
-        <v>10.09598749315173</v>
+        <v>7.344129268025592</v>
       </c>
       <c r="O23">
         <v>0</v>
@@ -1454,26 +1190,23 @@
       <c r="A24" s="1">
         <v>22</v>
       </c>
-      <c r="B24">
-        <v>0</v>
-      </c>
       <c r="C24">
-        <v>12.83041648316236</v>
+        <v>15.66770606430068</v>
       </c>
       <c r="D24">
-        <v>15.12379947740416</v>
+        <v>11.34663264058792</v>
       </c>
       <c r="E24">
-        <v>11.80138052089136</v>
+        <v>14.22785772535641</v>
       </c>
       <c r="F24">
-        <v>90.60365331849471</v>
+        <v>82.50805534986023</v>
       </c>
       <c r="G24">
-        <v>1.847505518983778</v>
+        <v>135.2277176172844</v>
       </c>
       <c r="H24">
-        <v>0</v>
+        <v>33.70521214092976</v>
       </c>
       <c r="I24">
         <v>0</v>
@@ -1481,17 +1214,8 @@
       <c r="J24">
         <v>0</v>
       </c>
-      <c r="K24">
-        <v>82.52442464790573</v>
-      </c>
       <c r="L24">
-        <v>5.87697582330228</v>
-      </c>
-      <c r="M24">
-        <v>0</v>
-      </c>
-      <c r="N24">
-        <v>10.09598749315173</v>
+        <v>6.64121359850325</v>
       </c>
       <c r="O24">
         <v>0</v>
@@ -1501,26 +1225,23 @@
       <c r="A25" s="1">
         <v>23</v>
       </c>
-      <c r="B25">
-        <v>0</v>
-      </c>
       <c r="C25">
-        <v>12.83041648316236</v>
+        <v>13.92125908284351</v>
       </c>
       <c r="D25">
-        <v>15.12379947740416</v>
+        <v>9.826181414635775</v>
       </c>
       <c r="E25">
-        <v>11.80138052089136</v>
+        <v>12.74588133509566</v>
       </c>
       <c r="F25">
-        <v>90.60365331849471</v>
+        <v>71.98429066613855</v>
       </c>
       <c r="G25">
-        <v>1.847505518983778</v>
+        <v>117.9300011354997</v>
       </c>
       <c r="H25">
-        <v>0</v>
+        <v>29.41227406259769</v>
       </c>
       <c r="I25">
         <v>0</v>
@@ -1528,17 +1249,8 @@
       <c r="J25">
         <v>0</v>
       </c>
-      <c r="K25">
-        <v>82.52442464790573</v>
-      </c>
       <c r="L25">
-        <v>5.87697582330228</v>
-      </c>
-      <c r="M25">
-        <v>0</v>
-      </c>
-      <c r="N25">
-        <v>10.09598749315173</v>
+        <v>6.212709881863916</v>
       </c>
       <c r="O25">
         <v>0</v>

--- a/Code/Results/Cases/Case_0_48/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_0_48/res_line/loading_percent.xlsx
@@ -421,22 +421,22 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>12.7222210840583</v>
+        <v>13.5590018579668</v>
       </c>
       <c r="D2">
-        <v>8.762240179790453</v>
+        <v>8.66842573984802</v>
       </c>
       <c r="E2">
-        <v>11.74778410646728</v>
+        <v>13.94350578747537</v>
       </c>
       <c r="F2">
-        <v>64.47577641397346</v>
+        <v>47.90768081590532</v>
       </c>
       <c r="G2">
-        <v>105.6003354377625</v>
+        <v>72.18944697254683</v>
       </c>
       <c r="H2">
-        <v>26.35683803399978</v>
+        <v>23.23254646083079</v>
       </c>
       <c r="I2">
         <v>0</v>
@@ -445,7 +445,7 @@
         <v>0</v>
       </c>
       <c r="L2">
-        <v>5.950764977806487</v>
+        <v>9.315572113616827</v>
       </c>
       <c r="O2">
         <v>0</v>
@@ -456,22 +456,22 @@
         <v>1</v>
       </c>
       <c r="C3">
-        <v>11.93633767809055</v>
+        <v>13.48162486905052</v>
       </c>
       <c r="D3">
-        <v>8.171722242817648</v>
+        <v>8.600279589338236</v>
       </c>
       <c r="E3">
-        <v>11.104571323516</v>
+        <v>13.90519190635674</v>
       </c>
       <c r="F3">
-        <v>59.37462419303091</v>
+        <v>46.83405872097015</v>
       </c>
       <c r="G3">
-        <v>97.22845483906167</v>
+        <v>70.09032292907315</v>
       </c>
       <c r="H3">
-        <v>24.2851717272203</v>
+        <v>22.94706004378689</v>
       </c>
       <c r="I3">
         <v>0</v>
@@ -480,7 +480,7 @@
         <v>0</v>
       </c>
       <c r="L3">
-        <v>5.795965607072183</v>
+        <v>9.332952975339452</v>
       </c>
       <c r="O3">
         <v>0</v>
@@ -491,22 +491,22 @@
         <v>2</v>
       </c>
       <c r="C4">
-        <v>11.46201835250374</v>
+        <v>13.43837151218974</v>
       </c>
       <c r="D4">
-        <v>7.814809218707162</v>
+        <v>8.561283301186164</v>
       </c>
       <c r="E4">
-        <v>10.72147426572521</v>
+        <v>13.88584101810896</v>
       </c>
       <c r="F4">
-        <v>56.2042113655634</v>
+        <v>46.18252198220114</v>
       </c>
       <c r="G4">
-        <v>92.02693656219331</v>
+        <v>68.80107669441701</v>
       </c>
       <c r="H4">
-        <v>22.99958896977554</v>
+        <v>22.77866971492658</v>
       </c>
       <c r="I4">
         <v>0</v>
@@ -515,7 +515,7 @@
         <v>0</v>
       </c>
       <c r="L4">
-        <v>5.709915646719364</v>
+        <v>9.345659042175319</v>
       </c>
       <c r="O4">
         <v>0</v>
@@ -526,22 +526,22 @@
         <v>3</v>
       </c>
       <c r="C5">
-        <v>11.2703229406963</v>
+        <v>13.42182111909213</v>
       </c>
       <c r="D5">
-        <v>7.670369036297836</v>
+        <v>8.546115299029161</v>
       </c>
       <c r="E5">
-        <v>10.56789044068379</v>
+        <v>13.87900244070492</v>
       </c>
       <c r="F5">
-        <v>54.89922318135718</v>
+        <v>45.919327259825</v>
       </c>
       <c r="G5">
-        <v>89.88626376907519</v>
+        <v>68.27646305094007</v>
       </c>
       <c r="H5">
-        <v>22.51274245087382</v>
+        <v>22.71184656557455</v>
       </c>
       <c r="I5">
         <v>0</v>
@@ -550,7 +550,7 @@
         <v>0</v>
       </c>
       <c r="L5">
-        <v>5.676860700250531</v>
+        <v>9.351345800526987</v>
       </c>
       <c r="O5">
         <v>0</v>
@@ -561,22 +561,22 @@
         <v>4</v>
       </c>
       <c r="C6">
-        <v>11.23857804876103</v>
+        <v>13.41913803068599</v>
       </c>
       <c r="D6">
-        <v>7.646436212017379</v>
+        <v>8.543640545595236</v>
       </c>
       <c r="E6">
-        <v>10.54253080481931</v>
+        <v>13.87793004497133</v>
       </c>
       <c r="F6">
-        <v>54.68166415721461</v>
+        <v>45.87577481330169</v>
       </c>
       <c r="G6">
-        <v>89.53125297740816</v>
+        <v>68.18942332164059</v>
       </c>
       <c r="H6">
-        <v>22.43724780873297</v>
+        <v>22.70086091555671</v>
       </c>
       <c r="I6">
         <v>0</v>
@@ -585,7 +585,7 @@
         <v>0</v>
       </c>
       <c r="L6">
-        <v>5.671487024505748</v>
+        <v>9.352320744637487</v>
       </c>
       <c r="O6">
         <v>0</v>
@@ -596,22 +596,22 @@
         <v>5</v>
       </c>
       <c r="C7">
-        <v>11.45942711565536</v>
+        <v>13.43814394651767</v>
       </c>
       <c r="D7">
-        <v>7.812857620408076</v>
+        <v>8.561075802476163</v>
       </c>
       <c r="E7">
-        <v>10.71939320412628</v>
+        <v>13.88574455525294</v>
       </c>
       <c r="F7">
-        <v>56.1866683107533</v>
+        <v>46.17896257887733</v>
       </c>
       <c r="G7">
-        <v>91.99815802223409</v>
+        <v>68.7939973141853</v>
       </c>
       <c r="H7">
-        <v>22.99248002840917</v>
+        <v>22.77776115841676</v>
       </c>
       <c r="I7">
         <v>0</v>
@@ -620,7 +620,7 @@
         <v>0</v>
       </c>
       <c r="L7">
-        <v>5.709462008056956</v>
+        <v>9.345733678552911</v>
       </c>
       <c r="O7">
         <v>0</v>
@@ -631,22 +631,22 @@
         <v>6</v>
       </c>
       <c r="C8">
-        <v>12.44919296371279</v>
+        <v>13.5314426164512</v>
       </c>
       <c r="D8">
-        <v>8.557145527181298</v>
+        <v>8.644343395871873</v>
       </c>
       <c r="E8">
-        <v>11.52322303684951</v>
+        <v>13.9294276621912</v>
       </c>
       <c r="F8">
-        <v>62.72245897863195</v>
+        <v>47.53613242312501</v>
       </c>
       <c r="G8">
-        <v>102.7224398615894</v>
+        <v>71.46625081769692</v>
       </c>
       <c r="H8">
-        <v>25.64437482072963</v>
+        <v>23.13271749797993</v>
       </c>
       <c r="I8">
         <v>0</v>
@@ -655,7 +655,7 @@
         <v>0</v>
       </c>
       <c r="L8">
-        <v>5.895353007277645</v>
+        <v>9.321141313725871</v>
       </c>
       <c r="O8">
         <v>0</v>
@@ -666,22 +666,22 @@
         <v>7</v>
       </c>
       <c r="C9">
-        <v>14.49090302633392</v>
+        <v>13.74785763166729</v>
       </c>
       <c r="D9">
-        <v>10.32675562547808</v>
+        <v>8.829803992955956</v>
       </c>
       <c r="E9">
-        <v>13.22596859749889</v>
+        <v>14.04827398022687</v>
       </c>
       <c r="F9">
-        <v>75.46241305028771</v>
+        <v>50.24183648997303</v>
       </c>
       <c r="G9">
-        <v>123.6445611263151</v>
+        <v>76.66788407378242</v>
       </c>
       <c r="H9">
-        <v>30.82980666829991</v>
+        <v>23.88059320178689</v>
       </c>
       <c r="I9">
         <v>0</v>
@@ -690,7 +690,7 @@
         <v>0</v>
       </c>
       <c r="L9">
-        <v>6.346807489612099</v>
+        <v>9.289170125078387</v>
       </c>
       <c r="O9">
         <v>0</v>
@@ -701,22 +701,22 @@
         <v>8</v>
       </c>
       <c r="C10">
-        <v>16.13964481539011</v>
+        <v>13.92672314136436</v>
       </c>
       <c r="D10">
-        <v>11.75191728736082</v>
+        <v>8.978948137811127</v>
       </c>
       <c r="E10">
-        <v>14.63306712329343</v>
+        <v>14.15584331716707</v>
       </c>
       <c r="F10">
-        <v>85.28916543592968</v>
+        <v>52.23522371739963</v>
       </c>
       <c r="G10">
-        <v>139.8028755746822</v>
+        <v>80.42167366441141</v>
       </c>
       <c r="H10">
-        <v>34.84161738958295</v>
+        <v>24.45749077919983</v>
       </c>
       <c r="I10">
         <v>0</v>
@@ -725,7 +725,7 @@
         <v>0</v>
       </c>
       <c r="L10">
-        <v>6.765323881085354</v>
+        <v>9.275745737809846</v>
       </c>
       <c r="O10">
         <v>0</v>
@@ -736,22 +736,22 @@
         <v>9</v>
       </c>
       <c r="C11">
-        <v>16.96648556884399</v>
+        <v>14.01226241521004</v>
       </c>
       <c r="D11">
-        <v>12.45558581705484</v>
+        <v>9.049437807733074</v>
       </c>
       <c r="E11">
-        <v>15.41884713900196</v>
+        <v>14.20915972431975</v>
       </c>
       <c r="F11">
-        <v>90.08719210568637</v>
+        <v>53.13899742026928</v>
       </c>
       <c r="G11">
-        <v>147.7005371043363</v>
+        <v>82.10636623692774</v>
       </c>
       <c r="H11">
-        <v>36.80403649220451</v>
+        <v>24.72496789563619</v>
       </c>
       <c r="I11">
         <v>0</v>
@@ -760,7 +760,7 @@
         <v>0</v>
       </c>
       <c r="L11">
-        <v>7.09954072312798</v>
+        <v>9.271856640215638</v>
       </c>
       <c r="O11">
         <v>0</v>
@@ -771,22 +771,22 @@
         <v>10</v>
       </c>
       <c r="C12">
-        <v>17.31781982084669</v>
+        <v>14.04523948718304</v>
       </c>
       <c r="D12">
-        <v>12.73621080238632</v>
+        <v>9.076495748221754</v>
       </c>
       <c r="E12">
-        <v>15.75006048756276</v>
+        <v>14.22997613552084</v>
       </c>
       <c r="F12">
-        <v>91.98855656812744</v>
+        <v>53.48046691368543</v>
       </c>
       <c r="G12">
-        <v>150.8319534514794</v>
+        <v>82.7404083124986</v>
       </c>
       <c r="H12">
-        <v>37.58237156926076</v>
+        <v>24.82690076231398</v>
       </c>
       <c r="I12">
         <v>0</v>
@@ -795,7 +795,7 @@
         <v>0</v>
       </c>
       <c r="L12">
-        <v>7.246669801122533</v>
+        <v>9.270705393871175</v>
       </c>
       <c r="O12">
         <v>0</v>
@@ -806,22 +806,22 @@
         <v>11</v>
       </c>
       <c r="C13">
-        <v>17.24123182094339</v>
+        <v>14.03811150536218</v>
       </c>
       <c r="D13">
-        <v>12.67499057222895</v>
+        <v>9.07065234905172</v>
       </c>
       <c r="E13">
-        <v>15.67788012839326</v>
+        <v>14.22546514605385</v>
       </c>
       <c r="F13">
-        <v>91.57439118740555</v>
+        <v>53.40696469294073</v>
       </c>
       <c r="G13">
-        <v>150.1497629152516</v>
+        <v>82.60403931071522</v>
       </c>
       <c r="H13">
-        <v>37.41279766474159</v>
+        <v>24.80492027918245</v>
       </c>
       <c r="I13">
         <v>0</v>
@@ -830,7 +830,7 @@
         <v>0</v>
       </c>
       <c r="L13">
-        <v>7.214610783085446</v>
+        <v>9.270938997608484</v>
       </c>
       <c r="O13">
         <v>0</v>
@@ -841,22 +841,22 @@
         <v>12</v>
       </c>
       <c r="C14">
-        <v>16.99499294771643</v>
+        <v>14.01496381920992</v>
       </c>
       <c r="D14">
-        <v>12.47833641173318</v>
+        <v>9.051656653789767</v>
       </c>
       <c r="E14">
-        <v>15.44573164475645</v>
+        <v>14.21085976804011</v>
       </c>
       <c r="F14">
-        <v>90.24160922391452</v>
+        <v>53.16710759304129</v>
       </c>
       <c r="G14">
-        <v>147.954813132814</v>
+        <v>82.1586110395157</v>
       </c>
       <c r="H14">
-        <v>36.86723377553393</v>
+        <v>24.73334150394952</v>
       </c>
       <c r="I14">
         <v>0</v>
@@ -865,7 +865,7 @@
         <v>0</v>
       </c>
       <c r="L14">
-        <v>7.111485180552307</v>
+        <v>9.27175546923584</v>
       </c>
       <c r="O14">
         <v>0</v>
@@ -876,22 +876,22 @@
         <v>13</v>
       </c>
       <c r="C15">
-        <v>16.85053986441879</v>
+        <v>14.00086094517326</v>
       </c>
       <c r="D15">
-        <v>12.35998742453014</v>
+        <v>9.040068320617999</v>
       </c>
       <c r="E15">
-        <v>15.30581709638714</v>
+        <v>14.20199503714001</v>
       </c>
       <c r="F15">
-        <v>89.43781991031238</v>
+        <v>53.02007835300724</v>
       </c>
       <c r="G15">
-        <v>146.6312993605273</v>
+        <v>81.88524626135934</v>
       </c>
       <c r="H15">
-        <v>36.53829964256003</v>
+        <v>24.68957907039977</v>
       </c>
       <c r="I15">
         <v>0</v>
@@ -900,7 +900,7 @@
         <v>0</v>
       </c>
       <c r="L15">
-        <v>7.049318550892574</v>
+        <v>9.272297521850438</v>
       </c>
       <c r="O15">
         <v>0</v>
@@ -911,22 +911,22 @@
         <v>14</v>
       </c>
       <c r="C16">
-        <v>16.08781331737259</v>
+        <v>13.92121567229268</v>
       </c>
       <c r="D16">
-        <v>11.70748119735365</v>
+        <v>8.974393390303426</v>
       </c>
       <c r="E16">
-        <v>14.58847532772286</v>
+        <v>14.15244687154581</v>
       </c>
       <c r="F16">
-        <v>84.98483036516434</v>
+        <v>52.17606996575419</v>
       </c>
       <c r="G16">
-        <v>139.3021299907052</v>
+        <v>80.31105956290951</v>
       </c>
       <c r="H16">
-        <v>34.71722276332191</v>
+        <v>24.44010515494604</v>
       </c>
       <c r="I16">
         <v>0</v>
@@ -935,7 +935,7 @@
         <v>0</v>
       </c>
       <c r="L16">
-        <v>6.751533676768949</v>
+        <v>9.276044746176842</v>
       </c>
       <c r="O16">
         <v>0</v>
@@ -946,22 +946,22 @@
         <v>15</v>
       </c>
       <c r="C17">
-        <v>15.64210478513951</v>
+        <v>13.87341440701768</v>
       </c>
       <c r="D17">
-        <v>11.32459882957649</v>
+        <v>8.934770471476696</v>
       </c>
       <c r="E17">
-        <v>14.2059293289629</v>
+        <v>14.12317094580968</v>
       </c>
       <c r="F17">
-        <v>82.35652158760386</v>
+        <v>51.65727789742854</v>
       </c>
       <c r="G17">
-        <v>134.9784831788237</v>
+        <v>79.33901692144765</v>
       </c>
       <c r="H17">
-        <v>33.64331576742107</v>
+        <v>24.2882957251424</v>
       </c>
       <c r="I17">
         <v>0</v>
@@ -970,7 +970,7 @@
         <v>0</v>
       </c>
       <c r="L17">
-        <v>6.634575787333798</v>
+        <v>9.278913400493918</v>
       </c>
       <c r="O17">
         <v>0</v>
@@ -981,22 +981,22 @@
         <v>16</v>
       </c>
       <c r="C18">
-        <v>15.39203306069019</v>
+        <v>13.84631408193695</v>
       </c>
       <c r="D18">
-        <v>11.10907053439187</v>
+        <v>8.912230166716553</v>
       </c>
       <c r="E18">
-        <v>13.99203043155164</v>
+        <v>14.10674499607133</v>
       </c>
       <c r="F18">
-        <v>80.87254476492342</v>
+        <v>51.35861612822432</v>
       </c>
       <c r="G18">
-        <v>132.5379880899501</v>
+        <v>78.77779905419067</v>
       </c>
       <c r="H18">
-        <v>33.03728589689698</v>
+        <v>24.20145849695755</v>
       </c>
       <c r="I18">
         <v>0</v>
@@ -1005,7 +1005,7 @@
         <v>0</v>
       </c>
       <c r="L18">
-        <v>6.570264903240878</v>
+        <v>9.280771967287345</v>
       </c>
       <c r="O18">
         <v>0</v>
@@ -1016,22 +1016,22 @@
         <v>17</v>
       </c>
       <c r="C19">
-        <v>15.30830336292534</v>
+        <v>13.8372064263959</v>
       </c>
       <c r="D19">
-        <v>11.03677521299695</v>
+        <v>8.904641748294518</v>
       </c>
       <c r="E19">
-        <v>13.92053434283513</v>
+        <v>14.10125444054169</v>
       </c>
       <c r="F19">
-        <v>80.37409218817936</v>
+        <v>51.25745918716842</v>
       </c>
       <c r="G19">
-        <v>131.7183581951484</v>
+        <v>78.58743521373246</v>
       </c>
       <c r="H19">
-        <v>32.83377726200164</v>
+        <v>24.17214170793601</v>
       </c>
       <c r="I19">
         <v>0</v>
@@ -1040,7 +1040,7 @@
         <v>0</v>
       </c>
       <c r="L19">
-        <v>6.548948563201845</v>
+        <v>9.281436993052388</v>
       </c>
       <c r="O19">
         <v>0</v>
@@ -1051,22 +1051,22 @@
         <v>18</v>
       </c>
       <c r="C20">
-        <v>15.68886528146674</v>
+        <v>13.87846229037153</v>
       </c>
       <c r="D20">
-        <v>11.36483926908357</v>
+        <v>8.938962657424446</v>
       </c>
       <c r="E20">
-        <v>14.24598553643663</v>
+        <v>14.12624471867986</v>
       </c>
       <c r="F20">
-        <v>82.63324314220095</v>
+        <v>51.71253424990164</v>
       </c>
       <c r="G20">
-        <v>135.4336235439581</v>
+        <v>79.4427170769869</v>
       </c>
       <c r="H20">
-        <v>33.75634885360368</v>
+        <v>24.30440704848565</v>
       </c>
       <c r="I20">
         <v>0</v>
@@ -1075,7 +1075,7 @@
         <v>0</v>
       </c>
       <c r="L20">
-        <v>6.646707168263122</v>
+        <v>9.278586420053388</v>
       </c>
       <c r="O20">
         <v>0</v>
@@ -1086,22 +1086,22 @@
         <v>19</v>
       </c>
       <c r="C21">
-        <v>17.066779252741</v>
+        <v>14.02174709709882</v>
       </c>
       <c r="D21">
-        <v>12.53564070667357</v>
+        <v>9.057226366662128</v>
       </c>
       <c r="E21">
-        <v>15.51342337209728</v>
+        <v>14.21513274800001</v>
       </c>
       <c r="F21">
-        <v>90.63034670873428</v>
+        <v>53.23758289492716</v>
       </c>
       <c r="G21">
-        <v>148.5949701092434</v>
+        <v>82.28955498714295</v>
       </c>
       <c r="H21">
-        <v>37.02634096763585</v>
+        <v>24.75434905562847</v>
       </c>
       <c r="I21">
         <v>0</v>
@@ -1110,7 +1110,7 @@
         <v>0</v>
       </c>
       <c r="L21">
-        <v>7.141558118888831</v>
+        <v>9.271506906930957</v>
       </c>
       <c r="O21">
         <v>0</v>
@@ -1121,22 +1121,22 @@
         <v>20</v>
       </c>
       <c r="C22">
-        <v>18.13451433483585</v>
+        <v>14.11879537796623</v>
       </c>
       <c r="D22">
-        <v>13.39095141314688</v>
+        <v>9.136638772420222</v>
       </c>
       <c r="E22">
-        <v>16.51914288164891</v>
+        <v>14.27687643601528</v>
       </c>
       <c r="F22">
-        <v>96.39448158470594</v>
+        <v>54.22966244685193</v>
       </c>
       <c r="G22">
-        <v>158.0924080398445</v>
+        <v>84.12706683342132</v>
       </c>
       <c r="H22">
-        <v>39.38747059913963</v>
+        <v>25.05213535015071</v>
       </c>
       <c r="I22">
         <v>0</v>
@@ -1145,7 +1145,7 @@
         <v>0</v>
       </c>
       <c r="L22">
-        <v>7.588145303134707</v>
+        <v>9.26875496511806</v>
       </c>
       <c r="O22">
         <v>0</v>
@@ -1156,22 +1156,22 @@
         <v>21</v>
       </c>
       <c r="C23">
-        <v>17.55074974125556</v>
+        <v>14.06669265417337</v>
       </c>
       <c r="D23">
-        <v>12.92257617132391</v>
+        <v>9.094066027348594</v>
       </c>
       <c r="E23">
-        <v>15.96951844163419</v>
+        <v>14.2435901042033</v>
       </c>
       <c r="F23">
-        <v>93.24711202565797</v>
+        <v>53.70069930277461</v>
       </c>
       <c r="G23">
-        <v>152.9052897227085</v>
+        <v>83.14865113589346</v>
       </c>
       <c r="H23">
-        <v>38.0977818596042</v>
+        <v>24.89288692482673</v>
       </c>
       <c r="I23">
         <v>0</v>
@@ -1180,7 +1180,7 @@
         <v>0</v>
       </c>
       <c r="L23">
-        <v>7.344129268025592</v>
+        <v>9.270051338267365</v>
       </c>
       <c r="O23">
         <v>0</v>
@@ -1191,22 +1191,22 @@
         <v>22</v>
       </c>
       <c r="C24">
-        <v>15.66770606430068</v>
+        <v>13.876178953662</v>
       </c>
       <c r="D24">
-        <v>11.34663264058792</v>
+        <v>8.937066623223808</v>
       </c>
       <c r="E24">
-        <v>14.22785772535641</v>
+        <v>14.12485380369222</v>
       </c>
       <c r="F24">
-        <v>82.50805534986023</v>
+        <v>51.68755407727876</v>
       </c>
       <c r="G24">
-        <v>135.2277176172844</v>
+        <v>79.39584159484076</v>
       </c>
       <c r="H24">
-        <v>33.70521214092976</v>
+        <v>24.29712174250689</v>
       </c>
       <c r="I24">
         <v>0</v>
@@ -1215,7 +1215,7 @@
         <v>0</v>
       </c>
       <c r="L24">
-        <v>6.64121359850325</v>
+        <v>9.27873359606016</v>
       </c>
       <c r="O24">
         <v>0</v>
@@ -1226,22 +1226,22 @@
         <v>23</v>
       </c>
       <c r="C25">
-        <v>13.92125908284351</v>
+        <v>13.68577831548531</v>
       </c>
       <c r="D25">
-        <v>9.826181414635775</v>
+        <v>8.777318547159329</v>
       </c>
       <c r="E25">
-        <v>12.74588133509566</v>
+        <v>14.01256355229882</v>
       </c>
       <c r="F25">
-        <v>71.98429066613855</v>
+        <v>49.50739887925343</v>
       </c>
       <c r="G25">
-        <v>117.9300011354997</v>
+        <v>75.26962022524258</v>
       </c>
       <c r="H25">
-        <v>29.41227406259769</v>
+        <v>23.67314524421309</v>
       </c>
       <c r="I25">
         <v>0</v>
@@ -1250,7 +1250,7 @@
         <v>0</v>
       </c>
       <c r="L25">
-        <v>6.212709881863916</v>
+        <v>9.296062750898884</v>
       </c>
       <c r="O25">
         <v>0</v>

--- a/Code/Results/Cases/Case_0_48/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_0_48/res_line/loading_percent.xlsx
@@ -421,22 +421,22 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>13.5590018579668</v>
+        <v>12.72222108405832</v>
       </c>
       <c r="D2">
-        <v>8.66842573984802</v>
+        <v>8.762240179790471</v>
       </c>
       <c r="E2">
-        <v>13.94350578747537</v>
+        <v>11.74778410646733</v>
       </c>
       <c r="F2">
-        <v>47.90768081590532</v>
+        <v>64.47577641397379</v>
       </c>
       <c r="G2">
-        <v>72.18944697254683</v>
+        <v>105.6003354377631</v>
       </c>
       <c r="H2">
-        <v>23.23254646083079</v>
+        <v>26.35683803399991</v>
       </c>
       <c r="I2">
         <v>0</v>
@@ -445,7 +445,7 @@
         <v>0</v>
       </c>
       <c r="L2">
-        <v>9.315572113616827</v>
+        <v>5.950764977806477</v>
       </c>
       <c r="O2">
         <v>0</v>
@@ -456,22 +456,22 @@
         <v>1</v>
       </c>
       <c r="C3">
-        <v>13.48162486905052</v>
+        <v>11.93633767809051</v>
       </c>
       <c r="D3">
-        <v>8.600279589338236</v>
+        <v>8.171722242817658</v>
       </c>
       <c r="E3">
-        <v>13.90519190635674</v>
+        <v>11.10457132351598</v>
       </c>
       <c r="F3">
-        <v>46.83405872097015</v>
+        <v>59.37462419303088</v>
       </c>
       <c r="G3">
-        <v>70.09032292907315</v>
+        <v>97.22845483906163</v>
       </c>
       <c r="H3">
-        <v>22.94706004378689</v>
+        <v>24.2851717272203</v>
       </c>
       <c r="I3">
         <v>0</v>
@@ -480,7 +480,7 @@
         <v>0</v>
       </c>
       <c r="L3">
-        <v>9.332952975339452</v>
+        <v>5.795965607072191</v>
       </c>
       <c r="O3">
         <v>0</v>
@@ -491,22 +491,22 @@
         <v>2</v>
       </c>
       <c r="C4">
-        <v>13.43837151218974</v>
+        <v>11.46201835250366</v>
       </c>
       <c r="D4">
-        <v>8.561283301186164</v>
+        <v>7.814809218707156</v>
       </c>
       <c r="E4">
-        <v>13.88584101810896</v>
+        <v>10.72147426572518</v>
       </c>
       <c r="F4">
-        <v>46.18252198220114</v>
+        <v>56.2042113655633</v>
       </c>
       <c r="G4">
-        <v>68.80107669441701</v>
+        <v>92.0269365621931</v>
       </c>
       <c r="H4">
-        <v>22.77866971492658</v>
+        <v>22.99958896977547</v>
       </c>
       <c r="I4">
         <v>0</v>
@@ -515,7 +515,7 @@
         <v>0</v>
       </c>
       <c r="L4">
-        <v>9.345659042175319</v>
+        <v>5.709915646719341</v>
       </c>
       <c r="O4">
         <v>0</v>
@@ -526,22 +526,22 @@
         <v>3</v>
       </c>
       <c r="C5">
-        <v>13.42182111909213</v>
+        <v>11.27032294069629</v>
       </c>
       <c r="D5">
-        <v>8.546115299029161</v>
+        <v>7.670369036297798</v>
       </c>
       <c r="E5">
-        <v>13.87900244070492</v>
+        <v>10.56789044068376</v>
       </c>
       <c r="F5">
-        <v>45.919327259825</v>
+        <v>54.89922318135731</v>
       </c>
       <c r="G5">
-        <v>68.27646305094007</v>
+        <v>89.88626376907537</v>
       </c>
       <c r="H5">
-        <v>22.71184656557455</v>
+        <v>22.51274245087382</v>
       </c>
       <c r="I5">
         <v>0</v>
@@ -550,7 +550,7 @@
         <v>0</v>
       </c>
       <c r="L5">
-        <v>9.351345800526987</v>
+        <v>5.676860700250509</v>
       </c>
       <c r="O5">
         <v>0</v>
@@ -561,22 +561,22 @@
         <v>4</v>
       </c>
       <c r="C6">
-        <v>13.41913803068599</v>
+        <v>11.23857804876101</v>
       </c>
       <c r="D6">
-        <v>8.543640545595236</v>
+        <v>7.646436212017385</v>
       </c>
       <c r="E6">
-        <v>13.87793004497133</v>
+        <v>10.54253080481928</v>
       </c>
       <c r="F6">
-        <v>45.87577481330169</v>
+        <v>54.68166415721487</v>
       </c>
       <c r="G6">
-        <v>68.18942332164059</v>
+        <v>89.53125297740844</v>
       </c>
       <c r="H6">
-        <v>22.70086091555671</v>
+        <v>22.43724780873302</v>
       </c>
       <c r="I6">
         <v>0</v>
@@ -585,7 +585,7 @@
         <v>0</v>
       </c>
       <c r="L6">
-        <v>9.352320744637487</v>
+        <v>5.671487024505714</v>
       </c>
       <c r="O6">
         <v>0</v>
@@ -596,22 +596,22 @@
         <v>5</v>
       </c>
       <c r="C7">
-        <v>13.43814394651767</v>
+        <v>11.45942711565541</v>
       </c>
       <c r="D7">
-        <v>8.561075802476163</v>
+        <v>7.812857620408127</v>
       </c>
       <c r="E7">
-        <v>13.88574455525294</v>
+        <v>10.71939320412625</v>
       </c>
       <c r="F7">
-        <v>46.17896257887733</v>
+        <v>56.1866683107534</v>
       </c>
       <c r="G7">
-        <v>68.7939973141853</v>
+        <v>91.99815802223426</v>
       </c>
       <c r="H7">
-        <v>22.77776115841676</v>
+        <v>22.99248002840921</v>
       </c>
       <c r="I7">
         <v>0</v>
@@ -620,7 +620,7 @@
         <v>0</v>
       </c>
       <c r="L7">
-        <v>9.345733678552911</v>
+        <v>5.709462008056925</v>
       </c>
       <c r="O7">
         <v>0</v>
@@ -631,22 +631,22 @@
         <v>6</v>
       </c>
       <c r="C8">
-        <v>13.5314426164512</v>
+        <v>12.44919296371279</v>
       </c>
       <c r="D8">
-        <v>8.644343395871873</v>
+        <v>8.557145527181294</v>
       </c>
       <c r="E8">
-        <v>13.9294276621912</v>
+        <v>11.5232230368495</v>
       </c>
       <c r="F8">
-        <v>47.53613242312501</v>
+        <v>62.72245897863208</v>
       </c>
       <c r="G8">
-        <v>71.46625081769692</v>
+        <v>102.7224398615897</v>
       </c>
       <c r="H8">
-        <v>23.13271749797993</v>
+        <v>25.64437482072969</v>
       </c>
       <c r="I8">
         <v>0</v>
@@ -655,7 +655,7 @@
         <v>0</v>
       </c>
       <c r="L8">
-        <v>9.321141313725871</v>
+        <v>5.89535300727761</v>
       </c>
       <c r="O8">
         <v>0</v>
@@ -666,22 +666,22 @@
         <v>7</v>
       </c>
       <c r="C9">
-        <v>13.74785763166729</v>
+        <v>14.4909030263339</v>
       </c>
       <c r="D9">
-        <v>8.829803992955956</v>
+        <v>10.32675562547805</v>
       </c>
       <c r="E9">
-        <v>14.04827398022687</v>
+        <v>13.22596859749888</v>
       </c>
       <c r="F9">
-        <v>50.24183648997303</v>
+        <v>75.46241305028769</v>
       </c>
       <c r="G9">
-        <v>76.66788407378242</v>
+        <v>123.6445611263151</v>
       </c>
       <c r="H9">
-        <v>23.88059320178689</v>
+        <v>30.82980666829992</v>
       </c>
       <c r="I9">
         <v>0</v>
@@ -690,7 +690,7 @@
         <v>0</v>
       </c>
       <c r="L9">
-        <v>9.289170125078387</v>
+        <v>6.346807489612114</v>
       </c>
       <c r="O9">
         <v>0</v>
@@ -701,22 +701,22 @@
         <v>8</v>
       </c>
       <c r="C10">
-        <v>13.92672314136436</v>
+        <v>16.13964481539011</v>
       </c>
       <c r="D10">
-        <v>8.978948137811127</v>
+        <v>11.7519172873609</v>
       </c>
       <c r="E10">
-        <v>14.15584331716707</v>
+        <v>14.63306712329344</v>
       </c>
       <c r="F10">
-        <v>52.23522371739963</v>
+        <v>85.28916543592979</v>
       </c>
       <c r="G10">
-        <v>80.42167366441141</v>
+        <v>139.8028755746824</v>
       </c>
       <c r="H10">
-        <v>24.45749077919983</v>
+        <v>34.84161738958298</v>
       </c>
       <c r="I10">
         <v>0</v>
@@ -725,7 +725,7 @@
         <v>0</v>
       </c>
       <c r="L10">
-        <v>9.275745737809846</v>
+        <v>6.765323881085358</v>
       </c>
       <c r="O10">
         <v>0</v>
@@ -736,22 +736,22 @@
         <v>9</v>
       </c>
       <c r="C11">
-        <v>14.01226241521004</v>
+        <v>16.96648556884385</v>
       </c>
       <c r="D11">
-        <v>9.049437807733074</v>
+        <v>12.45558581705484</v>
       </c>
       <c r="E11">
-        <v>14.20915972431975</v>
+        <v>15.41884713900187</v>
       </c>
       <c r="F11">
-        <v>53.13899742026928</v>
+        <v>90.08719210568616</v>
       </c>
       <c r="G11">
-        <v>82.10636623692774</v>
+        <v>147.700537104336</v>
       </c>
       <c r="H11">
-        <v>24.72496789563619</v>
+        <v>36.80403649220442</v>
       </c>
       <c r="I11">
         <v>0</v>
@@ -760,7 +760,7 @@
         <v>0</v>
       </c>
       <c r="L11">
-        <v>9.271856640215638</v>
+        <v>7.099540723127977</v>
       </c>
       <c r="O11">
         <v>0</v>
@@ -771,22 +771,22 @@
         <v>10</v>
       </c>
       <c r="C12">
-        <v>14.04523948718304</v>
+        <v>17.31781982084662</v>
       </c>
       <c r="D12">
-        <v>9.076495748221754</v>
+        <v>12.73621080238628</v>
       </c>
       <c r="E12">
-        <v>14.22997613552084</v>
+        <v>15.75006048756274</v>
       </c>
       <c r="F12">
-        <v>53.48046691368543</v>
+        <v>91.98855656812694</v>
       </c>
       <c r="G12">
-        <v>82.7404083124986</v>
+        <v>150.8319534514786</v>
       </c>
       <c r="H12">
-        <v>24.82690076231398</v>
+        <v>37.58237156926057</v>
       </c>
       <c r="I12">
         <v>0</v>
@@ -795,7 +795,7 @@
         <v>0</v>
       </c>
       <c r="L12">
-        <v>9.270705393871175</v>
+        <v>7.246669801122545</v>
       </c>
       <c r="O12">
         <v>0</v>
@@ -806,22 +806,22 @@
         <v>11</v>
       </c>
       <c r="C13">
-        <v>14.03811150536218</v>
+        <v>17.24123182094346</v>
       </c>
       <c r="D13">
-        <v>9.07065234905172</v>
+        <v>12.67499057222905</v>
       </c>
       <c r="E13">
-        <v>14.22546514605385</v>
+        <v>15.67788012839326</v>
       </c>
       <c r="F13">
-        <v>53.40696469294073</v>
+        <v>91.57439118740575</v>
       </c>
       <c r="G13">
-        <v>82.60403931071522</v>
+        <v>150.149762915252</v>
       </c>
       <c r="H13">
-        <v>24.80492027918245</v>
+        <v>37.41279766474167</v>
       </c>
       <c r="I13">
         <v>0</v>
@@ -830,7 +830,7 @@
         <v>0</v>
       </c>
       <c r="L13">
-        <v>9.270938997608484</v>
+        <v>7.214610783085464</v>
       </c>
       <c r="O13">
         <v>0</v>
@@ -841,22 +841,22 @@
         <v>12</v>
       </c>
       <c r="C14">
-        <v>14.01496381920992</v>
+        <v>16.99499294771641</v>
       </c>
       <c r="D14">
-        <v>9.051656653789767</v>
+        <v>12.47833641173308</v>
       </c>
       <c r="E14">
-        <v>14.21085976804011</v>
+        <v>15.44573164475635</v>
       </c>
       <c r="F14">
-        <v>53.16710759304129</v>
+        <v>90.24160922391364</v>
       </c>
       <c r="G14">
-        <v>82.1586110395157</v>
+        <v>147.9548131328125</v>
       </c>
       <c r="H14">
-        <v>24.73334150394952</v>
+        <v>36.86723377553361</v>
       </c>
       <c r="I14">
         <v>0</v>
@@ -865,7 +865,7 @@
         <v>0</v>
       </c>
       <c r="L14">
-        <v>9.27175546923584</v>
+        <v>7.111485180552206</v>
       </c>
       <c r="O14">
         <v>0</v>
@@ -876,22 +876,22 @@
         <v>13</v>
       </c>
       <c r="C15">
-        <v>14.00086094517326</v>
+        <v>16.85053986441875</v>
       </c>
       <c r="D15">
-        <v>9.040068320617999</v>
+        <v>12.35998742453006</v>
       </c>
       <c r="E15">
-        <v>14.20199503714001</v>
+        <v>15.30581709638707</v>
       </c>
       <c r="F15">
-        <v>53.02007835300724</v>
+        <v>89.4378199103117</v>
       </c>
       <c r="G15">
-        <v>81.88524626135934</v>
+        <v>146.6312993605262</v>
       </c>
       <c r="H15">
-        <v>24.68957907039977</v>
+        <v>36.53829964255974</v>
       </c>
       <c r="I15">
         <v>0</v>
@@ -900,7 +900,7 @@
         <v>0</v>
       </c>
       <c r="L15">
-        <v>9.272297521850438</v>
+        <v>7.049318550892552</v>
       </c>
       <c r="O15">
         <v>0</v>
@@ -911,22 +911,22 @@
         <v>14</v>
       </c>
       <c r="C16">
-        <v>13.92121567229268</v>
+        <v>16.08781331737244</v>
       </c>
       <c r="D16">
-        <v>8.974393390303426</v>
+        <v>11.7074811973535</v>
       </c>
       <c r="E16">
-        <v>14.15244687154581</v>
+        <v>14.5884753277228</v>
       </c>
       <c r="F16">
-        <v>52.17606996575419</v>
+        <v>84.98483036516397</v>
       </c>
       <c r="G16">
-        <v>80.31105956290951</v>
+        <v>139.3021299907045</v>
       </c>
       <c r="H16">
-        <v>24.44010515494604</v>
+        <v>34.71722276332171</v>
       </c>
       <c r="I16">
         <v>0</v>
@@ -935,7 +935,7 @@
         <v>0</v>
       </c>
       <c r="L16">
-        <v>9.276044746176842</v>
+        <v>6.751533676768953</v>
       </c>
       <c r="O16">
         <v>0</v>
@@ -946,22 +946,22 @@
         <v>15</v>
       </c>
       <c r="C17">
-        <v>13.87341440701768</v>
+        <v>15.64210478513951</v>
       </c>
       <c r="D17">
-        <v>8.934770471476696</v>
+        <v>11.32459882957654</v>
       </c>
       <c r="E17">
-        <v>14.12317094580968</v>
+        <v>14.20592932896295</v>
       </c>
       <c r="F17">
-        <v>51.65727789742854</v>
+        <v>82.35652158760392</v>
       </c>
       <c r="G17">
-        <v>79.33901692144765</v>
+        <v>134.9784831788237</v>
       </c>
       <c r="H17">
-        <v>24.2882957251424</v>
+        <v>33.64331576742113</v>
       </c>
       <c r="I17">
         <v>0</v>
@@ -970,7 +970,7 @@
         <v>0</v>
       </c>
       <c r="L17">
-        <v>9.278913400493918</v>
+        <v>6.634575787333811</v>
       </c>
       <c r="O17">
         <v>0</v>
@@ -981,22 +981,22 @@
         <v>16</v>
       </c>
       <c r="C18">
-        <v>13.84631408193695</v>
+        <v>15.39203306069007</v>
       </c>
       <c r="D18">
-        <v>8.912230166716553</v>
+        <v>11.10907053439179</v>
       </c>
       <c r="E18">
-        <v>14.10674499607133</v>
+        <v>13.9920304315516</v>
       </c>
       <c r="F18">
-        <v>51.35861612822432</v>
+        <v>80.87254476492318</v>
       </c>
       <c r="G18">
-        <v>78.77779905419067</v>
+        <v>132.5379880899496</v>
       </c>
       <c r="H18">
-        <v>24.20145849695755</v>
+        <v>33.03728589689687</v>
       </c>
       <c r="I18">
         <v>0</v>
@@ -1005,7 +1005,7 @@
         <v>0</v>
       </c>
       <c r="L18">
-        <v>9.280771967287345</v>
+        <v>6.570264903240878</v>
       </c>
       <c r="O18">
         <v>0</v>
@@ -1016,22 +1016,22 @@
         <v>17</v>
       </c>
       <c r="C19">
-        <v>13.8372064263959</v>
+        <v>15.30830336292545</v>
       </c>
       <c r="D19">
-        <v>8.904641748294518</v>
+        <v>11.03677521299697</v>
       </c>
       <c r="E19">
-        <v>14.10125444054169</v>
+        <v>13.92053434283517</v>
       </c>
       <c r="F19">
-        <v>51.25745918716842</v>
+        <v>80.37409218817912</v>
       </c>
       <c r="G19">
-        <v>78.58743521373246</v>
+        <v>131.7183581951481</v>
       </c>
       <c r="H19">
-        <v>24.17214170793601</v>
+        <v>32.83377726200155</v>
       </c>
       <c r="I19">
         <v>0</v>
@@ -1040,7 +1040,7 @@
         <v>0</v>
       </c>
       <c r="L19">
-        <v>9.281436993052388</v>
+        <v>6.548948563201845</v>
       </c>
       <c r="O19">
         <v>0</v>
@@ -1051,22 +1051,22 @@
         <v>18</v>
       </c>
       <c r="C20">
-        <v>13.87846229037153</v>
+        <v>15.68886528146666</v>
       </c>
       <c r="D20">
-        <v>8.938962657424446</v>
+        <v>11.3648392690835</v>
       </c>
       <c r="E20">
-        <v>14.12624471867986</v>
+        <v>14.24598553643658</v>
       </c>
       <c r="F20">
-        <v>51.71253424990164</v>
+        <v>82.63324314220071</v>
       </c>
       <c r="G20">
-        <v>79.4427170769869</v>
+        <v>135.4336235439576</v>
       </c>
       <c r="H20">
-        <v>24.30440704848565</v>
+        <v>33.75634885360358</v>
       </c>
       <c r="I20">
         <v>0</v>
@@ -1075,7 +1075,7 @@
         <v>0</v>
       </c>
       <c r="L20">
-        <v>9.278586420053388</v>
+        <v>6.646707168263134</v>
       </c>
       <c r="O20">
         <v>0</v>
@@ -1086,22 +1086,22 @@
         <v>19</v>
       </c>
       <c r="C21">
-        <v>14.02174709709882</v>
+        <v>17.06677925274106</v>
       </c>
       <c r="D21">
-        <v>9.057226366662128</v>
+        <v>12.53564070667357</v>
       </c>
       <c r="E21">
-        <v>14.21513274800001</v>
+        <v>15.51342337209737</v>
       </c>
       <c r="F21">
-        <v>53.23758289492716</v>
+        <v>90.63034670873468</v>
       </c>
       <c r="G21">
-        <v>82.28955498714295</v>
+        <v>148.594970109244</v>
       </c>
       <c r="H21">
-        <v>24.75434905562847</v>
+        <v>37.02634096763603</v>
       </c>
       <c r="I21">
         <v>0</v>
@@ -1110,7 +1110,7 @@
         <v>0</v>
       </c>
       <c r="L21">
-        <v>9.271506906930957</v>
+        <v>7.1415581188889</v>
       </c>
       <c r="O21">
         <v>0</v>
@@ -1121,22 +1121,22 @@
         <v>20</v>
       </c>
       <c r="C22">
-        <v>14.11879537796623</v>
+        <v>18.13451433483592</v>
       </c>
       <c r="D22">
-        <v>9.136638772420222</v>
+        <v>13.39095141314707</v>
       </c>
       <c r="E22">
-        <v>14.27687643601528</v>
+        <v>16.519142881649</v>
       </c>
       <c r="F22">
-        <v>54.22966244685193</v>
+        <v>96.39448158470645</v>
       </c>
       <c r="G22">
-        <v>84.12706683342132</v>
+        <v>158.0924080398453</v>
       </c>
       <c r="H22">
-        <v>25.05213535015071</v>
+        <v>39.38747059913991</v>
       </c>
       <c r="I22">
         <v>0</v>
@@ -1145,7 +1145,7 @@
         <v>0</v>
       </c>
       <c r="L22">
-        <v>9.26875496511806</v>
+        <v>7.588145303134756</v>
       </c>
       <c r="O22">
         <v>0</v>
@@ -1156,22 +1156,22 @@
         <v>21</v>
       </c>
       <c r="C23">
-        <v>14.06669265417337</v>
+        <v>17.55074974125553</v>
       </c>
       <c r="D23">
-        <v>9.094066027348594</v>
+        <v>12.92257617132387</v>
       </c>
       <c r="E23">
-        <v>14.2435901042033</v>
+        <v>15.96951844163418</v>
       </c>
       <c r="F23">
-        <v>53.70069930277461</v>
+        <v>93.24711202565811</v>
       </c>
       <c r="G23">
-        <v>83.14865113589346</v>
+        <v>152.9052897227087</v>
       </c>
       <c r="H23">
-        <v>24.89288692482673</v>
+        <v>38.09778185960427</v>
       </c>
       <c r="I23">
         <v>0</v>
@@ -1180,7 +1180,7 @@
         <v>0</v>
       </c>
       <c r="L23">
-        <v>9.270051338267365</v>
+        <v>7.344129268025585</v>
       </c>
       <c r="O23">
         <v>0</v>
@@ -1191,22 +1191,22 @@
         <v>22</v>
       </c>
       <c r="C24">
-        <v>13.876178953662</v>
+        <v>15.6677060643007</v>
       </c>
       <c r="D24">
-        <v>8.937066623223808</v>
+        <v>11.34663264058787</v>
       </c>
       <c r="E24">
-        <v>14.12485380369222</v>
+        <v>14.22785772535642</v>
       </c>
       <c r="F24">
-        <v>51.68755407727876</v>
+        <v>82.50805534986024</v>
       </c>
       <c r="G24">
-        <v>79.39584159484076</v>
+        <v>135.2277176172844</v>
       </c>
       <c r="H24">
-        <v>24.29712174250689</v>
+        <v>33.70521214092976</v>
       </c>
       <c r="I24">
         <v>0</v>
@@ -1215,7 +1215,7 @@
         <v>0</v>
       </c>
       <c r="L24">
-        <v>9.27873359606016</v>
+        <v>6.641213598503258</v>
       </c>
       <c r="O24">
         <v>0</v>
@@ -1226,22 +1226,22 @@
         <v>23</v>
       </c>
       <c r="C25">
-        <v>13.68577831548531</v>
+        <v>13.92125908284352</v>
       </c>
       <c r="D25">
-        <v>8.777318547159329</v>
+        <v>9.826181414635746</v>
       </c>
       <c r="E25">
-        <v>14.01256355229882</v>
+        <v>12.74588133509568</v>
       </c>
       <c r="F25">
-        <v>49.50739887925343</v>
+        <v>71.98429066613869</v>
       </c>
       <c r="G25">
-        <v>75.26962022524258</v>
+        <v>117.9300011354998</v>
       </c>
       <c r="H25">
-        <v>23.67314524421309</v>
+        <v>29.41227406259773</v>
       </c>
       <c r="I25">
         <v>0</v>
@@ -1250,7 +1250,7 @@
         <v>0</v>
       </c>
       <c r="L25">
-        <v>9.296062750898884</v>
+        <v>6.212709881863925</v>
       </c>
       <c r="O25">
         <v>0</v>

--- a/Code/Results/Cases/Case_0_48/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_0_48/res_line/loading_percent.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:O25"/>
+  <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:15">
+    <row r="1" spans="1:17">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -415,844 +415,1282 @@
       <c r="O1" s="1">
         <v>13</v>
       </c>
-    </row>
-    <row r="2" spans="1:15">
+      <c r="P1" s="1">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17">
       <c r="A2" s="1">
         <v>0</v>
       </c>
+      <c r="B2">
+        <v>0</v>
+      </c>
       <c r="C2">
-        <v>12.72222108405832</v>
+        <v>9.434159133322316</v>
       </c>
       <c r="D2">
-        <v>8.762240179790471</v>
+        <v>4.47449984683888</v>
       </c>
       <c r="E2">
-        <v>11.74778410646733</v>
+        <v>11.29481709419233</v>
       </c>
       <c r="F2">
-        <v>64.47577641397379</v>
+        <v>26.00643705922497</v>
       </c>
       <c r="G2">
-        <v>105.6003354377631</v>
+        <v>36.77674782176963</v>
       </c>
       <c r="H2">
-        <v>26.35683803399991</v>
+        <v>1.600628130029963</v>
       </c>
       <c r="I2">
-        <v>0</v>
+        <v>2.614157545093824</v>
       </c>
       <c r="J2">
-        <v>0</v>
+        <v>11.78636998079831</v>
+      </c>
+      <c r="K2">
+        <v>22.15751199787761</v>
       </c>
       <c r="L2">
-        <v>5.950764977806477</v>
+        <v>0</v>
+      </c>
+      <c r="M2">
+        <v>21.37004947422528</v>
+      </c>
+      <c r="N2">
+        <v>7.055267537079047</v>
       </c>
       <c r="O2">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:15">
+      <c r="P2">
+        <v>12.4041031821024</v>
+      </c>
+      <c r="Q2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17">
       <c r="A3" s="1">
         <v>1</v>
       </c>
+      <c r="B3">
+        <v>0</v>
+      </c>
       <c r="C3">
-        <v>11.93633767809051</v>
+        <v>8.94597542184488</v>
       </c>
       <c r="D3">
-        <v>8.171722242817658</v>
+        <v>4.429316746557497</v>
       </c>
       <c r="E3">
-        <v>11.10457132351598</v>
+        <v>10.74926195041706</v>
       </c>
       <c r="F3">
-        <v>59.37462419303088</v>
+        <v>25.08836989817229</v>
       </c>
       <c r="G3">
-        <v>97.22845483906163</v>
+        <v>35.33288418200892</v>
       </c>
       <c r="H3">
-        <v>24.2851717272203</v>
+        <v>1.863954936737933</v>
       </c>
       <c r="I3">
-        <v>0</v>
+        <v>2.561408413064148</v>
       </c>
       <c r="J3">
-        <v>0</v>
+        <v>11.60012494103788</v>
+      </c>
+      <c r="K3">
+        <v>21.50626074492002</v>
       </c>
       <c r="L3">
-        <v>5.795965607072191</v>
+        <v>0</v>
+      </c>
+      <c r="M3">
+        <v>19.94308835714737</v>
+      </c>
+      <c r="N3">
+        <v>6.81209678221445</v>
       </c>
       <c r="O3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:15">
+      <c r="P3">
+        <v>12.5223541542147</v>
+      </c>
+      <c r="Q3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17">
       <c r="A4" s="1">
         <v>2</v>
       </c>
+      <c r="B4">
+        <v>0</v>
+      </c>
       <c r="C4">
-        <v>11.46201835250366</v>
+        <v>8.628423532541598</v>
       </c>
       <c r="D4">
-        <v>7.814809218707156</v>
+        <v>4.400350881506193</v>
       </c>
       <c r="E4">
-        <v>10.72147426572518</v>
+        <v>10.39829420550397</v>
       </c>
       <c r="F4">
-        <v>56.2042113655633</v>
+        <v>24.51693733434288</v>
       </c>
       <c r="G4">
-        <v>92.0269365621931</v>
+        <v>34.42827161392737</v>
       </c>
       <c r="H4">
-        <v>22.99958896977547</v>
+        <v>2.031339423863877</v>
       </c>
       <c r="I4">
-        <v>0</v>
+        <v>2.712957417311831</v>
       </c>
       <c r="J4">
-        <v>0</v>
+        <v>11.48755343892332</v>
+      </c>
+      <c r="K4">
+        <v>21.0991920337087</v>
       </c>
       <c r="L4">
-        <v>5.709915646719341</v>
+        <v>0</v>
+      </c>
+      <c r="M4">
+        <v>19.02027661407485</v>
+      </c>
+      <c r="N4">
+        <v>6.658230764955843</v>
       </c>
       <c r="O4">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:15">
+      <c r="P4">
+        <v>12.59728267533204</v>
+      </c>
+      <c r="Q4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17">
       <c r="A5" s="1">
         <v>3</v>
       </c>
+      <c r="B5">
+        <v>0</v>
+      </c>
       <c r="C5">
-        <v>11.27032294069629</v>
+        <v>8.484051196965487</v>
       </c>
       <c r="D5">
-        <v>7.670369036297798</v>
+        <v>4.388912546545663</v>
       </c>
       <c r="E5">
-        <v>10.56789044068376</v>
+        <v>10.24743415135985</v>
       </c>
       <c r="F5">
-        <v>54.89922318135731</v>
+        <v>24.27097408539875</v>
       </c>
       <c r="G5">
-        <v>89.88626376907537</v>
+        <v>34.03477108767897</v>
       </c>
       <c r="H5">
-        <v>22.51274245087382</v>
+        <v>2.101596537701441</v>
       </c>
       <c r="I5">
-        <v>0</v>
+        <v>2.77961239534956</v>
       </c>
       <c r="J5">
-        <v>0</v>
+        <v>11.43829510332916</v>
+      </c>
+      <c r="K5">
+        <v>20.92015469161051</v>
       </c>
       <c r="L5">
-        <v>5.676860700250509</v>
+        <v>0</v>
+      </c>
+      <c r="M5">
+        <v>18.64178322669655</v>
+      </c>
+      <c r="N5">
+        <v>6.594852947660988</v>
       </c>
       <c r="O5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:15">
+      <c r="P5">
+        <v>12.62903586122479</v>
+      </c>
+      <c r="Q5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17">
       <c r="A6" s="1">
         <v>4</v>
       </c>
+      <c r="B6">
+        <v>0</v>
+      </c>
       <c r="C6">
-        <v>11.23857804876101</v>
+        <v>8.446942919911542</v>
       </c>
       <c r="D6">
-        <v>7.646436212017385</v>
+        <v>4.387822400656385</v>
       </c>
       <c r="E6">
-        <v>10.54253080481928</v>
+        <v>10.21738987891911</v>
       </c>
       <c r="F6">
-        <v>54.68166415721487</v>
+        <v>24.21604683986652</v>
       </c>
       <c r="G6">
-        <v>89.53125297740844</v>
+        <v>33.94380213895653</v>
       </c>
       <c r="H6">
-        <v>22.43724780873302</v>
+        <v>2.11406803116737</v>
       </c>
       <c r="I6">
-        <v>0</v>
+        <v>2.795053431479873</v>
       </c>
       <c r="J6">
-        <v>0</v>
+        <v>11.42543657253177</v>
+      </c>
+      <c r="K6">
+        <v>20.87624383260341</v>
       </c>
       <c r="L6">
-        <v>5.671487024505714</v>
+        <v>0</v>
+      </c>
+      <c r="M6">
+        <v>18.5719153184322</v>
+      </c>
+      <c r="N6">
+        <v>6.584787720840018</v>
       </c>
       <c r="O6">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:15">
+      <c r="P6">
+        <v>12.63513360322824</v>
+      </c>
+      <c r="Q6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17">
       <c r="A7" s="1">
         <v>5</v>
       </c>
+      <c r="B7">
+        <v>0</v>
+      </c>
       <c r="C7">
-        <v>11.45942711565541</v>
+        <v>8.591946257215753</v>
       </c>
       <c r="D7">
-        <v>7.812857620408127</v>
+        <v>4.40247817536378</v>
       </c>
       <c r="E7">
-        <v>10.71939320412625</v>
+        <v>10.38349757736845</v>
       </c>
       <c r="F7">
-        <v>56.1866683107534</v>
+        <v>24.47583350463636</v>
       </c>
       <c r="G7">
-        <v>91.99815802223426</v>
+        <v>34.35449450138422</v>
       </c>
       <c r="H7">
-        <v>22.99248002840921</v>
+        <v>2.034214889114023</v>
       </c>
       <c r="I7">
-        <v>0</v>
+        <v>2.725286761523341</v>
       </c>
       <c r="J7">
-        <v>0</v>
+        <v>11.47409262666154</v>
+      </c>
+      <c r="K7">
+        <v>21.05865056990316</v>
       </c>
       <c r="L7">
-        <v>5.709462008056925</v>
+        <v>0</v>
+      </c>
+      <c r="M7">
+        <v>18.99846466938284</v>
+      </c>
+      <c r="N7">
+        <v>6.658802763538138</v>
       </c>
       <c r="O7">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:15">
+      <c r="P7">
+        <v>12.5999431470557</v>
+      </c>
+      <c r="Q7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17">
       <c r="A8" s="1">
         <v>6</v>
       </c>
+      <c r="B8">
+        <v>0</v>
+      </c>
       <c r="C8">
-        <v>12.44919296371279</v>
+        <v>9.22649140392242</v>
       </c>
       <c r="D8">
-        <v>8.557145527181294</v>
+        <v>4.462285998384943</v>
       </c>
       <c r="E8">
-        <v>11.5232230368495</v>
+        <v>11.09410658534553</v>
       </c>
       <c r="F8">
-        <v>62.72245897863208</v>
+        <v>25.64363473978482</v>
       </c>
       <c r="G8">
-        <v>102.7224398615897</v>
+        <v>36.1962981548914</v>
       </c>
       <c r="H8">
-        <v>25.64437482072969</v>
+        <v>1.692717275188351</v>
       </c>
       <c r="I8">
-        <v>0</v>
+        <v>2.538019300233311</v>
       </c>
       <c r="J8">
-        <v>0</v>
+        <v>11.70517351028395</v>
+      </c>
+      <c r="K8">
+        <v>21.88573687644016</v>
       </c>
       <c r="L8">
-        <v>5.89535300727761</v>
+        <v>0</v>
+      </c>
+      <c r="M8">
+        <v>20.86876919868338</v>
+      </c>
+      <c r="N8">
+        <v>6.974233802824473</v>
       </c>
       <c r="O8">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:15">
+      <c r="P8">
+        <v>12.44768395656659</v>
+      </c>
+      <c r="Q8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17">
       <c r="A9" s="1">
         <v>7</v>
       </c>
+      <c r="B9">
+        <v>0</v>
+      </c>
       <c r="C9">
-        <v>14.4909030263339</v>
+        <v>10.38522952188712</v>
       </c>
       <c r="D9">
-        <v>10.32675562547805</v>
+        <v>4.565582925764005</v>
       </c>
       <c r="E9">
-        <v>13.22596859749888</v>
+        <v>12.37928455250624</v>
       </c>
       <c r="F9">
-        <v>75.46241305028769</v>
+        <v>27.92520802816031</v>
       </c>
       <c r="G9">
-        <v>123.6445611263151</v>
+        <v>39.76309824887391</v>
       </c>
       <c r="H9">
-        <v>30.82980666829992</v>
+        <v>2.045375445205438</v>
       </c>
       <c r="I9">
-        <v>0</v>
+        <v>3.084211029601197</v>
       </c>
       <c r="J9">
-        <v>0</v>
+        <v>12.19413601568024</v>
+      </c>
+      <c r="K9">
+        <v>23.50885205462563</v>
       </c>
       <c r="L9">
-        <v>6.346807489612114</v>
+        <v>0</v>
+      </c>
+      <c r="M9">
+        <v>24.14863429008486</v>
+      </c>
+      <c r="N9">
+        <v>7.552543974046697</v>
       </c>
       <c r="O9">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:15">
+      <c r="P9">
+        <v>12.16324806289736</v>
+      </c>
+      <c r="Q9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17">
       <c r="A10" s="1">
         <v>8</v>
       </c>
+      <c r="B10">
+        <v>0</v>
+      </c>
       <c r="C10">
-        <v>16.13964481539011</v>
+        <v>11.03698207960745</v>
       </c>
       <c r="D10">
-        <v>11.7519172873609</v>
+        <v>4.649871800653052</v>
       </c>
       <c r="E10">
-        <v>14.63306712329344</v>
+        <v>13.03273252223093</v>
       </c>
       <c r="F10">
-        <v>85.28916543592979</v>
+        <v>29.37063389922746</v>
       </c>
       <c r="G10">
-        <v>139.8028755746824</v>
+        <v>41.95714102796325</v>
       </c>
       <c r="H10">
-        <v>34.84161738958298</v>
+        <v>2.456299176450141</v>
       </c>
       <c r="I10">
-        <v>0</v>
+        <v>3.457607163179394</v>
       </c>
       <c r="J10">
-        <v>0</v>
+        <v>12.49725458850927</v>
+      </c>
+      <c r="K10">
+        <v>24.48631769148249</v>
       </c>
       <c r="L10">
-        <v>6.765323881085358</v>
+        <v>0</v>
+      </c>
+      <c r="M10">
+        <v>26.22960176994242</v>
+      </c>
+      <c r="N10">
+        <v>7.833330365053702</v>
       </c>
       <c r="O10">
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:15">
+      <c r="P10">
+        <v>11.98388921140987</v>
+      </c>
+      <c r="Q10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17">
       <c r="A11" s="1">
         <v>9</v>
       </c>
+      <c r="B11">
+        <v>0</v>
+      </c>
       <c r="C11">
-        <v>16.96648556884385</v>
+        <v>10.446038827734</v>
       </c>
       <c r="D11">
-        <v>12.45558581705484</v>
+        <v>4.821326153699629</v>
       </c>
       <c r="E11">
-        <v>15.41884713900187</v>
+        <v>11.58963592555676</v>
       </c>
       <c r="F11">
-        <v>90.08719210568616</v>
+        <v>28.60413809429715</v>
       </c>
       <c r="G11">
-        <v>147.700537104336</v>
+        <v>40.41741588652298</v>
       </c>
       <c r="H11">
-        <v>36.80403649220442</v>
+        <v>3.220556373808635</v>
       </c>
       <c r="I11">
-        <v>0</v>
+        <v>3.543466321777051</v>
       </c>
       <c r="J11">
-        <v>0</v>
+        <v>12.11934371344607</v>
+      </c>
+      <c r="K11">
+        <v>23.56569929479168</v>
       </c>
       <c r="L11">
-        <v>7.099540723127977</v>
+        <v>0</v>
+      </c>
+      <c r="M11">
+        <v>26.55667678037743</v>
+      </c>
+      <c r="N11">
+        <v>6.972803408920804</v>
       </c>
       <c r="O11">
         <v>0</v>
       </c>
-    </row>
-    <row r="12" spans="1:15">
+      <c r="P11">
+        <v>12.06965241912458</v>
+      </c>
+      <c r="Q11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17">
       <c r="A12" s="1">
         <v>10</v>
       </c>
+      <c r="B12">
+        <v>0</v>
+      </c>
       <c r="C12">
-        <v>17.31781982084662</v>
+        <v>9.86682424137487</v>
       </c>
       <c r="D12">
-        <v>12.73621080238628</v>
+        <v>4.963378687676003</v>
       </c>
       <c r="E12">
-        <v>15.75006048756274</v>
+        <v>10.31646214021431</v>
       </c>
       <c r="F12">
-        <v>91.98855656812694</v>
+        <v>27.68591782293978</v>
       </c>
       <c r="G12">
-        <v>150.8319534514786</v>
+        <v>38.71831467757175</v>
       </c>
       <c r="H12">
-        <v>37.58237156926057</v>
+        <v>4.381336716613152</v>
       </c>
       <c r="I12">
-        <v>0</v>
+        <v>3.54237786737525</v>
       </c>
       <c r="J12">
-        <v>0</v>
+        <v>11.74805274233621</v>
+      </c>
+      <c r="K12">
+        <v>22.62271110844116</v>
       </c>
       <c r="L12">
-        <v>7.246669801122545</v>
+        <v>0</v>
+      </c>
+      <c r="M12">
+        <v>26.42689439532094</v>
+      </c>
+      <c r="N12">
+        <v>6.262242542250536</v>
       </c>
       <c r="O12">
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:15">
+      <c r="P12">
+        <v>12.19447394200094</v>
+      </c>
+      <c r="Q12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17">
       <c r="A13" s="1">
         <v>11</v>
       </c>
+      <c r="B13">
+        <v>0</v>
+      </c>
       <c r="C13">
-        <v>17.24123182094346</v>
+        <v>9.206402492221848</v>
       </c>
       <c r="D13">
-        <v>12.67499057222905</v>
+        <v>5.092773858426301</v>
       </c>
       <c r="E13">
-        <v>15.67788012839326</v>
+        <v>9.08363304309138</v>
       </c>
       <c r="F13">
-        <v>91.57439118740575</v>
+        <v>26.52172042288934</v>
       </c>
       <c r="G13">
-        <v>150.149762915252</v>
+        <v>36.65944739251002</v>
       </c>
       <c r="H13">
-        <v>37.41279766474167</v>
+        <v>5.639922244848328</v>
       </c>
       <c r="I13">
-        <v>0</v>
+        <v>3.475912370908311</v>
       </c>
       <c r="J13">
-        <v>0</v>
+        <v>11.33689488203777</v>
+      </c>
+      <c r="K13">
+        <v>21.53743309551959</v>
       </c>
       <c r="L13">
-        <v>7.214610783085464</v>
+        <v>0</v>
+      </c>
+      <c r="M13">
+        <v>25.91479734579687</v>
+      </c>
+      <c r="N13">
+        <v>5.646478536411982</v>
       </c>
       <c r="O13">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:15">
+      <c r="P13">
+        <v>12.35441582839129</v>
+      </c>
+      <c r="Q13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17">
       <c r="A14" s="1">
         <v>12</v>
       </c>
+      <c r="B14">
+        <v>0</v>
+      </c>
       <c r="C14">
-        <v>16.99499294771641</v>
+        <v>8.697988510244425</v>
       </c>
       <c r="D14">
-        <v>12.47833641173308</v>
+        <v>5.179854230257702</v>
       </c>
       <c r="E14">
-        <v>15.44573164475635</v>
+        <v>8.268267589999859</v>
       </c>
       <c r="F14">
-        <v>90.24160922391364</v>
+        <v>25.57539632275062</v>
       </c>
       <c r="G14">
-        <v>147.9548131328125</v>
+        <v>35.0182312979944</v>
       </c>
       <c r="H14">
-        <v>36.86723377553361</v>
+        <v>6.555759521439282</v>
       </c>
       <c r="I14">
-        <v>0</v>
+        <v>3.40091371701658</v>
       </c>
       <c r="J14">
-        <v>0</v>
+        <v>11.02729990507875</v>
+      </c>
+      <c r="K14">
+        <v>20.69835557262088</v>
       </c>
       <c r="L14">
-        <v>7.111485180552206</v>
+        <v>0</v>
+      </c>
+      <c r="M14">
+        <v>25.37249621569593</v>
+      </c>
+      <c r="N14">
+        <v>5.293757840423784</v>
       </c>
       <c r="O14">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:15">
+      <c r="P14">
+        <v>12.48293146950164</v>
+      </c>
+      <c r="Q14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17">
       <c r="A15" s="1">
         <v>13</v>
       </c>
+      <c r="B15">
+        <v>0</v>
+      </c>
       <c r="C15">
-        <v>16.85053986441875</v>
+        <v>8.544708338556907</v>
       </c>
       <c r="D15">
-        <v>12.35998742453006</v>
+        <v>5.197551539856446</v>
       </c>
       <c r="E15">
-        <v>15.30581709638707</v>
+        <v>8.06756895533761</v>
       </c>
       <c r="F15">
-        <v>89.4378199103117</v>
+        <v>25.28012368270276</v>
       </c>
       <c r="G15">
-        <v>146.6312993605262</v>
+        <v>34.51892276472012</v>
       </c>
       <c r="H15">
-        <v>36.53829964255974</v>
+        <v>6.763472708345954</v>
       </c>
       <c r="I15">
-        <v>0</v>
+        <v>3.368715884492182</v>
       </c>
       <c r="J15">
-        <v>0</v>
+        <v>10.94005398481063</v>
+      </c>
+      <c r="K15">
+        <v>20.45198650349652</v>
       </c>
       <c r="L15">
-        <v>7.049318550892552</v>
+        <v>0</v>
+      </c>
+      <c r="M15">
+        <v>25.15132949833358</v>
+      </c>
+      <c r="N15">
+        <v>5.21852490307004</v>
       </c>
       <c r="O15">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:15">
+      <c r="P15">
+        <v>12.52024456422891</v>
+      </c>
+      <c r="Q15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17">
       <c r="A16" s="1">
         <v>14</v>
       </c>
+      <c r="B16">
+        <v>0</v>
+      </c>
       <c r="C16">
-        <v>16.08781331737244</v>
+        <v>8.348569015795762</v>
       </c>
       <c r="D16">
-        <v>11.7074811973535</v>
+        <v>5.135231762505444</v>
       </c>
       <c r="E16">
-        <v>14.5884753277228</v>
+        <v>7.967504061437043</v>
       </c>
       <c r="F16">
-        <v>84.98483036516397</v>
+        <v>24.82197297626576</v>
       </c>
       <c r="G16">
-        <v>139.3021299907045</v>
+        <v>33.8543317924838</v>
       </c>
       <c r="H16">
-        <v>34.71722276332171</v>
+        <v>6.483637048167036</v>
       </c>
       <c r="I16">
-        <v>0</v>
+        <v>3.224791903197324</v>
       </c>
       <c r="J16">
-        <v>0</v>
+        <v>10.87791312269563</v>
+      </c>
+      <c r="K16">
+        <v>20.19734142571966</v>
       </c>
       <c r="L16">
-        <v>6.751533676768953</v>
+        <v>0</v>
+      </c>
+      <c r="M16">
+        <v>24.35688659986795</v>
+      </c>
+      <c r="N16">
+        <v>5.202466687488863</v>
       </c>
       <c r="O16">
         <v>0</v>
       </c>
-    </row>
-    <row r="17" spans="1:15">
+      <c r="P16">
+        <v>12.54928178500213</v>
+      </c>
+      <c r="Q16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17">
       <c r="A17" s="1">
         <v>15</v>
       </c>
+      <c r="B17">
+        <v>0</v>
+      </c>
       <c r="C17">
-        <v>15.64210478513951</v>
+        <v>8.472736925723272</v>
       </c>
       <c r="D17">
-        <v>11.32459882957654</v>
+        <v>5.039519132291936</v>
       </c>
       <c r="E17">
-        <v>14.20592932896295</v>
+        <v>8.315025559089428</v>
       </c>
       <c r="F17">
-        <v>82.35652158760392</v>
+        <v>24.98920626750248</v>
       </c>
       <c r="G17">
-        <v>134.9784831788237</v>
+        <v>34.24627170880033</v>
       </c>
       <c r="H17">
-        <v>33.64331576742113</v>
+        <v>5.730727468779396</v>
       </c>
       <c r="I17">
-        <v>0</v>
+        <v>3.153896332763696</v>
       </c>
       <c r="J17">
-        <v>0</v>
+        <v>10.99684476843282</v>
+      </c>
+      <c r="K17">
+        <v>20.45663515394552</v>
       </c>
       <c r="L17">
-        <v>6.634575787333811</v>
+        <v>0</v>
+      </c>
+      <c r="M17">
+        <v>24.03685966554137</v>
+      </c>
+      <c r="N17">
+        <v>5.362499095148634</v>
       </c>
       <c r="O17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:15">
+      <c r="P17">
+        <v>12.50558166521539</v>
+      </c>
+      <c r="Q17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17">
       <c r="A18" s="1">
         <v>16</v>
       </c>
+      <c r="B18">
+        <v>0</v>
+      </c>
       <c r="C18">
-        <v>15.39203306069007</v>
+        <v>8.924551847389942</v>
       </c>
       <c r="D18">
-        <v>11.10907053439179</v>
+        <v>4.908477187812635</v>
       </c>
       <c r="E18">
-        <v>13.9920304315516</v>
+        <v>9.189460520545154</v>
       </c>
       <c r="F18">
-        <v>80.87254476492318</v>
+        <v>25.73723029842412</v>
       </c>
       <c r="G18">
-        <v>132.5379880899496</v>
+        <v>35.63652408070453</v>
       </c>
       <c r="H18">
-        <v>33.03728589689687</v>
+        <v>4.523587722428867</v>
       </c>
       <c r="I18">
-        <v>0</v>
+        <v>3.138750507458836</v>
       </c>
       <c r="J18">
-        <v>0</v>
+        <v>11.29296860468139</v>
+      </c>
+      <c r="K18">
+        <v>21.21511898087099</v>
       </c>
       <c r="L18">
-        <v>6.570264903240878</v>
+        <v>0</v>
+      </c>
+      <c r="M18">
+        <v>24.11340952786387</v>
+      </c>
+      <c r="N18">
+        <v>5.777485120424613</v>
       </c>
       <c r="O18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:15">
+      <c r="P18">
+        <v>12.39816307223964</v>
+      </c>
+      <c r="Q18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17">
       <c r="A19" s="1">
         <v>17</v>
       </c>
+      <c r="B19">
+        <v>0</v>
+      </c>
       <c r="C19">
-        <v>15.30830336292545</v>
+        <v>9.570417712580305</v>
       </c>
       <c r="D19">
-        <v>11.03677521299697</v>
+        <v>4.777535431200412</v>
       </c>
       <c r="E19">
-        <v>13.92053434283517</v>
+        <v>10.49627178831386</v>
       </c>
       <c r="F19">
-        <v>80.37409218817912</v>
+        <v>26.82259895593899</v>
       </c>
       <c r="G19">
-        <v>131.7183581951481</v>
+        <v>37.59474575615223</v>
       </c>
       <c r="H19">
-        <v>32.83377726200155</v>
+        <v>3.196840534785728</v>
       </c>
       <c r="I19">
-        <v>0</v>
+        <v>3.179795043900956</v>
       </c>
       <c r="J19">
-        <v>0</v>
+        <v>11.68761552301279</v>
+      </c>
+      <c r="K19">
+        <v>22.25357102513822</v>
       </c>
       <c r="L19">
-        <v>6.548948563201845</v>
+        <v>0</v>
+      </c>
+      <c r="M19">
+        <v>24.47779362371216</v>
+      </c>
+      <c r="N19">
+        <v>6.463082400735725</v>
       </c>
       <c r="O19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:15">
+      <c r="P19">
+        <v>12.26537060713207</v>
+      </c>
+      <c r="Q19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17">
       <c r="A20" s="1">
         <v>18</v>
       </c>
+      <c r="B20">
+        <v>0</v>
+      </c>
       <c r="C20">
-        <v>15.68886528146666</v>
+        <v>10.77895038043308</v>
       </c>
       <c r="D20">
-        <v>11.3648392690835</v>
+        <v>4.636584424609824</v>
       </c>
       <c r="E20">
-        <v>14.24598553643658</v>
+        <v>12.82316122903773</v>
       </c>
       <c r="F20">
-        <v>82.63324314220071</v>
+        <v>28.88596133156405</v>
       </c>
       <c r="G20">
-        <v>135.4336235439576</v>
+        <v>41.19393910486433</v>
       </c>
       <c r="H20">
-        <v>33.75634885360358</v>
+        <v>2.342813223661596</v>
       </c>
       <c r="I20">
-        <v>0</v>
+        <v>3.365076814806811</v>
       </c>
       <c r="J20">
-        <v>0</v>
+        <v>12.37751847808731</v>
+      </c>
+      <c r="K20">
+        <v>24.12071608173824</v>
       </c>
       <c r="L20">
-        <v>6.646707168263134</v>
+        <v>0</v>
+      </c>
+      <c r="M20">
+        <v>25.65599928422607</v>
+      </c>
+      <c r="N20">
+        <v>7.759278412085807</v>
       </c>
       <c r="O20">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="1:15">
+      <c r="P20">
+        <v>12.04028151567243</v>
+      </c>
+      <c r="Q20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17">
       <c r="A21" s="1">
         <v>19</v>
       </c>
+      <c r="B21">
+        <v>0</v>
+      </c>
       <c r="C21">
-        <v>17.06677925274106</v>
+        <v>11.42670987641045</v>
       </c>
       <c r="D21">
-        <v>12.53564070667357</v>
+        <v>4.677374954084063</v>
       </c>
       <c r="E21">
-        <v>15.51342337209737</v>
+        <v>13.62505443871096</v>
       </c>
       <c r="F21">
-        <v>90.63034670873468</v>
+        <v>30.24488211425681</v>
       </c>
       <c r="G21">
-        <v>148.594970109244</v>
+        <v>43.32058277482886</v>
       </c>
       <c r="H21">
-        <v>37.02634096763603</v>
+        <v>2.676351860905669</v>
       </c>
       <c r="I21">
-        <v>0</v>
+        <v>3.660134048785996</v>
       </c>
       <c r="J21">
-        <v>0</v>
+        <v>12.71011424496697</v>
+      </c>
+      <c r="K21">
+        <v>25.11430214896</v>
       </c>
       <c r="L21">
-        <v>7.1415581188889</v>
+        <v>0</v>
+      </c>
+      <c r="M21">
+        <v>27.28306271174253</v>
+      </c>
+      <c r="N21">
+        <v>8.15210259932133</v>
       </c>
       <c r="O21">
         <v>0</v>
       </c>
-    </row>
-    <row r="22" spans="1:15">
+      <c r="P21">
+        <v>11.88029783670643</v>
+      </c>
+      <c r="Q21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17">
       <c r="A22" s="1">
         <v>20</v>
       </c>
+      <c r="B22">
+        <v>0</v>
+      </c>
       <c r="C22">
-        <v>18.13451433483592</v>
+        <v>11.81739850224028</v>
       </c>
       <c r="D22">
-        <v>13.39095141314707</v>
+        <v>4.70640174004454</v>
       </c>
       <c r="E22">
-        <v>16.519142881649</v>
+        <v>14.04130653525444</v>
       </c>
       <c r="F22">
-        <v>96.39448158470645</v>
+        <v>31.07833535310502</v>
       </c>
       <c r="G22">
-        <v>158.0924080398453</v>
+        <v>44.61088657751001</v>
       </c>
       <c r="H22">
-        <v>39.38747059913991</v>
+        <v>2.884181717598209</v>
       </c>
       <c r="I22">
-        <v>0</v>
+        <v>3.843544226338998</v>
       </c>
       <c r="J22">
-        <v>0</v>
+        <v>12.91399219002096</v>
+      </c>
+      <c r="K22">
+        <v>25.71700794098106</v>
       </c>
       <c r="L22">
-        <v>7.588145303134756</v>
+        <v>0</v>
+      </c>
+      <c r="M22">
+        <v>28.28325703584812</v>
+      </c>
+      <c r="N22">
+        <v>8.340596233508165</v>
       </c>
       <c r="O22">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="1:15">
+      <c r="P22">
+        <v>11.78194948764771</v>
+      </c>
+      <c r="Q22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17">
       <c r="A23" s="1">
         <v>21</v>
       </c>
+      <c r="B23">
+        <v>0</v>
+      </c>
       <c r="C23">
-        <v>17.55074974125553</v>
+        <v>11.64181248074025</v>
       </c>
       <c r="D23">
-        <v>12.92257617132387</v>
+        <v>4.688027359074157</v>
       </c>
       <c r="E23">
-        <v>15.96951844163418</v>
+        <v>13.83234780149898</v>
       </c>
       <c r="F23">
-        <v>93.24711202565811</v>
+        <v>30.67149470133137</v>
       </c>
       <c r="G23">
-        <v>152.9052897227087</v>
+        <v>43.98991561208804</v>
       </c>
       <c r="H23">
-        <v>38.09778185960427</v>
+        <v>2.775529192166039</v>
       </c>
       <c r="I23">
-        <v>0</v>
+        <v>3.744301056012625</v>
       </c>
       <c r="J23">
-        <v>0</v>
+        <v>12.81876927490732</v>
+      </c>
+      <c r="K23">
+        <v>25.4346335057259</v>
       </c>
       <c r="L23">
-        <v>7.344129268025585</v>
+        <v>0</v>
+      </c>
+      <c r="M23">
+        <v>27.76815513997317</v>
+      </c>
+      <c r="N23">
+        <v>8.238962705734759</v>
       </c>
       <c r="O23">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="1:15">
+      <c r="P23">
+        <v>11.83036908177898</v>
+      </c>
+      <c r="Q23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17">
       <c r="A24" s="1">
         <v>22</v>
       </c>
+      <c r="B24">
+        <v>0</v>
+      </c>
       <c r="C24">
-        <v>15.6677060643007</v>
+        <v>10.89745964400019</v>
       </c>
       <c r="D24">
-        <v>11.34663264058787</v>
+        <v>4.620854436152567</v>
       </c>
       <c r="E24">
-        <v>14.22785772535642</v>
+        <v>12.99282650534201</v>
       </c>
       <c r="F24">
-        <v>82.50805534986024</v>
+        <v>29.04874750820057</v>
       </c>
       <c r="G24">
-        <v>135.2277176172844</v>
+        <v>41.48943600859658</v>
       </c>
       <c r="H24">
-        <v>33.70521214092976</v>
+        <v>2.353355419828216</v>
       </c>
       <c r="I24">
-        <v>0</v>
+        <v>3.364702386353385</v>
       </c>
       <c r="J24">
-        <v>0</v>
+        <v>12.43943510035749</v>
+      </c>
+      <c r="K24">
+        <v>24.28598438217248</v>
       </c>
       <c r="L24">
-        <v>6.641213598503258</v>
+        <v>0</v>
+      </c>
+      <c r="M24">
+        <v>25.70378006596165</v>
+      </c>
+      <c r="N24">
+        <v>7.846543392921205</v>
       </c>
       <c r="O24">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="1:15">
+      <c r="P24">
+        <v>12.02467296734193</v>
+      </c>
+      <c r="Q24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17">
       <c r="A25" s="1">
         <v>23</v>
       </c>
+      <c r="B25">
+        <v>0</v>
+      </c>
       <c r="C25">
-        <v>13.92125908284352</v>
+        <v>10.03287257208362</v>
       </c>
       <c r="D25">
-        <v>9.826181414635746</v>
+        <v>4.543096738289734</v>
       </c>
       <c r="E25">
-        <v>12.74588133509568</v>
+        <v>12.02554372252394</v>
       </c>
       <c r="F25">
-        <v>71.98429066613869</v>
+        <v>27.2552903117037</v>
       </c>
       <c r="G25">
-        <v>117.9300011354998</v>
+        <v>38.7065219290455</v>
       </c>
       <c r="H25">
-        <v>29.41227406259773</v>
+        <v>1.880624349666573</v>
       </c>
       <c r="I25">
-        <v>0</v>
+        <v>2.942455040071914</v>
       </c>
       <c r="J25">
-        <v>0</v>
+        <v>12.03844294794519</v>
+      </c>
+      <c r="K25">
+        <v>23.01397304577099</v>
       </c>
       <c r="L25">
-        <v>6.212709881863925</v>
+        <v>0</v>
+      </c>
+      <c r="M25">
+        <v>23.28153966801422</v>
+      </c>
+      <c r="N25">
+        <v>7.402771298704673</v>
       </c>
       <c r="O25">
+        <v>0</v>
+      </c>
+      <c r="P25">
+        <v>12.24322999784079</v>
+      </c>
+      <c r="Q25">
         <v>0</v>
       </c>
     </row>

--- a/Code/Results/Cases/Case_0_48/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_0_48/res_line/loading_percent.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q25"/>
+  <dimension ref="A1:S25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:17">
+    <row r="1" spans="1:19">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -421,8 +421,14 @@
       <c r="Q1" s="1">
         <v>15</v>
       </c>
-    </row>
-    <row r="2" spans="1:17">
+      <c r="R1" s="1">
+        <v>16</v>
+      </c>
+      <c r="S1" s="1">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -430,52 +436,58 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>9.434159133322316</v>
+        <v>7.579093098015084</v>
       </c>
       <c r="D2">
-        <v>4.47449984683888</v>
+        <v>4.560447944296005</v>
       </c>
       <c r="E2">
-        <v>11.29481709419233</v>
+        <v>10.68852476614178</v>
       </c>
       <c r="F2">
-        <v>26.00643705922497</v>
+        <v>24.14873045771616</v>
       </c>
       <c r="G2">
-        <v>36.77674782176963</v>
+        <v>32.99585699711163</v>
       </c>
       <c r="H2">
-        <v>1.600628130029963</v>
+        <v>1.566585889047156</v>
       </c>
       <c r="I2">
-        <v>2.614157545093824</v>
+        <v>2.664842251265611</v>
       </c>
       <c r="J2">
-        <v>11.78636998079831</v>
+        <v>11.48318157540903</v>
       </c>
       <c r="K2">
-        <v>22.15751199787761</v>
+        <v>20.18008311307085</v>
       </c>
       <c r="L2">
-        <v>0</v>
+        <v>16.74824143316076</v>
       </c>
       <c r="M2">
-        <v>21.37004947422528</v>
+        <v>13.40707932495841</v>
       </c>
       <c r="N2">
-        <v>7.055267537079047</v>
+        <v>0</v>
       </c>
       <c r="O2">
-        <v>0</v>
+        <v>20.66406199772488</v>
       </c>
       <c r="P2">
-        <v>12.4041031821024</v>
+        <v>7.22006372384708</v>
       </c>
       <c r="Q2">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:17">
+      <c r="R2">
+        <v>12.50051112477459</v>
+      </c>
+      <c r="S2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -483,52 +495,58 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>8.94597542184488</v>
+        <v>7.228596698768677</v>
       </c>
       <c r="D3">
-        <v>4.429316746557497</v>
+        <v>4.478765787263704</v>
       </c>
       <c r="E3">
-        <v>10.74926195041706</v>
+        <v>10.2117789324055</v>
       </c>
       <c r="F3">
-        <v>25.08836989817229</v>
+        <v>23.41190294132714</v>
       </c>
       <c r="G3">
-        <v>35.33288418200892</v>
+        <v>31.8964884121777</v>
       </c>
       <c r="H3">
-        <v>1.863954936737933</v>
+        <v>1.79946768975123</v>
       </c>
       <c r="I3">
-        <v>2.561408413064148</v>
+        <v>2.477469732147747</v>
       </c>
       <c r="J3">
-        <v>11.60012494103788</v>
+        <v>11.32521450263211</v>
       </c>
       <c r="K3">
-        <v>21.50626074492002</v>
+        <v>19.71227158956787</v>
       </c>
       <c r="L3">
-        <v>0</v>
+        <v>16.58088875136376</v>
       </c>
       <c r="M3">
-        <v>19.94308835714737</v>
+        <v>12.8455203648477</v>
       </c>
       <c r="N3">
-        <v>6.81209678221445</v>
+        <v>0</v>
       </c>
       <c r="O3">
-        <v>0</v>
+        <v>19.32142486674877</v>
       </c>
       <c r="P3">
-        <v>12.5223541542147</v>
+        <v>6.982272321895075</v>
       </c>
       <c r="Q3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:17">
+      <c r="R3">
+        <v>12.57751946075172</v>
+      </c>
+      <c r="S3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -536,52 +554,58 @@
         <v>0</v>
       </c>
       <c r="C4">
-        <v>8.628423532541598</v>
+        <v>6.999770331293425</v>
       </c>
       <c r="D4">
-        <v>4.400350881506193</v>
+        <v>4.427273235459487</v>
       </c>
       <c r="E4">
-        <v>10.39829420550397</v>
+        <v>9.904942825339727</v>
       </c>
       <c r="F4">
-        <v>24.51693733434288</v>
+        <v>22.95386184853642</v>
       </c>
       <c r="G4">
-        <v>34.42827161392737</v>
+        <v>31.21301927498321</v>
       </c>
       <c r="H4">
-        <v>2.031339423863877</v>
+        <v>1.947716282895493</v>
       </c>
       <c r="I4">
-        <v>2.712957417311831</v>
+        <v>2.605900653120052</v>
       </c>
       <c r="J4">
-        <v>11.48755343892332</v>
+        <v>11.22744800613049</v>
       </c>
       <c r="K4">
-        <v>21.0991920337087</v>
+        <v>19.4193639850033</v>
       </c>
       <c r="L4">
-        <v>0</v>
+        <v>16.46964219855823</v>
       </c>
       <c r="M4">
-        <v>19.02027661407485</v>
+        <v>12.50982539120285</v>
       </c>
       <c r="N4">
-        <v>6.658230764955843</v>
+        <v>0</v>
       </c>
       <c r="O4">
-        <v>0</v>
+        <v>18.44505486045149</v>
       </c>
       <c r="P4">
-        <v>12.59728267533204</v>
+        <v>6.832193630434495</v>
       </c>
       <c r="Q4">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:17">
+      <c r="R4">
+        <v>12.62789915851098</v>
+      </c>
+      <c r="S4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -589,52 +613,58 @@
         <v>0</v>
       </c>
       <c r="C5">
-        <v>8.484051196965487</v>
+        <v>6.893736636639504</v>
       </c>
       <c r="D5">
-        <v>4.388912546545663</v>
+        <v>4.406886813884423</v>
       </c>
       <c r="E5">
-        <v>10.24743415135985</v>
+        <v>9.772797945206978</v>
       </c>
       <c r="F5">
-        <v>24.27097408539875</v>
+        <v>22.75527970763236</v>
       </c>
       <c r="G5">
-        <v>34.03477108767897</v>
+        <v>30.91319237783761</v>
       </c>
       <c r="H5">
-        <v>2.101596537701441</v>
+        <v>2.009997534679739</v>
       </c>
       <c r="I5">
-        <v>2.77961239534956</v>
+        <v>2.663521682982767</v>
       </c>
       <c r="J5">
-        <v>11.43829510332916</v>
+        <v>11.1838549351872</v>
       </c>
       <c r="K5">
-        <v>20.92015469161051</v>
+        <v>19.28810414242733</v>
       </c>
       <c r="L5">
-        <v>0</v>
+        <v>16.41364170339198</v>
       </c>
       <c r="M5">
-        <v>18.64178322669655</v>
+        <v>12.36828550930231</v>
       </c>
       <c r="N5">
-        <v>6.594852947660988</v>
+        <v>0</v>
       </c>
       <c r="O5">
-        <v>0</v>
+        <v>18.06992861408182</v>
       </c>
       <c r="P5">
-        <v>12.62903586122479</v>
+        <v>6.770487066551953</v>
       </c>
       <c r="Q5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:17">
+      <c r="R5">
+        <v>12.65001102719364</v>
+      </c>
+      <c r="S5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -642,52 +672,58 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>8.446942919911542</v>
+        <v>6.864506187216374</v>
       </c>
       <c r="D6">
-        <v>4.387822400656385</v>
+        <v>4.404621037103746</v>
       </c>
       <c r="E6">
-        <v>10.21738987891911</v>
+        <v>9.74621472014371</v>
       </c>
       <c r="F6">
-        <v>24.21604683986652</v>
+        <v>22.70913839921455</v>
       </c>
       <c r="G6">
-        <v>33.94380213895653</v>
+        <v>30.8394976459914</v>
       </c>
       <c r="H6">
-        <v>2.11406803116737</v>
+        <v>2.021063137093195</v>
       </c>
       <c r="I6">
-        <v>2.795053431479873</v>
+        <v>2.678101793480656</v>
       </c>
       <c r="J6">
-        <v>11.42543657253177</v>
+        <v>11.17223312381116</v>
       </c>
       <c r="K6">
-        <v>20.87624383260341</v>
+        <v>19.25330874148742</v>
       </c>
       <c r="L6">
-        <v>0</v>
+        <v>16.39381444003744</v>
       </c>
       <c r="M6">
-        <v>18.5719153184322</v>
+        <v>12.33571207676822</v>
       </c>
       <c r="N6">
-        <v>6.584787720840018</v>
+        <v>0</v>
       </c>
       <c r="O6">
-        <v>0</v>
+        <v>18.00088791391099</v>
       </c>
       <c r="P6">
-        <v>12.63513360322824</v>
+        <v>6.760705299998243</v>
       </c>
       <c r="Q6">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:17">
+      <c r="R6">
+        <v>12.65473791878734</v>
+      </c>
+      <c r="S6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -695,52 +731,58 @@
         <v>0</v>
       </c>
       <c r="C7">
-        <v>8.591946257215753</v>
+        <v>6.972623554688282</v>
       </c>
       <c r="D7">
-        <v>4.40247817536378</v>
+        <v>4.431987553882101</v>
       </c>
       <c r="E7">
-        <v>10.38349757736845</v>
+        <v>9.892598928580142</v>
       </c>
       <c r="F7">
-        <v>24.47583350463636</v>
+        <v>22.89428582339512</v>
       </c>
       <c r="G7">
-        <v>34.35449450138422</v>
+        <v>31.22595089530053</v>
       </c>
       <c r="H7">
-        <v>2.034214889114023</v>
+        <v>1.950963882956945</v>
       </c>
       <c r="I7">
-        <v>2.725286761523341</v>
+        <v>2.620533316586261</v>
       </c>
       <c r="J7">
-        <v>11.47409262666154</v>
+        <v>11.16348463472944</v>
       </c>
       <c r="K7">
-        <v>21.05865056990316</v>
+        <v>19.36843642791556</v>
       </c>
       <c r="L7">
-        <v>0</v>
+        <v>16.4297988258255</v>
       </c>
       <c r="M7">
-        <v>18.99846466938284</v>
+        <v>12.47215363327314</v>
       </c>
       <c r="N7">
-        <v>6.658802763538138</v>
+        <v>0</v>
       </c>
       <c r="O7">
-        <v>0</v>
+        <v>18.41459080171323</v>
       </c>
       <c r="P7">
-        <v>12.5999431470557</v>
+        <v>6.832034022629101</v>
       </c>
       <c r="Q7">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:17">
+      <c r="R7">
+        <v>12.63271678698712</v>
+      </c>
+      <c r="S7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -748,52 +790,58 @@
         <v>0</v>
       </c>
       <c r="C8">
-        <v>9.22649140392242</v>
+        <v>7.438357432267492</v>
       </c>
       <c r="D8">
-        <v>4.462285998384943</v>
+        <v>4.54310980263288</v>
       </c>
       <c r="E8">
-        <v>11.09410658534553</v>
+        <v>10.51649911246434</v>
       </c>
       <c r="F8">
-        <v>25.64363473978482</v>
+        <v>23.78227929374399</v>
       </c>
       <c r="G8">
-        <v>36.1962981548914</v>
+        <v>32.79708863574287</v>
       </c>
       <c r="H8">
-        <v>1.692717275188351</v>
+        <v>1.650113008758138</v>
       </c>
       <c r="I8">
-        <v>2.538019300233311</v>
+        <v>2.599906790502053</v>
       </c>
       <c r="J8">
-        <v>11.70517351028395</v>
+        <v>11.2463013757404</v>
       </c>
       <c r="K8">
-        <v>21.88573687644016</v>
+        <v>19.92968716186378</v>
       </c>
       <c r="L8">
-        <v>0</v>
+        <v>16.62271986660005</v>
       </c>
       <c r="M8">
-        <v>20.86876919868338</v>
+        <v>13.14373293057352</v>
       </c>
       <c r="N8">
-        <v>6.974233802824473</v>
+        <v>0</v>
       </c>
       <c r="O8">
-        <v>0</v>
+        <v>20.16311864624866</v>
       </c>
       <c r="P8">
-        <v>12.44768395656659</v>
+        <v>7.138450283379403</v>
       </c>
       <c r="Q8">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:17">
+      <c r="R8">
+        <v>12.53667564381603</v>
+      </c>
+      <c r="S8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -801,52 +849,58 @@
         <v>0</v>
       </c>
       <c r="C9">
-        <v>10.38522952188712</v>
+        <v>8.276037591104226</v>
       </c>
       <c r="D9">
-        <v>4.565582925764005</v>
+        <v>4.737429260923463</v>
       </c>
       <c r="E9">
-        <v>12.37928455250624</v>
+        <v>11.64036919771949</v>
       </c>
       <c r="F9">
-        <v>27.92520802816031</v>
+        <v>25.6107231798833</v>
       </c>
       <c r="G9">
-        <v>39.76309824887391</v>
+        <v>35.60632100767725</v>
       </c>
       <c r="H9">
-        <v>2.045375445205438</v>
+        <v>2.014364491448602</v>
       </c>
       <c r="I9">
-        <v>3.084211029601197</v>
+        <v>3.060257441620247</v>
       </c>
       <c r="J9">
-        <v>12.19413601568024</v>
+        <v>11.60960984316702</v>
       </c>
       <c r="K9">
-        <v>23.50885205462563</v>
+        <v>21.09362645742489</v>
       </c>
       <c r="L9">
-        <v>0</v>
+        <v>17.021331156075</v>
       </c>
       <c r="M9">
-        <v>24.14863429008486</v>
+        <v>14.59613288353103</v>
       </c>
       <c r="N9">
-        <v>7.552543974046697</v>
+        <v>0</v>
       </c>
       <c r="O9">
-        <v>0</v>
+        <v>23.24246000101918</v>
       </c>
       <c r="P9">
-        <v>12.16324806289736</v>
+        <v>7.705309028761487</v>
       </c>
       <c r="Q9">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:17">
+      <c r="R9">
+        <v>12.36194373577446</v>
+      </c>
+      <c r="S9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -854,52 +908,58 @@
         <v>0</v>
       </c>
       <c r="C10">
-        <v>11.03698207960745</v>
+        <v>8.764308015352976</v>
       </c>
       <c r="D10">
-        <v>4.649871800653052</v>
+        <v>4.9023462353555</v>
       </c>
       <c r="E10">
-        <v>13.03273252223093</v>
+        <v>12.20149801905514</v>
       </c>
       <c r="F10">
-        <v>29.37063389922746</v>
+        <v>26.65514013700038</v>
       </c>
       <c r="G10">
-        <v>41.95714102796325</v>
+        <v>37.74122132749652</v>
       </c>
       <c r="H10">
-        <v>2.456299176450141</v>
+        <v>2.372499713773477</v>
       </c>
       <c r="I10">
-        <v>3.457607163179394</v>
+        <v>3.372434040227722</v>
       </c>
       <c r="J10">
-        <v>12.49725458850927</v>
+        <v>11.54479169574367</v>
       </c>
       <c r="K10">
-        <v>24.48631769148249</v>
+        <v>21.70096161584447</v>
       </c>
       <c r="L10">
-        <v>0</v>
+        <v>17.11936834006769</v>
       </c>
       <c r="M10">
-        <v>26.22960176994242</v>
+        <v>15.50062596603113</v>
       </c>
       <c r="N10">
-        <v>7.833330365053702</v>
+        <v>0</v>
       </c>
       <c r="O10">
-        <v>0</v>
+        <v>25.15473868689848</v>
       </c>
       <c r="P10">
-        <v>11.98388921140987</v>
+        <v>7.973639272341375</v>
       </c>
       <c r="Q10">
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:17">
+      <c r="R10">
+        <v>12.28356139053589</v>
+      </c>
+      <c r="S10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -907,52 +967,58 @@
         <v>0</v>
       </c>
       <c r="C11">
-        <v>10.446038827734</v>
+        <v>8.364708696329004</v>
       </c>
       <c r="D11">
-        <v>4.821326153699629</v>
+        <v>5.156255575322277</v>
       </c>
       <c r="E11">
-        <v>11.58963592555676</v>
+        <v>10.81953203170762</v>
       </c>
       <c r="F11">
-        <v>28.60413809429715</v>
+        <v>25.72102190694975</v>
       </c>
       <c r="G11">
-        <v>40.41741588652298</v>
+        <v>37.19925230775677</v>
       </c>
       <c r="H11">
-        <v>3.220556373808635</v>
+        <v>3.146503384114859</v>
       </c>
       <c r="I11">
-        <v>3.543466321777051</v>
+        <v>3.443944883868455</v>
       </c>
       <c r="J11">
-        <v>12.11934371344607</v>
+        <v>10.65480860017584</v>
       </c>
       <c r="K11">
-        <v>23.56569929479168</v>
+        <v>20.71688990095788</v>
       </c>
       <c r="L11">
-        <v>0</v>
+        <v>16.254002937259</v>
       </c>
       <c r="M11">
-        <v>26.55667678037743</v>
+        <v>14.91753735634702</v>
       </c>
       <c r="N11">
-        <v>6.972803408920804</v>
+        <v>0</v>
       </c>
       <c r="O11">
-        <v>0</v>
+        <v>25.410853505547</v>
       </c>
       <c r="P11">
-        <v>12.06965241912458</v>
+        <v>7.080132546960076</v>
       </c>
       <c r="Q11">
         <v>0</v>
       </c>
-    </row>
-    <row r="12" spans="1:17">
+      <c r="R11">
+        <v>12.45938355876891</v>
+      </c>
+      <c r="S11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -960,52 +1026,58 @@
         <v>0</v>
       </c>
       <c r="C12">
-        <v>9.86682424137487</v>
+        <v>7.966393000712902</v>
       </c>
       <c r="D12">
-        <v>4.963378687676003</v>
+        <v>5.339002375340813</v>
       </c>
       <c r="E12">
-        <v>10.31646214021431</v>
+        <v>9.620901263162015</v>
       </c>
       <c r="F12">
-        <v>27.68591782293978</v>
+        <v>24.80948004309158</v>
       </c>
       <c r="G12">
-        <v>38.71831467757175</v>
+        <v>36.10347453246649</v>
       </c>
       <c r="H12">
-        <v>4.381336716613152</v>
+        <v>4.328210179178744</v>
       </c>
       <c r="I12">
-        <v>3.54237786737525</v>
+        <v>3.442594057063506</v>
       </c>
       <c r="J12">
-        <v>11.74805274233621</v>
+        <v>10.11700399724294</v>
       </c>
       <c r="K12">
-        <v>22.62271110844116</v>
+        <v>19.84301875302559</v>
       </c>
       <c r="L12">
-        <v>0</v>
+        <v>15.5749322254149</v>
       </c>
       <c r="M12">
-        <v>26.42689439532094</v>
+        <v>14.29354379771516</v>
       </c>
       <c r="N12">
-        <v>6.262242542250536</v>
+        <v>0</v>
       </c>
       <c r="O12">
-        <v>0</v>
+        <v>25.28053145521721</v>
       </c>
       <c r="P12">
-        <v>12.19447394200094</v>
+        <v>6.341867898709751</v>
       </c>
       <c r="Q12">
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:17">
+      <c r="R12">
+        <v>12.62732445224751</v>
+      </c>
+      <c r="S12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -1013,52 +1085,58 @@
         <v>0</v>
       </c>
       <c r="C13">
-        <v>9.206402492221848</v>
+        <v>7.49249661840123</v>
       </c>
       <c r="D13">
-        <v>5.092773858426301</v>
+        <v>5.471761991016367</v>
       </c>
       <c r="E13">
-        <v>9.08363304309138</v>
+        <v>8.48392879374995</v>
       </c>
       <c r="F13">
-        <v>26.52172042288934</v>
+        <v>23.83777624643499</v>
       </c>
       <c r="G13">
-        <v>36.65944739251002</v>
+        <v>34.21636055701858</v>
       </c>
       <c r="H13">
-        <v>5.639922244848328</v>
+        <v>5.60511526130395</v>
       </c>
       <c r="I13">
-        <v>3.475912370908311</v>
+        <v>3.38962490710241</v>
       </c>
       <c r="J13">
-        <v>11.33689488203777</v>
+        <v>9.878026692866475</v>
       </c>
       <c r="K13">
-        <v>21.53743309551959</v>
+        <v>18.96957373000212</v>
       </c>
       <c r="L13">
-        <v>0</v>
+        <v>14.96835861916103</v>
       </c>
       <c r="M13">
-        <v>25.91479734579687</v>
+        <v>13.57688277249861</v>
       </c>
       <c r="N13">
-        <v>5.646478536411982</v>
+        <v>0</v>
       </c>
       <c r="O13">
-        <v>0</v>
+        <v>24.8414624463124</v>
       </c>
       <c r="P13">
-        <v>12.35441582839129</v>
+        <v>5.70187344796114</v>
       </c>
       <c r="Q13">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:17">
+      <c r="R13">
+        <v>12.78623078997412</v>
+      </c>
+      <c r="S13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -1066,52 +1144,58 @@
         <v>0</v>
       </c>
       <c r="C14">
-        <v>8.697988510244425</v>
+        <v>7.12341662120039</v>
       </c>
       <c r="D14">
-        <v>5.179854230257702</v>
+        <v>5.543089413924811</v>
       </c>
       <c r="E14">
-        <v>8.268267589999859</v>
+        <v>7.753044851880156</v>
       </c>
       <c r="F14">
-        <v>25.57539632275062</v>
+        <v>23.11029970868577</v>
       </c>
       <c r="G14">
-        <v>35.0182312979944</v>
+        <v>32.51169303498835</v>
       </c>
       <c r="H14">
-        <v>6.555759521439282</v>
+        <v>6.531451546114864</v>
       </c>
       <c r="I14">
-        <v>3.40091371701658</v>
+        <v>3.330483790795931</v>
       </c>
       <c r="J14">
-        <v>11.02729990507875</v>
+        <v>9.826503102301617</v>
       </c>
       <c r="K14">
-        <v>20.69835557262088</v>
+        <v>18.34332351932208</v>
       </c>
       <c r="L14">
-        <v>0</v>
+        <v>14.56346226917124</v>
       </c>
       <c r="M14">
-        <v>25.37249621569593</v>
+        <v>13.02155920992928</v>
       </c>
       <c r="N14">
-        <v>5.293757840423784</v>
+        <v>0</v>
       </c>
       <c r="O14">
-        <v>0</v>
+        <v>24.383894052656</v>
       </c>
       <c r="P14">
-        <v>12.48293146950164</v>
+        <v>5.333374549519935</v>
       </c>
       <c r="Q14">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:17">
+      <c r="R14">
+        <v>12.89285791581242</v>
+      </c>
+      <c r="S14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -1119,52 +1203,58 @@
         <v>0</v>
       </c>
       <c r="C15">
-        <v>8.544708338556907</v>
+        <v>7.008404007450799</v>
       </c>
       <c r="D15">
-        <v>5.197551539856446</v>
+        <v>5.549813264468525</v>
       </c>
       <c r="E15">
-        <v>8.06756895533761</v>
+        <v>7.577807163651862</v>
       </c>
       <c r="F15">
-        <v>25.28012368270276</v>
+        <v>22.90514796261898</v>
       </c>
       <c r="G15">
-        <v>34.51892276472012</v>
+        <v>31.92056750532335</v>
       </c>
       <c r="H15">
-        <v>6.763472708345954</v>
+        <v>6.742191422608501</v>
       </c>
       <c r="I15">
-        <v>3.368715884492182</v>
+        <v>3.305682746047366</v>
       </c>
       <c r="J15">
-        <v>10.94005398481063</v>
+        <v>9.860591068000373</v>
       </c>
       <c r="K15">
-        <v>20.45198650349652</v>
+        <v>18.17704014562932</v>
       </c>
       <c r="L15">
-        <v>0</v>
+        <v>14.46786008871415</v>
       </c>
       <c r="M15">
-        <v>25.15132949833358</v>
+        <v>12.85686092592086</v>
       </c>
       <c r="N15">
-        <v>5.21852490307004</v>
+        <v>0</v>
       </c>
       <c r="O15">
-        <v>0</v>
+        <v>24.19831196700645</v>
       </c>
       <c r="P15">
-        <v>12.52024456422891</v>
+        <v>5.255805590674067</v>
       </c>
       <c r="Q15">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:17">
+      <c r="R15">
+        <v>12.91620252892734</v>
+      </c>
+      <c r="S15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -1172,52 +1262,58 @@
         <v>0</v>
       </c>
       <c r="C16">
-        <v>8.348569015795762</v>
+        <v>6.826328175634834</v>
       </c>
       <c r="D16">
-        <v>5.135231762505444</v>
+        <v>5.427424935905919</v>
       </c>
       <c r="E16">
-        <v>7.967504061437043</v>
+        <v>7.499122349597613</v>
       </c>
       <c r="F16">
-        <v>24.82197297626576</v>
+        <v>22.7516615327849</v>
       </c>
       <c r="G16">
-        <v>33.8543317924838</v>
+        <v>30.6343636496367</v>
       </c>
       <c r="H16">
-        <v>6.483637048167036</v>
+        <v>6.470617759959546</v>
       </c>
       <c r="I16">
-        <v>3.224791903197324</v>
+        <v>3.190435021872314</v>
       </c>
       <c r="J16">
-        <v>10.87791312269563</v>
+        <v>10.28827540195274</v>
       </c>
       <c r="K16">
-        <v>20.19734142571966</v>
+        <v>18.15223976076645</v>
       </c>
       <c r="L16">
-        <v>0</v>
+        <v>14.57026048051956</v>
       </c>
       <c r="M16">
-        <v>24.35688659986795</v>
+        <v>12.66688042066886</v>
       </c>
       <c r="N16">
-        <v>5.202466687488863</v>
+        <v>0</v>
       </c>
       <c r="O16">
-        <v>0</v>
+        <v>23.52946571201081</v>
       </c>
       <c r="P16">
-        <v>12.54928178500213</v>
+        <v>5.256319214956518</v>
       </c>
       <c r="Q16">
         <v>0</v>
       </c>
-    </row>
-    <row r="17" spans="1:17">
+      <c r="R16">
+        <v>12.87197579197274</v>
+      </c>
+      <c r="S16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -1225,52 +1321,58 @@
         <v>0</v>
       </c>
       <c r="C17">
-        <v>8.472736925723272</v>
+        <v>6.886731079576548</v>
       </c>
       <c r="D17">
-        <v>5.039519132291936</v>
+        <v>5.3001954099464</v>
       </c>
       <c r="E17">
-        <v>8.315025559089428</v>
+        <v>7.812982385445531</v>
       </c>
       <c r="F17">
-        <v>24.98920626750248</v>
+        <v>23.00603921119929</v>
       </c>
       <c r="G17">
-        <v>34.24627170880033</v>
+        <v>30.68882893221258</v>
       </c>
       <c r="H17">
-        <v>5.730727468779396</v>
+        <v>5.720243131943295</v>
       </c>
       <c r="I17">
-        <v>3.153896332763696</v>
+        <v>3.132557906446002</v>
       </c>
       <c r="J17">
-        <v>10.99684476843282</v>
+        <v>10.59504948273399</v>
       </c>
       <c r="K17">
-        <v>20.45663515394552</v>
+        <v>18.45568967598631</v>
       </c>
       <c r="L17">
-        <v>0</v>
+        <v>14.86131523231323</v>
       </c>
       <c r="M17">
-        <v>24.03685966554137</v>
+        <v>12.80751650659146</v>
       </c>
       <c r="N17">
-        <v>5.362499095148634</v>
+        <v>0</v>
       </c>
       <c r="O17">
-        <v>0</v>
+        <v>23.24878187379088</v>
       </c>
       <c r="P17">
-        <v>12.50558166521539</v>
+        <v>5.436986377551118</v>
       </c>
       <c r="Q17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:17">
+      <c r="R17">
+        <v>12.79109416727904</v>
+      </c>
+      <c r="S17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:19">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -1278,52 +1380,58 @@
         <v>0</v>
       </c>
       <c r="C18">
-        <v>8.924551847389942</v>
+        <v>7.192570688695171</v>
       </c>
       <c r="D18">
-        <v>4.908477187812635</v>
+        <v>5.149958128410821</v>
       </c>
       <c r="E18">
-        <v>9.189460520545154</v>
+        <v>8.610708071210835</v>
       </c>
       <c r="F18">
-        <v>25.73723029842412</v>
+        <v>23.70220720609037</v>
       </c>
       <c r="G18">
-        <v>35.63652408070453</v>
+        <v>31.78743858691645</v>
       </c>
       <c r="H18">
-        <v>4.523587722428867</v>
+        <v>4.510650664248123</v>
       </c>
       <c r="I18">
-        <v>3.138750507458836</v>
+        <v>3.117575567334271</v>
       </c>
       <c r="J18">
-        <v>11.29296860468139</v>
+        <v>10.92936514827562</v>
       </c>
       <c r="K18">
-        <v>21.21511898087099</v>
+        <v>19.12869038440378</v>
       </c>
       <c r="L18">
-        <v>0</v>
+        <v>15.39135450022008</v>
       </c>
       <c r="M18">
-        <v>24.11340952786387</v>
+        <v>13.28442801966538</v>
       </c>
       <c r="N18">
-        <v>5.777485120424613</v>
+        <v>0</v>
       </c>
       <c r="O18">
-        <v>0</v>
+        <v>23.30862259248415</v>
       </c>
       <c r="P18">
-        <v>12.39816307223964</v>
+        <v>5.876817362405676</v>
       </c>
       <c r="Q18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:17">
+      <c r="R18">
+        <v>12.66330855057509</v>
+      </c>
+      <c r="S18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:19">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -1331,52 +1439,58 @@
         <v>0</v>
       </c>
       <c r="C19">
-        <v>9.570417712580305</v>
+        <v>7.650632082286735</v>
       </c>
       <c r="D19">
-        <v>4.777535431200412</v>
+        <v>5.005754665986267</v>
       </c>
       <c r="E19">
-        <v>10.49627178831386</v>
+        <v>9.826362268061851</v>
       </c>
       <c r="F19">
-        <v>26.82259895593899</v>
+        <v>24.65020940492911</v>
       </c>
       <c r="G19">
-        <v>37.59474575615223</v>
+        <v>33.45567118899449</v>
       </c>
       <c r="H19">
-        <v>3.196840534785728</v>
+        <v>3.173165426465689</v>
       </c>
       <c r="I19">
-        <v>3.179795043900956</v>
+        <v>3.150974869185673</v>
       </c>
       <c r="J19">
-        <v>11.68761552301279</v>
+        <v>11.28007235560055</v>
       </c>
       <c r="K19">
-        <v>22.25357102513822</v>
+        <v>20.00220362823145</v>
       </c>
       <c r="L19">
-        <v>0</v>
+        <v>16.04313253976924</v>
       </c>
       <c r="M19">
-        <v>24.47779362371216</v>
+        <v>13.95511791328254</v>
       </c>
       <c r="N19">
-        <v>6.463082400735725</v>
+        <v>0</v>
       </c>
       <c r="O19">
-        <v>0</v>
+        <v>23.62080713538359</v>
       </c>
       <c r="P19">
-        <v>12.26537060713207</v>
+        <v>6.586102081505881</v>
       </c>
       <c r="Q19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:17">
+      <c r="R19">
+        <v>12.51992070586516</v>
+      </c>
+      <c r="S19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:19">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -1384,52 +1498,58 @@
         <v>0</v>
       </c>
       <c r="C20">
-        <v>10.77895038043308</v>
+        <v>8.547434393919474</v>
       </c>
       <c r="D20">
-        <v>4.636584424609824</v>
+        <v>4.863657917695845</v>
       </c>
       <c r="E20">
-        <v>12.82316122903773</v>
+        <v>12.01429011248044</v>
       </c>
       <c r="F20">
-        <v>28.88596133156405</v>
+        <v>26.3482363330611</v>
       </c>
       <c r="G20">
-        <v>41.19393910486433</v>
+        <v>36.75192237825195</v>
       </c>
       <c r="H20">
-        <v>2.342813223661596</v>
+        <v>2.275366720209036</v>
       </c>
       <c r="I20">
-        <v>3.365076814806811</v>
+        <v>3.302092900245782</v>
       </c>
       <c r="J20">
-        <v>12.37751847808731</v>
+        <v>11.69612856140475</v>
       </c>
       <c r="K20">
-        <v>24.12071608173824</v>
+        <v>21.4861472738537</v>
       </c>
       <c r="L20">
-        <v>0</v>
+        <v>17.05320350329372</v>
       </c>
       <c r="M20">
-        <v>25.65599928422607</v>
+        <v>15.21878956178676</v>
       </c>
       <c r="N20">
-        <v>7.759278412085807</v>
+        <v>0</v>
       </c>
       <c r="O20">
-        <v>0</v>
+        <v>24.65355362057428</v>
       </c>
       <c r="P20">
-        <v>12.04028151567243</v>
+        <v>7.904959245024484</v>
       </c>
       <c r="Q20">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="1:17">
+      <c r="R20">
+        <v>12.30712371742395</v>
+      </c>
+      <c r="S20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:19">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -1437,52 +1557,58 @@
         <v>0</v>
       </c>
       <c r="C21">
-        <v>11.42670987641045</v>
+        <v>9.107078333219667</v>
       </c>
       <c r="D21">
-        <v>4.677374954084063</v>
+        <v>4.998925653733976</v>
       </c>
       <c r="E21">
-        <v>13.62505443871096</v>
+        <v>12.75413016259885</v>
       </c>
       <c r="F21">
-        <v>30.24488211425681</v>
+        <v>27.02719771029433</v>
       </c>
       <c r="G21">
-        <v>43.32058277482886</v>
+        <v>40.08597817227449</v>
       </c>
       <c r="H21">
-        <v>2.676351860905669</v>
+        <v>2.556161444498043</v>
       </c>
       <c r="I21">
-        <v>3.660134048785996</v>
+        <v>3.537039229099484</v>
       </c>
       <c r="J21">
-        <v>12.71011424496697</v>
+        <v>10.86253697474178</v>
       </c>
       <c r="K21">
-        <v>25.11430214896</v>
+        <v>21.92679723111571</v>
       </c>
       <c r="L21">
-        <v>0</v>
+        <v>17.11114368513759</v>
       </c>
       <c r="M21">
-        <v>27.28306271174253</v>
+        <v>15.89619254686218</v>
       </c>
       <c r="N21">
-        <v>8.15210259932133</v>
+        <v>0</v>
       </c>
       <c r="O21">
-        <v>0</v>
+        <v>26.00801529722128</v>
       </c>
       <c r="P21">
-        <v>11.88029783670643</v>
+        <v>8.280921244491902</v>
       </c>
       <c r="Q21">
         <v>0</v>
       </c>
-    </row>
-    <row r="22" spans="1:17">
+      <c r="R21">
+        <v>12.26811739391698</v>
+      </c>
+      <c r="S21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:19">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -1490,52 +1616,58 @@
         <v>0</v>
       </c>
       <c r="C22">
-        <v>11.81739850224028</v>
+        <v>9.457521744357903</v>
       </c>
       <c r="D22">
-        <v>4.70640174004454</v>
+        <v>5.093653725965941</v>
       </c>
       <c r="E22">
-        <v>14.04130653525444</v>
+        <v>13.13757285731492</v>
       </c>
       <c r="F22">
-        <v>31.07833535310502</v>
+        <v>27.41028542742665</v>
       </c>
       <c r="G22">
-        <v>44.61088657751001</v>
+        <v>42.2612785025519</v>
       </c>
       <c r="H22">
-        <v>2.884181717598209</v>
+        <v>2.730486470780144</v>
       </c>
       <c r="I22">
-        <v>3.843544226338998</v>
+        <v>3.680848176657891</v>
       </c>
       <c r="J22">
-        <v>12.91399219002096</v>
+        <v>10.27415060080139</v>
       </c>
       <c r="K22">
-        <v>25.71700794098106</v>
+        <v>22.16650166508867</v>
       </c>
       <c r="L22">
-        <v>0</v>
+        <v>17.11398200906881</v>
       </c>
       <c r="M22">
-        <v>28.28325703584812</v>
+        <v>16.30187147580703</v>
       </c>
       <c r="N22">
-        <v>8.340596233508165</v>
+        <v>0</v>
       </c>
       <c r="O22">
-        <v>0</v>
+        <v>26.83123340994679</v>
       </c>
       <c r="P22">
-        <v>11.78194948764771</v>
+        <v>8.457115321458557</v>
       </c>
       <c r="Q22">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="1:17">
+      <c r="R22">
+        <v>12.25692044894459</v>
+      </c>
+      <c r="S22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:19">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -1543,52 +1675,58 @@
         <v>0</v>
       </c>
       <c r="C23">
-        <v>11.64181248074025</v>
+        <v>9.288571696555319</v>
       </c>
       <c r="D23">
-        <v>4.688027359074157</v>
+        <v>5.033529554334726</v>
       </c>
       <c r="E23">
-        <v>13.83234780149898</v>
+        <v>12.94196696308212</v>
       </c>
       <c r="F23">
-        <v>30.67149470133137</v>
+        <v>27.2882451922873</v>
       </c>
       <c r="G23">
-        <v>43.98991561208804</v>
+        <v>40.98453981576046</v>
       </c>
       <c r="H23">
-        <v>2.775529192166039</v>
+        <v>2.640589852146508</v>
       </c>
       <c r="I23">
-        <v>3.744301056012625</v>
+        <v>3.602300733919265</v>
       </c>
       <c r="J23">
-        <v>12.81876927490732</v>
+        <v>10.71132167166017</v>
       </c>
       <c r="K23">
-        <v>25.4346335057259</v>
+        <v>22.1065334329444</v>
       </c>
       <c r="L23">
-        <v>0</v>
+        <v>17.16120792829466</v>
       </c>
       <c r="M23">
-        <v>27.76815513997317</v>
+        <v>16.13897119419002</v>
       </c>
       <c r="N23">
-        <v>8.238962705734759</v>
+        <v>0</v>
       </c>
       <c r="O23">
-        <v>0</v>
+        <v>26.42747761317172</v>
       </c>
       <c r="P23">
-        <v>11.83036908177898</v>
+        <v>8.363454208794872</v>
       </c>
       <c r="Q23">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="1:17">
+      <c r="R23">
+        <v>12.25092806990401</v>
+      </c>
+      <c r="S23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:19">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -1596,52 +1734,58 @@
         <v>0</v>
       </c>
       <c r="C24">
-        <v>10.89745964400019</v>
+        <v>8.640937428119685</v>
       </c>
       <c r="D24">
-        <v>4.620854436152567</v>
+        <v>4.842964774606009</v>
       </c>
       <c r="E24">
-        <v>12.99282650534201</v>
+        <v>12.17588689960666</v>
       </c>
       <c r="F24">
-        <v>29.04874750820057</v>
+        <v>26.49759467179415</v>
       </c>
       <c r="G24">
-        <v>41.48943600859658</v>
+        <v>37.00444417709728</v>
       </c>
       <c r="H24">
-        <v>2.353355419828216</v>
+        <v>2.284775626227975</v>
       </c>
       <c r="I24">
-        <v>3.364702386353385</v>
+        <v>3.298493780197677</v>
       </c>
       <c r="J24">
-        <v>12.43943510035749</v>
+        <v>11.75843823524018</v>
       </c>
       <c r="K24">
-        <v>24.28598438217248</v>
+        <v>21.63305046352176</v>
       </c>
       <c r="L24">
-        <v>0</v>
+        <v>17.1652416899111</v>
       </c>
       <c r="M24">
-        <v>25.70378006596165</v>
+        <v>15.32862967105697</v>
       </c>
       <c r="N24">
-        <v>7.846543392921205</v>
+        <v>0</v>
       </c>
       <c r="O24">
-        <v>0</v>
+        <v>24.69632924270127</v>
       </c>
       <c r="P24">
-        <v>12.02467296734193</v>
+        <v>7.994062898187275</v>
       </c>
       <c r="Q24">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="1:17">
+      <c r="R24">
+        <v>12.28728161220559</v>
+      </c>
+      <c r="S24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:19">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -1649,48 +1793,54 @@
         <v>0</v>
       </c>
       <c r="C25">
-        <v>10.03287257208362</v>
+        <v>8.007813860749154</v>
       </c>
       <c r="D25">
-        <v>4.543096738289734</v>
+        <v>4.689331807488122</v>
       </c>
       <c r="E25">
-        <v>12.02554372252394</v>
+        <v>11.32830792539431</v>
       </c>
       <c r="F25">
-        <v>27.2552903117037</v>
+        <v>25.09262416983533</v>
       </c>
       <c r="G25">
-        <v>38.7065219290455</v>
+        <v>34.64640382516575</v>
       </c>
       <c r="H25">
-        <v>1.880624349666573</v>
+        <v>1.870152467943218</v>
       </c>
       <c r="I25">
-        <v>2.942455040071914</v>
+        <v>2.944349214883823</v>
       </c>
       <c r="J25">
-        <v>12.03844294794519</v>
+        <v>11.56192426508852</v>
       </c>
       <c r="K25">
-        <v>23.01397304577099</v>
+        <v>20.7448606675198</v>
       </c>
       <c r="L25">
-        <v>0</v>
+        <v>16.89084902154877</v>
       </c>
       <c r="M25">
-        <v>23.28153966801422</v>
+        <v>14.16989058020398</v>
       </c>
       <c r="N25">
-        <v>7.402771298704673</v>
+        <v>0</v>
       </c>
       <c r="O25">
-        <v>0</v>
+        <v>22.44031955790707</v>
       </c>
       <c r="P25">
-        <v>12.24322999784079</v>
+        <v>7.559278901145275</v>
       </c>
       <c r="Q25">
+        <v>0</v>
+      </c>
+      <c r="R25">
+        <v>12.40977622970132</v>
+      </c>
+      <c r="S25">
         <v>0</v>
       </c>
     </row>
